--- a/week_02.xlsx
+++ b/week_02.xlsx
@@ -9,13 +9,12 @@
     <sheet name="Assets" sheetId="2" r:id="rId5"/>
     <sheet name="Risks" sheetId="3" r:id="rId6"/>
     <sheet name="Org Structure" sheetId="4" r:id="rId7"/>
-    <sheet name="Obsolete" sheetId="5" r:id="rId8"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="458">
   <si>
     <t>Table 1</t>
   </si>
@@ -110,6 +109,12 @@
     <t>Max Length: 50</t>
   </si>
   <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Org ID</t>
+  </si>
+  <si>
     <t>Level</t>
   </si>
   <si>
@@ -482,9 +487,6 @@
     <t>Org Structure</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>Abbreviations</t>
   </si>
   <si>
@@ -1386,111 +1388,6 @@
   </si>
   <si>
     <t>Branch 07</t>
-  </si>
-  <si>
-    <t>Abbrev</t>
-  </si>
-  <si>
-    <t>Parent</t>
-  </si>
-  <si>
-    <t>Grandparent</t>
-  </si>
-  <si>
-    <t>organization</t>
-  </si>
-  <si>
-    <t>EOps</t>
-  </si>
-  <si>
-    <t>division</t>
-  </si>
-  <si>
-    <t>Deputy ACIO EOps (Exec)</t>
-  </si>
-  <si>
-    <t>Exec</t>
-  </si>
-  <si>
-    <t>3805</t>
-  </si>
-  <si>
-    <t>3808</t>
-  </si>
-  <si>
-    <t>Technology Implementation Services</t>
-  </si>
-  <si>
-    <t>department</t>
-  </si>
-  <si>
-    <t>Aged Infras Init Supp Office</t>
-  </si>
-  <si>
-    <t>Cloud Integration Office</t>
-  </si>
-  <si>
-    <t>Distributed Db Services Branch 1</t>
-  </si>
-  <si>
-    <t>Distributed Db Services Branch 2</t>
-  </si>
-  <si>
-    <t>Dmpg Program Office</t>
-  </si>
-  <si>
-    <t>Ecc Division Mgmt Office</t>
-  </si>
-  <si>
-    <t>Enterprise Messg &amp; Virtualization Branch</t>
-  </si>
-  <si>
-    <t>IBM Z/Vm &amp; Tpf Services Branch</t>
-  </si>
-  <si>
-    <t>IT OCC Division Mgmt Office</t>
-  </si>
-  <si>
-    <t>BU</t>
-  </si>
-  <si>
-    <t>BU 01-01-01</t>
-  </si>
-  <si>
-    <t>Department 01-01</t>
-  </si>
-  <si>
-    <t>Division 01</t>
-  </si>
-  <si>
-    <t>BU 01-01-02</t>
-  </si>
-  <si>
-    <t>BU 01-01-03</t>
-  </si>
-  <si>
-    <t>BU 01-02-01</t>
-  </si>
-  <si>
-    <t>Department 01-02</t>
-  </si>
-  <si>
-    <t>BU 02-01-01</t>
-  </si>
-  <si>
-    <t>Department 02-01</t>
-  </si>
-  <si>
-    <t>Division 02</t>
-  </si>
-  <si>
-    <t>BU 02-01-02</t>
-  </si>
-  <si>
-    <t>BU 01-03-01</t>
-  </si>
-  <si>
-    <t>Department 01-03</t>
   </si>
 </sst>
 </file>
@@ -1500,7 +1397,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -1538,13 +1435,8 @@
       <color indexed="8"/>
       <name val="Courier New"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Aptos Narrow"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1569,20 +1461,8 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="15"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="18"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1732,118 +1612,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="16"/>
-      </left>
-      <right style="thin">
-        <color indexed="16"/>
-      </right>
-      <top style="thin">
-        <color indexed="16"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="17"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="16"/>
-      </left>
-      <right style="thin">
-        <color indexed="17"/>
-      </right>
-      <top style="thin">
-        <color indexed="17"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="16"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="17"/>
-      </left>
-      <right style="thin">
-        <color indexed="16"/>
-      </right>
-      <top style="thin">
-        <color indexed="17"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="16"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="16"/>
-      </left>
-      <right style="thin">
-        <color indexed="16"/>
-      </right>
-      <top style="thin">
-        <color indexed="17"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="16"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="16"/>
-      </left>
-      <right style="thin">
-        <color indexed="17"/>
-      </right>
-      <top style="thin">
-        <color indexed="16"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="16"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="17"/>
-      </left>
-      <right style="thin">
-        <color indexed="16"/>
-      </right>
-      <top style="thin">
-        <color indexed="16"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="16"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="16"/>
-      </left>
-      <right style="thin">
-        <color indexed="16"/>
-      </right>
-      <top style="thin">
-        <color indexed="16"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="16"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1920,76 +1695,43 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2012,10 +1754,6 @@
       <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
     </indexedColors>
@@ -3049,14 +2787,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="6" width="16.3516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="27.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27.8516" style="1" customWidth="1"/>
     <col min="8" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3234,139 +2972,121 @@
       </c>
     </row>
     <row r="10" ht="56.05" customHeight="1">
-      <c r="A10" t="s" s="10">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" ht="27.65" customHeight="1">
+      <c r="A11" t="s" s="10">
         <v>31</v>
       </c>
-      <c r="B10" t="s" s="11">
+      <c r="B11" t="s" s="11">
         <v>32</v>
       </c>
-      <c r="C10" t="s" s="12">
+      <c r="C11" t="s" s="12">
         <v>24</v>
-      </c>
-      <c r="D10" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="14">
-        <v>4</v>
-      </c>
-      <c r="G10" t="s" s="12">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" t="s" s="10">
-        <v>34</v>
-      </c>
-      <c r="B11" t="s" s="11">
-        <v>35</v>
-      </c>
-      <c r="C11" t="s" s="12">
-        <v>10</v>
       </c>
       <c r="D11" t="s" s="12">
         <v>11</v>
       </c>
       <c r="E11" s="13"/>
-      <c r="F11" s="14">
-        <v>100</v>
-      </c>
+      <c r="F11" s="13"/>
       <c r="G11" t="s" s="12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" ht="26.7" customHeight="1">
       <c r="A12" t="s" s="10">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s" s="11">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s" s="12">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s" s="12">
         <v>11</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="14">
-        <v>9999</v>
-      </c>
-      <c r="G12" s="12"/>
-    </row>
-    <row r="13" ht="32.05" customHeight="1">
+        <v>4</v>
+      </c>
+      <c r="G12" t="s" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" ht="20.05" customHeight="1">
       <c r="A13" t="s" s="10">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s" s="12">
         <v>10</v>
       </c>
       <c r="D13" t="s" s="12">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="14">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G13" t="s" s="12">
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" t="s" s="10">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s" s="11">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s" s="12">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="E14" s="14">
-        <v>1</v>
-      </c>
+      <c r="E14" s="13"/>
       <c r="F14" s="14">
-        <v>5</v>
-      </c>
-      <c r="G14" t="s" s="12">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
+        <v>9999</v>
+      </c>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" ht="32.05" customHeight="1">
       <c r="A15" t="s" s="10">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s" s="11">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s" s="12">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="E15" s="14">
-        <v>1</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="E15" s="13"/>
       <c r="F15" s="14">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="G15" t="s" s="12">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" t="s" s="10">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s" s="11">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s" s="12">
         <v>24</v>
@@ -3381,137 +3101,165 @@
         <v>5</v>
       </c>
       <c r="G16" t="s" s="12">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" t="s" s="10">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s" s="11">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s" s="12">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s" s="12">
-        <v>17</v>
-      </c>
-      <c r="E17" s="13"/>
+        <v>11</v>
+      </c>
+      <c r="E17" s="14">
+        <v>1</v>
+      </c>
       <c r="F17" s="14">
-        <v>500</v>
+        <v>3</v>
       </c>
       <c r="G17" t="s" s="12">
-        <v>18</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" t="s" s="10">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s" s="11">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s" s="12">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
+      <c r="E18" s="14">
+        <v>1</v>
+      </c>
+      <c r="F18" s="14">
+        <v>5</v>
+      </c>
       <c r="G18" t="s" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" ht="32.05" customHeight="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" ht="20.05" customHeight="1">
       <c r="A19" t="s" s="10">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s" s="11">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s" s="12">
         <v>10</v>
       </c>
       <c r="D19" t="s" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="14">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="G19" t="s" s="12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" ht="32.05" customHeight="1">
-      <c r="A20" t="s" s="10">
-        <v>54</v>
-      </c>
-      <c r="B20" t="s" s="11">
-        <v>55</v>
-      </c>
-      <c r="C20" t="s" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" ht="20.05" customHeight="1">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" ht="20.05" customHeight="1">
+      <c r="A21" t="s" s="10">
+        <v>52</v>
+      </c>
+      <c r="B21" t="s" s="11">
+        <v>53</v>
+      </c>
+      <c r="C21" t="s" s="12">
         <v>10</v>
-      </c>
-      <c r="D20" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="14">
-        <v>50</v>
-      </c>
-      <c r="G20" t="s" s="12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" ht="32.05" customHeight="1">
-      <c r="A21" t="s" s="10">
-        <v>56</v>
-      </c>
-      <c r="B21" t="s" s="11">
-        <v>57</v>
-      </c>
-      <c r="C21" t="s" s="12">
-        <v>24</v>
       </c>
       <c r="D21" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" t="s" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" ht="32.05" customHeight="1">
+      <c r="A22" t="s" s="10">
+        <v>54</v>
+      </c>
+      <c r="B22" t="s" s="11">
+        <v>55</v>
+      </c>
+      <c r="C22" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="E22" s="13"/>
+      <c r="F22" s="14">
+        <v>50</v>
+      </c>
+      <c r="G22" t="s" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" ht="32.05" customHeight="1">
+      <c r="A23" t="s" s="10">
+        <v>56</v>
+      </c>
+      <c r="B23" t="s" s="11">
+        <v>57</v>
+      </c>
+      <c r="C23" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="14">
+        <v>50</v>
+      </c>
+      <c r="G23" t="s" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" ht="32.05" customHeight="1">
+      <c r="A24" t="s" s="10">
+        <v>58</v>
+      </c>
+      <c r="B24" t="s" s="11">
+        <v>59</v>
+      </c>
+      <c r="C24" t="s" s="12">
+        <v>24</v>
+      </c>
+      <c r="D24" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="E24" s="14">
         <v>0</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F24" s="15">
         <v>100000000</v>
       </c>
-      <c r="G21" s="13"/>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="16"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-    </row>
-    <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="16"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-    </row>
-    <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" s="16"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
       <c r="G24" s="13"/>
     </row>
     <row r="25" ht="20.05" customHeight="1">
@@ -3540,6 +3288,33 @@
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
+    </row>
+    <row r="28" ht="20.05" customHeight="1">
+      <c r="A28" s="16"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+    </row>
+    <row r="29" ht="20.05" customHeight="1">
+      <c r="A29" s="16"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+    </row>
+    <row r="30" ht="20.05" customHeight="1">
+      <c r="A30" s="16"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3565,7 +3340,7 @@
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="16.3516" style="18" customWidth="1"/>
-    <col min="2" max="2" width="20.6562" style="18" customWidth="1"/>
+    <col min="2" max="2" width="20.6719" style="18" customWidth="1"/>
     <col min="3" max="5" width="16.3516" style="18" customWidth="1"/>
     <col min="6" max="16384" width="16.3516" style="18" customWidth="1"/>
   </cols>
@@ -3581,28 +3356,28 @@
     </row>
     <row r="2" ht="20.25" customHeight="1">
       <c r="A2" t="s" s="5">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s" s="5">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s" s="5">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s" s="5">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E2" s="19"/>
     </row>
     <row r="3" ht="32.25" customHeight="1">
       <c r="A3" t="s" s="6">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s" s="20">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D3" s="21">
         <v>1000000</v>
@@ -3611,13 +3386,13 @@
     </row>
     <row r="4" ht="32.05" customHeight="1">
       <c r="A4" t="s" s="10">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s" s="11">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s" s="12">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D4" s="15">
         <v>1500000</v>
@@ -3626,13 +3401,13 @@
     </row>
     <row r="5" ht="32.05" customHeight="1">
       <c r="A5" t="s" s="10">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s" s="11">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s" s="12">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D5" s="15">
         <v>1350000</v>
@@ -3641,13 +3416,13 @@
     </row>
     <row r="6" ht="20.05" customHeight="1">
       <c r="A6" t="s" s="10">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s" s="11">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s" s="12">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D6" s="15">
         <v>1750000</v>
@@ -3656,13 +3431,13 @@
     </row>
     <row r="7" ht="20.05" customHeight="1">
       <c r="A7" t="s" s="10">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s" s="11">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s" s="12">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D7" s="15">
         <v>850000</v>
@@ -3671,13 +3446,13 @@
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" t="s" s="10">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B8" t="s" s="11">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s" s="12">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D8" s="15">
         <v>5500000</v>
@@ -3686,13 +3461,13 @@
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" t="s" s="10">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B9" t="s" s="11">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s" s="12">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D9" s="15">
         <v>4500000</v>
@@ -3701,13 +3476,13 @@
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" t="s" s="10">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s" s="11">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C10" t="s" s="12">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D10" s="15">
         <v>4000000</v>
@@ -3716,13 +3491,13 @@
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" t="s" s="10">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B11" t="s" s="11">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C11" t="s" s="12">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D11" s="15">
         <v>2000000</v>
@@ -3731,13 +3506,13 @@
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" t="s" s="10">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B12" t="s" s="11">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s" s="12">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D12" s="15">
         <v>500000</v>
@@ -3753,13 +3528,13 @@
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" t="s" s="10">
+        <v>90</v>
+      </c>
+      <c r="B14" t="s" s="11">
         <v>88</v>
       </c>
-      <c r="B14" t="s" s="11">
-        <v>86</v>
-      </c>
       <c r="C14" t="s" s="12">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D14" s="15">
         <v>600000</v>
@@ -3768,13 +3543,13 @@
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" t="s" s="10">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B15" t="s" s="11">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C15" t="s" s="12">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D15" s="15">
         <v>560000</v>
@@ -3783,13 +3558,13 @@
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" t="s" s="10">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B16" t="s" s="11">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C16" t="s" s="12">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D16" s="15">
         <v>65000</v>
@@ -3798,13 +3573,13 @@
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" t="s" s="10">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B17" t="s" s="11">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C17" t="s" s="12">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D17" s="15">
         <v>275000</v>
@@ -3813,13 +3588,13 @@
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" t="s" s="10">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B18" t="s" s="11">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C18" t="s" s="12">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D18" s="15">
         <v>70000</v>
@@ -3828,13 +3603,13 @@
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" t="s" s="10">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B19" t="s" s="11">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C19" t="s" s="12">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D19" s="15">
         <v>450000</v>
@@ -3908,48 +3683,48 @@
         <v>28</v>
       </c>
       <c r="H2" t="s" s="24">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s" s="24">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J2" t="s" s="24">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K2" t="s" s="24">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L2" t="s" s="24">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M2" t="s" s="24">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" ht="32.05" customHeight="1">
       <c r="A3" t="s" s="10">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s" s="11">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C3" t="s" s="12">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D3" t="s" s="12">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E3" t="s" s="12">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F3" t="s" s="12">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G3" t="s" s="12">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H3" t="s" s="12">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I3" s="14">
         <v>3</v>
@@ -3961,36 +3736,36 @@
         <v>4</v>
       </c>
       <c r="L3" t="s" s="12">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M3" t="s" s="12">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" ht="32.05" customHeight="1">
       <c r="A4" t="s" s="10">
+        <v>115</v>
+      </c>
+      <c r="B4" t="s" s="11">
+        <v>116</v>
+      </c>
+      <c r="C4" t="s" s="12">
+        <v>117</v>
+      </c>
+      <c r="D4" t="s" s="12">
+        <v>110</v>
+      </c>
+      <c r="E4" t="s" s="12">
+        <v>80</v>
+      </c>
+      <c r="F4" t="s" s="12">
+        <v>118</v>
+      </c>
+      <c r="G4" t="s" s="12">
+        <v>119</v>
+      </c>
+      <c r="H4" t="s" s="12">
         <v>113</v>
-      </c>
-      <c r="B4" t="s" s="11">
-        <v>114</v>
-      </c>
-      <c r="C4" t="s" s="12">
-        <v>115</v>
-      </c>
-      <c r="D4" t="s" s="12">
-        <v>108</v>
-      </c>
-      <c r="E4" t="s" s="12">
-        <v>78</v>
-      </c>
-      <c r="F4" t="s" s="12">
-        <v>116</v>
-      </c>
-      <c r="G4" t="s" s="12">
-        <v>117</v>
-      </c>
-      <c r="H4" t="s" s="12">
-        <v>111</v>
       </c>
       <c r="I4" s="14">
         <v>2</v>
@@ -4002,36 +3777,36 @@
         <v>1</v>
       </c>
       <c r="L4" t="s" s="12">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M4" t="s" s="12">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" ht="32.05" customHeight="1">
       <c r="A5" t="s" s="10">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B5" t="s" s="11">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C5" t="s" s="12">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D5" t="s" s="12">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E5" t="s" s="12">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F5" t="s" s="12">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G5" t="s" s="12">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H5" t="s" s="12">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I5" s="14">
         <v>2</v>
@@ -4043,36 +3818,36 @@
         <v>3</v>
       </c>
       <c r="L5" t="s" s="12">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M5" t="s" s="12">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" ht="32.05" customHeight="1">
       <c r="A6" t="s" s="10">
+        <v>125</v>
+      </c>
+      <c r="B6" t="s" s="11">
+        <v>126</v>
+      </c>
+      <c r="C6" t="s" s="12">
+        <v>127</v>
+      </c>
+      <c r="D6" t="s" s="12">
+        <v>110</v>
+      </c>
+      <c r="E6" t="s" s="12">
+        <v>77</v>
+      </c>
+      <c r="F6" t="s" s="12">
         <v>123</v>
       </c>
-      <c r="B6" t="s" s="11">
+      <c r="G6" t="s" s="12">
         <v>124</v>
       </c>
-      <c r="C6" t="s" s="12">
-        <v>125</v>
-      </c>
-      <c r="D6" t="s" s="12">
-        <v>108</v>
-      </c>
-      <c r="E6" t="s" s="12">
-        <v>75</v>
-      </c>
-      <c r="F6" t="s" s="12">
-        <v>121</v>
-      </c>
-      <c r="G6" t="s" s="12">
-        <v>122</v>
-      </c>
       <c r="H6" t="s" s="12">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I6" s="14">
         <v>1</v>
@@ -4084,36 +3859,36 @@
         <v>4</v>
       </c>
       <c r="L6" t="s" s="12">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M6" t="s" s="12">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" ht="32.05" customHeight="1">
       <c r="A7" t="s" s="10">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B7" t="s" s="11">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C7" t="s" s="12">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D7" t="s" s="12">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E7" t="s" s="12">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F7" t="s" s="12">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G7" t="s" s="12">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H7" t="s" s="12">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I7" s="14">
         <v>1</v>
@@ -4125,36 +3900,36 @@
         <v>3</v>
       </c>
       <c r="L7" t="s" s="12">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M7" t="s" s="12">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" ht="32.05" customHeight="1">
       <c r="A8" t="s" s="10">
+        <v>134</v>
+      </c>
+      <c r="B8" t="s" s="11">
+        <v>135</v>
+      </c>
+      <c r="C8" t="s" s="12">
+        <v>136</v>
+      </c>
+      <c r="D8" t="s" s="12">
+        <v>110</v>
+      </c>
+      <c r="E8" t="s" s="12">
+        <v>91</v>
+      </c>
+      <c r="F8" t="s" s="12">
         <v>132</v>
       </c>
-      <c r="B8" t="s" s="11">
-        <v>133</v>
-      </c>
-      <c r="C8" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="D8" t="s" s="12">
-        <v>108</v>
-      </c>
-      <c r="E8" t="s" s="12">
-        <v>89</v>
-      </c>
-      <c r="F8" t="s" s="12">
-        <v>130</v>
-      </c>
       <c r="G8" t="s" s="12">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H8" t="s" s="12">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I8" s="14">
         <v>2</v>
@@ -4166,36 +3941,36 @@
         <v>2</v>
       </c>
       <c r="L8" t="s" s="12">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M8" t="s" s="12">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" ht="32.05" customHeight="1">
       <c r="A9" t="s" s="10">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B9" t="s" s="11">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C9" t="s" s="12">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D9" t="s" s="12">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E9" t="s" s="12">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F9" t="s" s="12">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G9" t="s" s="12">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H9" t="s" s="12">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I9" s="14">
         <v>3</v>
@@ -4207,36 +3982,36 @@
         <v>4</v>
       </c>
       <c r="L9" t="s" s="12">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M9" t="s" s="12">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" ht="32.05" customHeight="1">
       <c r="A10" t="s" s="10">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B10" t="s" s="11">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C10" t="s" s="12">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D10" t="s" s="12">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E10" t="s" s="12">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F10" t="s" s="12">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G10" t="s" s="12">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H10" t="s" s="12">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I10" s="14">
         <v>3</v>
@@ -4248,36 +4023,36 @@
         <v>2</v>
       </c>
       <c r="L10" t="s" s="12">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M10" t="s" s="12">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" ht="32.05" customHeight="1">
       <c r="A11" t="s" s="10">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="11">
+        <v>147</v>
+      </c>
+      <c r="C11" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="D11" t="s" s="12">
+        <v>110</v>
+      </c>
+      <c r="E11" t="s" s="12">
+        <v>103</v>
+      </c>
+      <c r="F11" t="s" s="12">
+        <v>111</v>
+      </c>
+      <c r="G11" t="s" s="12">
         <v>145</v>
       </c>
-      <c r="C11" t="s" s="12">
-        <v>146</v>
-      </c>
-      <c r="D11" t="s" s="12">
-        <v>108</v>
-      </c>
-      <c r="E11" t="s" s="12">
-        <v>101</v>
-      </c>
-      <c r="F11" t="s" s="12">
-        <v>109</v>
-      </c>
-      <c r="G11" t="s" s="12">
-        <v>143</v>
-      </c>
       <c r="H11" t="s" s="12">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I11" s="14">
         <v>2</v>
@@ -4289,36 +4064,36 @@
         <v>4</v>
       </c>
       <c r="L11" t="s" s="12">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M11" t="s" s="12">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" ht="32.05" customHeight="1">
       <c r="A12" t="s" s="10">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s" s="11">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C12" t="s" s="12">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D12" t="s" s="12">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E12" t="s" s="12">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F12" t="s" s="12">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G12" t="s" s="12">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H12" t="s" s="12">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I12" s="14">
         <v>3</v>
@@ -4330,36 +4105,36 @@
         <v>2</v>
       </c>
       <c r="L12" t="s" s="12">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M12" t="s" s="12">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" ht="32.05" customHeight="1">
       <c r="A13" t="s" s="10">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B13" t="s" s="11">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C13" t="s" s="12">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D13" t="s" s="12">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E13" t="s" s="12">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F13" t="s" s="12">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G13" t="s" s="12">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H13" t="s" s="12">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I13" s="14">
         <v>2</v>
@@ -4371,10 +4146,10 @@
         <v>2</v>
       </c>
       <c r="L13" t="s" s="12">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M13" t="s" s="12">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -4394,3749 +4169,3749 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:E246"/>
+  <dimension ref="A1:E246"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.33333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="25" customWidth="1"/>
-    <col min="2" max="2" width="8.20312" style="25" customWidth="1"/>
-    <col min="3" max="3" width="54.7812" style="25" customWidth="1"/>
-    <col min="4" max="4" width="13.6016" style="25" customWidth="1"/>
-    <col min="5" max="5" width="54.6094" style="25" customWidth="1"/>
+    <col min="1" max="1" width="9.17188" style="25" customWidth="1"/>
+    <col min="2" max="2" width="8.17188" style="25" customWidth="1"/>
+    <col min="3" max="3" width="54.8516" style="25" customWidth="1"/>
+    <col min="4" max="4" width="13.6719" style="25" customWidth="1"/>
+    <col min="5" max="5" width="54.6719" style="25" customWidth="1"/>
     <col min="6" max="16384" width="8.35156" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="26">
-        <v>154</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="A1" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" ht="23.2" customHeight="1">
-      <c r="A2" t="s" s="27">
-        <v>155</v>
-      </c>
-      <c r="B2" t="s" s="27">
+      <c r="A2" t="s" s="26">
         <v>31</v>
       </c>
-      <c r="C2" t="s" s="27">
-        <v>34</v>
-      </c>
-      <c r="D2" t="s" s="27">
+      <c r="B2" t="s" s="26">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s" s="26">
         <v>36</v>
       </c>
-      <c r="E2" t="s" s="27">
-        <v>156</v>
+      <c r="D2" t="s" s="26">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s" s="26">
+        <v>157</v>
       </c>
     </row>
     <row r="3" ht="23.2" customHeight="1">
-      <c r="A3" s="28">
+      <c r="A3" s="27">
         <v>1</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B3" s="28">
         <v>1</v>
       </c>
-      <c r="C3" t="s" s="30">
-        <v>157</v>
-      </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
+      <c r="C3" t="s" s="29">
+        <v>158</v>
+      </c>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" ht="23" customHeight="1">
-      <c r="A4" s="32">
+      <c r="A4" s="31">
         <v>100</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B4" s="32">
         <v>2</v>
       </c>
-      <c r="C4" t="s" s="34">
-        <v>158</v>
-      </c>
-      <c r="D4" s="35">
+      <c r="C4" t="s" s="33">
+        <v>159</v>
+      </c>
+      <c r="D4" s="34">
         <v>1</v>
       </c>
-      <c r="E4" t="s" s="34">
-        <v>159</v>
+      <c r="E4" t="s" s="33">
+        <v>160</v>
       </c>
     </row>
     <row r="5" ht="23" customHeight="1">
-      <c r="A5" s="32">
+      <c r="A5" s="31">
         <v>101</v>
       </c>
-      <c r="B5" s="33">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s" s="34">
-        <v>160</v>
-      </c>
-      <c r="D5" s="35">
+      <c r="B5" s="32">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s" s="33">
+        <v>161</v>
+      </c>
+      <c r="D5" s="34">
         <v>100</v>
       </c>
-      <c r="E5" t="s" s="34">
-        <v>161</v>
+      <c r="E5" t="s" s="33">
+        <v>162</v>
       </c>
     </row>
     <row r="6" ht="23" customHeight="1">
-      <c r="A6" s="32">
+      <c r="A6" s="31">
         <v>102</v>
       </c>
-      <c r="B6" s="33">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s" s="34">
-        <v>162</v>
-      </c>
-      <c r="D6" s="35">
+      <c r="B6" s="32">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s" s="33">
+        <v>163</v>
+      </c>
+      <c r="D6" s="34">
         <v>101</v>
       </c>
-      <c r="E6" t="s" s="34">
-        <v>163</v>
+      <c r="E6" t="s" s="33">
+        <v>164</v>
       </c>
     </row>
     <row r="7" ht="23" customHeight="1">
-      <c r="A7" s="32">
+      <c r="A7" s="31">
         <v>103</v>
       </c>
-      <c r="B7" s="33">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s" s="34">
-        <v>164</v>
-      </c>
-      <c r="D7" s="35">
+      <c r="B7" s="32">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s" s="33">
+        <v>165</v>
+      </c>
+      <c r="D7" s="34">
         <v>101</v>
       </c>
-      <c r="E7" t="s" s="34">
-        <v>165</v>
+      <c r="E7" t="s" s="33">
+        <v>166</v>
       </c>
     </row>
     <row r="8" ht="23" customHeight="1">
-      <c r="A8" s="32">
+      <c r="A8" s="31">
         <v>104</v>
       </c>
-      <c r="B8" s="33">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s" s="34">
-        <v>166</v>
-      </c>
-      <c r="D8" s="35">
+      <c r="B8" s="32">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s" s="33">
+        <v>167</v>
+      </c>
+      <c r="D8" s="34">
         <v>100</v>
       </c>
-      <c r="E8" t="s" s="34">
-        <v>167</v>
+      <c r="E8" t="s" s="33">
+        <v>168</v>
       </c>
     </row>
     <row r="9" ht="23" customHeight="1">
-      <c r="A9" s="32">
+      <c r="A9" s="31">
         <v>105</v>
       </c>
-      <c r="B9" s="33">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s" s="34">
-        <v>168</v>
-      </c>
-      <c r="D9" s="35">
+      <c r="B9" s="32">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s" s="33">
+        <v>169</v>
+      </c>
+      <c r="D9" s="34">
         <v>100</v>
       </c>
-      <c r="E9" t="s" s="34">
-        <v>169</v>
+      <c r="E9" t="s" s="33">
+        <v>170</v>
       </c>
     </row>
     <row r="10" ht="23" customHeight="1">
-      <c r="A10" s="32">
+      <c r="A10" s="31">
         <v>106</v>
       </c>
-      <c r="B10" s="33">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s" s="34">
-        <v>170</v>
-      </c>
-      <c r="D10" s="35">
+      <c r="B10" s="32">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s" s="33">
+        <v>171</v>
+      </c>
+      <c r="D10" s="34">
         <v>100</v>
       </c>
-      <c r="E10" t="s" s="34">
-        <v>171</v>
+      <c r="E10" t="s" s="33">
+        <v>172</v>
       </c>
     </row>
     <row r="11" ht="23" customHeight="1">
-      <c r="A11" s="32">
+      <c r="A11" s="31">
         <v>107</v>
       </c>
-      <c r="B11" s="33">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s" s="34">
-        <v>172</v>
-      </c>
-      <c r="D11" s="35">
+      <c r="B11" s="32">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s" s="33">
+        <v>173</v>
+      </c>
+      <c r="D11" s="34">
         <v>106</v>
       </c>
-      <c r="E11" t="s" s="34">
-        <v>173</v>
+      <c r="E11" t="s" s="33">
+        <v>174</v>
       </c>
     </row>
     <row r="12" ht="23" customHeight="1">
-      <c r="A12" s="32">
+      <c r="A12" s="31">
         <v>108</v>
       </c>
-      <c r="B12" s="33">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s" s="34">
-        <v>174</v>
-      </c>
-      <c r="D12" s="35">
+      <c r="B12" s="32">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s" s="33">
+        <v>175</v>
+      </c>
+      <c r="D12" s="34">
         <v>106</v>
       </c>
-      <c r="E12" t="s" s="34">
-        <v>175</v>
+      <c r="E12" t="s" s="33">
+        <v>176</v>
       </c>
     </row>
     <row r="13" ht="23" customHeight="1">
-      <c r="A13" s="32">
+      <c r="A13" s="31">
         <v>109</v>
       </c>
-      <c r="B13" s="33">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s" s="34">
-        <v>176</v>
-      </c>
-      <c r="D13" s="35">
+      <c r="B13" s="32">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s" s="33">
+        <v>177</v>
+      </c>
+      <c r="D13" s="34">
         <v>100</v>
       </c>
-      <c r="E13" t="s" s="34">
-        <v>177</v>
+      <c r="E13" t="s" s="33">
+        <v>178</v>
       </c>
     </row>
     <row r="14" ht="23" customHeight="1">
-      <c r="A14" s="36"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
+      <c r="A14" s="35"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
     </row>
     <row r="15" ht="23" customHeight="1">
-      <c r="A15" s="32">
+      <c r="A15" s="31">
         <v>200</v>
       </c>
-      <c r="B15" s="33">
+      <c r="B15" s="32">
         <v>2</v>
       </c>
-      <c r="C15" t="s" s="34">
-        <v>178</v>
-      </c>
-      <c r="D15" s="35">
+      <c r="C15" t="s" s="33">
+        <v>179</v>
+      </c>
+      <c r="D15" s="34">
         <v>1</v>
       </c>
-      <c r="E15" t="s" s="34">
-        <v>179</v>
+      <c r="E15" t="s" s="33">
+        <v>180</v>
       </c>
     </row>
     <row r="16" ht="23" customHeight="1">
-      <c r="A16" s="32">
+      <c r="A16" s="31">
         <v>201</v>
       </c>
-      <c r="B16" s="33">
-        <v>3</v>
-      </c>
-      <c r="C16" t="s" s="34">
-        <v>180</v>
-      </c>
-      <c r="D16" s="35">
+      <c r="B16" s="32">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s" s="33">
+        <v>181</v>
+      </c>
+      <c r="D16" s="34">
         <v>200</v>
       </c>
-      <c r="E16" t="s" s="34">
-        <v>181</v>
+      <c r="E16" t="s" s="33">
+        <v>182</v>
       </c>
     </row>
     <row r="17" ht="23" customHeight="1">
-      <c r="A17" s="32">
+      <c r="A17" s="31">
         <v>202</v>
       </c>
-      <c r="B17" s="33">
-        <v>3</v>
-      </c>
-      <c r="C17" t="s" s="34">
-        <v>182</v>
-      </c>
-      <c r="D17" s="35">
+      <c r="B17" s="32">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s" s="33">
+        <v>183</v>
+      </c>
+      <c r="D17" s="34">
         <v>200</v>
       </c>
-      <c r="E17" t="s" s="34">
-        <v>183</v>
+      <c r="E17" t="s" s="33">
+        <v>184</v>
       </c>
     </row>
     <row r="18" ht="23" customHeight="1">
-      <c r="A18" s="32">
+      <c r="A18" s="31">
         <v>203</v>
       </c>
-      <c r="B18" s="33">
-        <v>4</v>
-      </c>
-      <c r="C18" t="s" s="34">
-        <v>184</v>
-      </c>
-      <c r="D18" s="35">
+      <c r="B18" s="32">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s" s="33">
+        <v>185</v>
+      </c>
+      <c r="D18" s="34">
         <v>202</v>
       </c>
-      <c r="E18" t="s" s="34">
-        <v>185</v>
+      <c r="E18" t="s" s="33">
+        <v>186</v>
       </c>
     </row>
     <row r="19" ht="23" customHeight="1">
-      <c r="A19" s="32">
+      <c r="A19" s="31">
         <v>204</v>
       </c>
-      <c r="B19" s="33">
-        <v>4</v>
-      </c>
-      <c r="C19" t="s" s="34">
-        <v>186</v>
-      </c>
-      <c r="D19" s="35">
+      <c r="B19" s="32">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s" s="33">
+        <v>187</v>
+      </c>
+      <c r="D19" s="34">
         <v>202</v>
       </c>
-      <c r="E19" t="s" s="34">
-        <v>187</v>
+      <c r="E19" t="s" s="33">
+        <v>188</v>
       </c>
     </row>
     <row r="20" ht="23" customHeight="1">
-      <c r="A20" s="32">
+      <c r="A20" s="31">
         <v>205</v>
       </c>
-      <c r="B20" s="33">
-        <v>4</v>
-      </c>
-      <c r="C20" t="s" s="34">
-        <v>188</v>
-      </c>
-      <c r="D20" s="35">
+      <c r="B20" s="32">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s" s="33">
+        <v>189</v>
+      </c>
+      <c r="D20" s="34">
         <v>202</v>
       </c>
-      <c r="E20" t="s" s="34">
-        <v>189</v>
+      <c r="E20" t="s" s="33">
+        <v>190</v>
       </c>
     </row>
     <row r="21" ht="23" customHeight="1">
-      <c r="A21" s="32">
+      <c r="A21" s="31">
         <v>206</v>
       </c>
-      <c r="B21" s="33">
-        <v>3</v>
-      </c>
-      <c r="C21" t="s" s="34">
-        <v>190</v>
-      </c>
-      <c r="D21" s="35">
+      <c r="B21" s="32">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s" s="33">
+        <v>191</v>
+      </c>
+      <c r="D21" s="34">
         <v>200</v>
       </c>
-      <c r="E21" t="s" s="34">
-        <v>191</v>
+      <c r="E21" t="s" s="33">
+        <v>192</v>
       </c>
     </row>
     <row r="22" ht="23" customHeight="1">
-      <c r="A22" s="32">
+      <c r="A22" s="31">
         <v>207</v>
       </c>
-      <c r="B22" s="33">
-        <v>4</v>
-      </c>
-      <c r="C22" t="s" s="34">
-        <v>192</v>
-      </c>
-      <c r="D22" s="35">
+      <c r="B22" s="32">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s" s="33">
+        <v>193</v>
+      </c>
+      <c r="D22" s="34">
         <v>206</v>
       </c>
-      <c r="E22" t="s" s="34">
-        <v>193</v>
+      <c r="E22" t="s" s="33">
+        <v>194</v>
       </c>
     </row>
     <row r="23" ht="23" customHeight="1">
-      <c r="A23" s="32">
+      <c r="A23" s="31">
         <v>208</v>
       </c>
-      <c r="B23" s="33">
-        <v>4</v>
-      </c>
-      <c r="C23" t="s" s="34">
-        <v>194</v>
-      </c>
-      <c r="D23" s="35">
+      <c r="B23" s="32">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s" s="33">
+        <v>195</v>
+      </c>
+      <c r="D23" s="34">
         <v>206</v>
       </c>
-      <c r="E23" t="s" s="34">
-        <v>195</v>
+      <c r="E23" t="s" s="33">
+        <v>196</v>
       </c>
     </row>
     <row r="24" ht="23" customHeight="1">
-      <c r="A24" s="32">
+      <c r="A24" s="31">
         <v>209</v>
       </c>
-      <c r="B24" s="33">
-        <v>4</v>
-      </c>
-      <c r="C24" t="s" s="34">
-        <v>196</v>
-      </c>
-      <c r="D24" s="35">
+      <c r="B24" s="32">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s" s="33">
+        <v>197</v>
+      </c>
+      <c r="D24" s="34">
         <v>206</v>
       </c>
-      <c r="E24" t="s" s="34">
-        <v>197</v>
+      <c r="E24" t="s" s="33">
+        <v>198</v>
       </c>
     </row>
     <row r="25" ht="23" customHeight="1">
-      <c r="A25" s="32">
+      <c r="A25" s="31">
         <v>210</v>
       </c>
-      <c r="B25" s="33">
-        <v>3</v>
-      </c>
-      <c r="C25" t="s" s="34">
-        <v>198</v>
-      </c>
-      <c r="D25" s="35">
+      <c r="B25" s="32">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s" s="33">
+        <v>199</v>
+      </c>
+      <c r="D25" s="34">
         <v>200</v>
       </c>
-      <c r="E25" t="s" s="34">
-        <v>199</v>
+      <c r="E25" t="s" s="33">
+        <v>200</v>
       </c>
     </row>
     <row r="26" ht="23" customHeight="1">
-      <c r="A26" s="32">
+      <c r="A26" s="31">
         <v>211</v>
       </c>
-      <c r="B26" s="33">
-        <v>4</v>
-      </c>
-      <c r="C26" t="s" s="34">
+      <c r="B26" s="32">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s" s="33">
+        <v>201</v>
+      </c>
+      <c r="D26" s="34">
+        <v>210</v>
+      </c>
+      <c r="E26" t="s" s="33">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="27" ht="23" customHeight="1">
+      <c r="A27" s="31">
+        <v>212</v>
+      </c>
+      <c r="B27" s="32">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s" s="33">
+        <v>203</v>
+      </c>
+      <c r="D27" s="34">
+        <v>210</v>
+      </c>
+      <c r="E27" t="s" s="33">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="28" ht="23" customHeight="1">
+      <c r="A28" s="31">
+        <v>213</v>
+      </c>
+      <c r="B28" s="32">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s" s="33">
+        <v>205</v>
+      </c>
+      <c r="D28" s="34">
         <v>200</v>
       </c>
-      <c r="D26" s="35">
+      <c r="E28" t="s" s="33">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="29" ht="23" customHeight="1">
+      <c r="A29" s="31">
+        <v>214</v>
+      </c>
+      <c r="B29" s="32">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s" s="33">
+        <v>207</v>
+      </c>
+      <c r="D29" s="34">
+        <v>213</v>
+      </c>
+      <c r="E29" t="s" s="33">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="30" ht="23" customHeight="1">
+      <c r="A30" s="31">
+        <v>215</v>
+      </c>
+      <c r="B30" s="32">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s" s="33">
+        <v>209</v>
+      </c>
+      <c r="D30" s="34">
+        <v>213</v>
+      </c>
+      <c r="E30" t="s" s="33">
         <v>210</v>
       </c>
-      <c r="E26" t="s" s="34">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="27" ht="23" customHeight="1">
-      <c r="A27" s="32">
+    </row>
+    <row r="31" ht="23" customHeight="1">
+      <c r="A31" s="31">
+        <v>216</v>
+      </c>
+      <c r="B31" s="32">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s" s="33">
+        <v>211</v>
+      </c>
+      <c r="D31" s="34">
+        <v>200</v>
+      </c>
+      <c r="E31" t="s" s="33">
         <v>212</v>
       </c>
-      <c r="B27" s="33">
-        <v>4</v>
-      </c>
-      <c r="C27" t="s" s="34">
-        <v>202</v>
-      </c>
-      <c r="D27" s="35">
-        <v>210</v>
-      </c>
-      <c r="E27" t="s" s="34">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="28" ht="23" customHeight="1">
-      <c r="A28" s="32">
+    </row>
+    <row r="32" ht="23" customHeight="1">
+      <c r="A32" s="31">
+        <v>217</v>
+      </c>
+      <c r="B32" s="32">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s" s="33">
         <v>213</v>
       </c>
-      <c r="B28" s="33">
-        <v>3</v>
-      </c>
-      <c r="C28" t="s" s="34">
-        <v>204</v>
-      </c>
-      <c r="D28" s="35">
+      <c r="D32" s="34">
+        <v>216</v>
+      </c>
+      <c r="E32" t="s" s="33">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="33" ht="23" customHeight="1">
+      <c r="A33" s="31">
+        <v>218</v>
+      </c>
+      <c r="B33" s="32">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s" s="33">
+        <v>215</v>
+      </c>
+      <c r="D33" s="34">
+        <v>216</v>
+      </c>
+      <c r="E33" t="s" s="33">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="34" ht="23" customHeight="1">
+      <c r="A34" s="31">
+        <v>219</v>
+      </c>
+      <c r="B34" s="32">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s" s="33">
+        <v>217</v>
+      </c>
+      <c r="D34" s="34">
         <v>200</v>
       </c>
-      <c r="E28" t="s" s="34">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="29" ht="23" customHeight="1">
-      <c r="A29" s="32">
-        <v>214</v>
-      </c>
-      <c r="B29" s="33">
-        <v>4</v>
-      </c>
-      <c r="C29" t="s" s="34">
-        <v>206</v>
-      </c>
-      <c r="D29" s="35">
-        <v>213</v>
-      </c>
-      <c r="E29" t="s" s="34">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="30" ht="23" customHeight="1">
-      <c r="A30" s="32">
-        <v>215</v>
-      </c>
-      <c r="B30" s="33">
-        <v>4</v>
-      </c>
-      <c r="C30" t="s" s="34">
-        <v>208</v>
-      </c>
-      <c r="D30" s="35">
-        <v>213</v>
-      </c>
-      <c r="E30" t="s" s="34">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="31" ht="23" customHeight="1">
-      <c r="A31" s="32">
-        <v>216</v>
-      </c>
-      <c r="B31" s="33">
-        <v>3</v>
-      </c>
-      <c r="C31" t="s" s="34">
-        <v>210</v>
-      </c>
-      <c r="D31" s="35">
+      <c r="E34" t="s" s="33">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="35" ht="23" customHeight="1">
+      <c r="A35" s="31">
+        <v>220</v>
+      </c>
+      <c r="B35" s="32">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s" s="33">
+        <v>219</v>
+      </c>
+      <c r="D35" s="34">
         <v>200</v>
       </c>
-      <c r="E31" t="s" s="34">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="32" ht="23" customHeight="1">
-      <c r="A32" s="32">
-        <v>217</v>
-      </c>
-      <c r="B32" s="33">
-        <v>4</v>
-      </c>
-      <c r="C32" t="s" s="34">
-        <v>212</v>
-      </c>
-      <c r="D32" s="35">
-        <v>216</v>
-      </c>
-      <c r="E32" t="s" s="34">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="33" ht="23" customHeight="1">
-      <c r="A33" s="32">
-        <v>218</v>
-      </c>
-      <c r="B33" s="33">
-        <v>4</v>
-      </c>
-      <c r="C33" t="s" s="34">
-        <v>214</v>
-      </c>
-      <c r="D33" s="35">
-        <v>216</v>
-      </c>
-      <c r="E33" t="s" s="34">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="34" ht="23" customHeight="1">
-      <c r="A34" s="32">
-        <v>219</v>
-      </c>
-      <c r="B34" s="33">
-        <v>3</v>
-      </c>
-      <c r="C34" t="s" s="34">
-        <v>216</v>
-      </c>
-      <c r="D34" s="35">
+      <c r="E35" t="s" s="33">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="36" ht="23" customHeight="1">
+      <c r="A36" s="31">
+        <v>221</v>
+      </c>
+      <c r="B36" s="32">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s" s="33">
+        <v>221</v>
+      </c>
+      <c r="D36" s="34">
         <v>200</v>
       </c>
-      <c r="E34" t="s" s="34">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="35" ht="23" customHeight="1">
-      <c r="A35" s="32">
-        <v>220</v>
-      </c>
-      <c r="B35" s="33">
-        <v>3</v>
-      </c>
-      <c r="C35" t="s" s="34">
-        <v>218</v>
-      </c>
-      <c r="D35" s="35">
+      <c r="E36" t="s" s="33">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="37" ht="23" customHeight="1">
+      <c r="A37" s="31">
+        <v>222</v>
+      </c>
+      <c r="B37" s="32">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s" s="33">
+        <v>223</v>
+      </c>
+      <c r="D37" s="34">
         <v>200</v>
       </c>
-      <c r="E35" t="s" s="34">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="36" ht="23" customHeight="1">
-      <c r="A36" s="32">
-        <v>221</v>
-      </c>
-      <c r="B36" s="33">
-        <v>3</v>
-      </c>
-      <c r="C36" t="s" s="34">
-        <v>220</v>
-      </c>
-      <c r="D36" s="35">
+      <c r="E37" t="s" s="33">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="38" ht="23" customHeight="1">
+      <c r="A38" s="31">
+        <v>223</v>
+      </c>
+      <c r="B38" s="32">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s" s="33">
+        <v>225</v>
+      </c>
+      <c r="D38" s="34">
+        <v>222</v>
+      </c>
+      <c r="E38" t="s" s="33">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="39" ht="23" customHeight="1">
+      <c r="A39" s="31">
+        <v>224</v>
+      </c>
+      <c r="B39" s="32">
+        <v>4</v>
+      </c>
+      <c r="C39" t="s" s="33">
+        <v>227</v>
+      </c>
+      <c r="D39" s="34">
+        <v>222</v>
+      </c>
+      <c r="E39" t="s" s="33">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="40" ht="23" customHeight="1">
+      <c r="A40" s="31">
+        <v>225</v>
+      </c>
+      <c r="B40" s="32">
+        <v>4</v>
+      </c>
+      <c r="C40" t="s" s="33">
+        <v>229</v>
+      </c>
+      <c r="D40" s="34">
+        <v>222</v>
+      </c>
+      <c r="E40" t="s" s="33">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="41" ht="23" customHeight="1">
+      <c r="A41" s="31">
+        <v>226</v>
+      </c>
+      <c r="B41" s="32">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s" s="33">
+        <v>231</v>
+      </c>
+      <c r="D41" s="34">
         <v>200</v>
       </c>
-      <c r="E36" t="s" s="34">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="37" ht="23" customHeight="1">
-      <c r="A37" s="32">
-        <v>222</v>
-      </c>
-      <c r="B37" s="33">
-        <v>3</v>
-      </c>
-      <c r="C37" t="s" s="34">
-        <v>222</v>
-      </c>
-      <c r="D37" s="35">
+      <c r="E41" t="s" s="33">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="42" ht="23" customHeight="1">
+      <c r="A42" s="31">
+        <v>227</v>
+      </c>
+      <c r="B42" s="32">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s" s="33">
+        <v>233</v>
+      </c>
+      <c r="D42" s="34">
         <v>200</v>
       </c>
-      <c r="E37" t="s" s="34">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="38" ht="23" customHeight="1">
-      <c r="A38" s="32">
-        <v>223</v>
-      </c>
-      <c r="B38" s="33">
-        <v>4</v>
-      </c>
-      <c r="C38" t="s" s="34">
-        <v>224</v>
-      </c>
-      <c r="D38" s="35">
-        <v>222</v>
-      </c>
-      <c r="E38" t="s" s="34">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="39" ht="23" customHeight="1">
-      <c r="A39" s="32">
-        <v>224</v>
-      </c>
-      <c r="B39" s="33">
-        <v>4</v>
-      </c>
-      <c r="C39" t="s" s="34">
-        <v>226</v>
-      </c>
-      <c r="D39" s="35">
-        <v>222</v>
-      </c>
-      <c r="E39" t="s" s="34">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="40" ht="23" customHeight="1">
-      <c r="A40" s="32">
-        <v>225</v>
-      </c>
-      <c r="B40" s="33">
-        <v>4</v>
-      </c>
-      <c r="C40" t="s" s="34">
+      <c r="E42" t="s" s="33">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="43" ht="23" customHeight="1">
+      <c r="A43" s="31">
         <v>228</v>
       </c>
-      <c r="D40" s="35">
-        <v>222</v>
-      </c>
-      <c r="E40" t="s" s="34">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="41" ht="23" customHeight="1">
-      <c r="A41" s="32">
-        <v>226</v>
-      </c>
-      <c r="B41" s="33">
-        <v>3</v>
-      </c>
-      <c r="C41" t="s" s="34">
-        <v>230</v>
-      </c>
-      <c r="D41" s="35">
+      <c r="B43" s="32">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s" s="33">
+        <v>235</v>
+      </c>
+      <c r="D43" s="34">
         <v>200</v>
       </c>
-      <c r="E41" t="s" s="34">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="42" ht="23" customHeight="1">
-      <c r="A42" s="32">
-        <v>227</v>
-      </c>
-      <c r="B42" s="33">
-        <v>3</v>
-      </c>
-      <c r="C42" t="s" s="34">
-        <v>232</v>
-      </c>
-      <c r="D42" s="35">
-        <v>200</v>
-      </c>
-      <c r="E42" t="s" s="34">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="43" ht="23" customHeight="1">
-      <c r="A43" s="32">
-        <v>228</v>
-      </c>
-      <c r="B43" s="33">
-        <v>3</v>
-      </c>
-      <c r="C43" t="s" s="34">
-        <v>234</v>
-      </c>
-      <c r="D43" s="35">
-        <v>200</v>
-      </c>
-      <c r="E43" t="s" s="34">
-        <v>235</v>
+      <c r="E43" t="s" s="33">
+        <v>236</v>
       </c>
     </row>
     <row r="44" ht="23" customHeight="1">
-      <c r="A44" s="36"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
+      <c r="A44" s="35"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
     </row>
     <row r="45" ht="23" customHeight="1">
-      <c r="A45" s="32">
+      <c r="A45" s="31">
         <v>300</v>
       </c>
-      <c r="B45" s="33">
+      <c r="B45" s="32">
         <v>2</v>
       </c>
-      <c r="C45" t="s" s="34">
-        <v>236</v>
-      </c>
-      <c r="D45" s="35">
+      <c r="C45" t="s" s="33">
+        <v>237</v>
+      </c>
+      <c r="D45" s="34">
         <v>1</v>
       </c>
-      <c r="E45" t="s" s="34">
-        <v>237</v>
+      <c r="E45" t="s" s="33">
+        <v>238</v>
       </c>
     </row>
     <row r="46" ht="23" customHeight="1">
-      <c r="A46" s="32">
+      <c r="A46" s="31">
         <v>301</v>
       </c>
-      <c r="B46" s="33">
-        <v>3</v>
-      </c>
-      <c r="C46" t="s" s="34">
-        <v>238</v>
-      </c>
-      <c r="D46" s="35">
+      <c r="B46" s="32">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s" s="33">
+        <v>239</v>
+      </c>
+      <c r="D46" s="34">
         <v>300</v>
       </c>
-      <c r="E46" t="s" s="34">
-        <v>239</v>
+      <c r="E46" t="s" s="33">
+        <v>240</v>
       </c>
     </row>
     <row r="47" ht="23" customHeight="1">
-      <c r="A47" s="32">
+      <c r="A47" s="31">
         <v>302</v>
       </c>
-      <c r="B47" s="33">
-        <v>4</v>
-      </c>
-      <c r="C47" t="s" s="34">
-        <v>240</v>
-      </c>
-      <c r="D47" s="35">
+      <c r="B47" s="32">
+        <v>4</v>
+      </c>
+      <c r="C47" t="s" s="33">
+        <v>241</v>
+      </c>
+      <c r="D47" s="34">
         <v>301</v>
       </c>
-      <c r="E47" t="s" s="34">
-        <v>241</v>
+      <c r="E47" t="s" s="33">
+        <v>242</v>
       </c>
     </row>
     <row r="48" ht="23" customHeight="1">
-      <c r="A48" s="32">
+      <c r="A48" s="31">
         <v>303</v>
       </c>
-      <c r="B48" s="33">
-        <v>4</v>
-      </c>
-      <c r="C48" t="s" s="34">
-        <v>242</v>
-      </c>
-      <c r="D48" s="35">
+      <c r="B48" s="32">
+        <v>4</v>
+      </c>
+      <c r="C48" t="s" s="33">
+        <v>243</v>
+      </c>
+      <c r="D48" s="34">
         <v>301</v>
       </c>
-      <c r="E48" t="s" s="34">
-        <v>243</v>
+      <c r="E48" t="s" s="33">
+        <v>244</v>
       </c>
     </row>
     <row r="49" ht="23" customHeight="1">
-      <c r="A49" s="32">
+      <c r="A49" s="31">
         <v>304</v>
       </c>
-      <c r="B49" s="33">
-        <v>4</v>
-      </c>
-      <c r="C49" t="s" s="34">
-        <v>244</v>
-      </c>
-      <c r="D49" s="35">
+      <c r="B49" s="32">
+        <v>4</v>
+      </c>
+      <c r="C49" t="s" s="33">
+        <v>245</v>
+      </c>
+      <c r="D49" s="34">
         <v>301</v>
       </c>
-      <c r="E49" t="s" s="34">
-        <v>245</v>
+      <c r="E49" t="s" s="33">
+        <v>246</v>
       </c>
     </row>
     <row r="50" ht="23" customHeight="1">
-      <c r="A50" s="32">
+      <c r="A50" s="31">
         <v>305</v>
       </c>
-      <c r="B50" s="33">
-        <v>3</v>
-      </c>
-      <c r="C50" t="s" s="34">
-        <v>246</v>
-      </c>
-      <c r="D50" s="35">
+      <c r="B50" s="32">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s" s="33">
+        <v>247</v>
+      </c>
+      <c r="D50" s="34">
         <v>300</v>
       </c>
-      <c r="E50" t="s" s="34">
-        <v>247</v>
+      <c r="E50" t="s" s="33">
+        <v>248</v>
       </c>
     </row>
     <row r="51" ht="23" customHeight="1">
-      <c r="A51" s="32">
+      <c r="A51" s="31">
         <v>306</v>
       </c>
-      <c r="B51" s="33">
-        <v>4</v>
-      </c>
-      <c r="C51" t="s" s="34">
-        <v>248</v>
-      </c>
-      <c r="D51" s="35">
+      <c r="B51" s="32">
+        <v>4</v>
+      </c>
+      <c r="C51" t="s" s="33">
+        <v>249</v>
+      </c>
+      <c r="D51" s="34">
         <v>305</v>
       </c>
-      <c r="E51" t="s" s="34">
-        <v>249</v>
+      <c r="E51" t="s" s="33">
+        <v>250</v>
       </c>
     </row>
     <row r="52" ht="23" customHeight="1">
-      <c r="A52" s="32">
+      <c r="A52" s="31">
         <v>307</v>
       </c>
-      <c r="B52" s="33">
-        <v>4</v>
-      </c>
-      <c r="C52" t="s" s="34">
-        <v>250</v>
-      </c>
-      <c r="D52" s="35">
+      <c r="B52" s="32">
+        <v>4</v>
+      </c>
+      <c r="C52" t="s" s="33">
+        <v>251</v>
+      </c>
+      <c r="D52" s="34">
         <v>305</v>
       </c>
-      <c r="E52" t="s" s="34">
-        <v>251</v>
+      <c r="E52" t="s" s="33">
+        <v>252</v>
       </c>
     </row>
     <row r="53" ht="23" customHeight="1">
-      <c r="A53" s="32">
+      <c r="A53" s="31">
         <v>308</v>
       </c>
-      <c r="B53" s="33">
-        <v>4</v>
-      </c>
-      <c r="C53" t="s" s="34">
-        <v>252</v>
-      </c>
-      <c r="D53" s="35">
+      <c r="B53" s="32">
+        <v>4</v>
+      </c>
+      <c r="C53" t="s" s="33">
+        <v>253</v>
+      </c>
+      <c r="D53" s="34">
         <v>305</v>
       </c>
-      <c r="E53" t="s" s="34">
-        <v>253</v>
+      <c r="E53" t="s" s="33">
+        <v>254</v>
       </c>
     </row>
     <row r="54" ht="23" customHeight="1">
-      <c r="A54" s="32">
+      <c r="A54" s="31">
         <v>309</v>
       </c>
-      <c r="B54" s="33">
-        <v>4</v>
-      </c>
-      <c r="C54" t="s" s="34">
-        <v>254</v>
-      </c>
-      <c r="D54" s="35">
+      <c r="B54" s="32">
+        <v>4</v>
+      </c>
+      <c r="C54" t="s" s="33">
+        <v>255</v>
+      </c>
+      <c r="D54" s="34">
         <v>305</v>
       </c>
-      <c r="E54" t="s" s="34">
-        <v>255</v>
+      <c r="E54" t="s" s="33">
+        <v>256</v>
       </c>
     </row>
     <row r="55" ht="23" customHeight="1">
-      <c r="A55" s="32">
+      <c r="A55" s="31">
         <v>310</v>
       </c>
-      <c r="B55" s="33">
-        <v>3</v>
-      </c>
-      <c r="C55" t="s" s="34">
-        <v>256</v>
-      </c>
-      <c r="D55" s="35">
+      <c r="B55" s="32">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s" s="33">
+        <v>257</v>
+      </c>
+      <c r="D55" s="34">
         <v>300</v>
       </c>
-      <c r="E55" t="s" s="34">
-        <v>257</v>
+      <c r="E55" t="s" s="33">
+        <v>258</v>
       </c>
     </row>
     <row r="56" ht="23" customHeight="1">
-      <c r="A56" s="32">
+      <c r="A56" s="31">
         <v>311</v>
       </c>
-      <c r="B56" s="33">
-        <v>4</v>
-      </c>
-      <c r="C56" t="s" s="34">
-        <v>258</v>
-      </c>
-      <c r="D56" s="35">
+      <c r="B56" s="32">
+        <v>4</v>
+      </c>
+      <c r="C56" t="s" s="33">
+        <v>259</v>
+      </c>
+      <c r="D56" s="34">
         <v>310</v>
       </c>
-      <c r="E56" t="s" s="34">
-        <v>259</v>
+      <c r="E56" t="s" s="33">
+        <v>260</v>
       </c>
     </row>
     <row r="57" ht="23" customHeight="1">
-      <c r="A57" s="32">
+      <c r="A57" s="31">
         <v>312</v>
       </c>
-      <c r="B57" s="33">
-        <v>4</v>
-      </c>
-      <c r="C57" t="s" s="34">
-        <v>260</v>
-      </c>
-      <c r="D57" s="35">
+      <c r="B57" s="32">
+        <v>4</v>
+      </c>
+      <c r="C57" t="s" s="33">
+        <v>261</v>
+      </c>
+      <c r="D57" s="34">
         <v>310</v>
       </c>
-      <c r="E57" t="s" s="34">
-        <v>261</v>
+      <c r="E57" t="s" s="33">
+        <v>262</v>
       </c>
     </row>
     <row r="58" ht="23" customHeight="1">
-      <c r="A58" s="32">
+      <c r="A58" s="31">
         <v>313</v>
       </c>
-      <c r="B58" s="33">
-        <v>4</v>
-      </c>
-      <c r="C58" t="s" s="34">
-        <v>262</v>
-      </c>
-      <c r="D58" s="35">
+      <c r="B58" s="32">
+        <v>4</v>
+      </c>
+      <c r="C58" t="s" s="33">
+        <v>263</v>
+      </c>
+      <c r="D58" s="34">
         <v>310</v>
       </c>
-      <c r="E58" t="s" s="34">
-        <v>263</v>
+      <c r="E58" t="s" s="33">
+        <v>264</v>
       </c>
     </row>
     <row r="59" ht="23" customHeight="1">
-      <c r="A59" s="32">
+      <c r="A59" s="31">
         <v>314</v>
       </c>
-      <c r="B59" s="33">
-        <v>4</v>
-      </c>
-      <c r="C59" t="s" s="34">
-        <v>264</v>
-      </c>
-      <c r="D59" s="35">
+      <c r="B59" s="32">
+        <v>4</v>
+      </c>
+      <c r="C59" t="s" s="33">
+        <v>265</v>
+      </c>
+      <c r="D59" s="34">
         <v>310</v>
       </c>
-      <c r="E59" t="s" s="34">
-        <v>265</v>
+      <c r="E59" t="s" s="33">
+        <v>266</v>
       </c>
     </row>
     <row r="60" ht="23" customHeight="1">
-      <c r="A60" s="32">
+      <c r="A60" s="31">
         <v>315</v>
       </c>
-      <c r="B60" s="33">
-        <v>4</v>
-      </c>
-      <c r="C60" t="s" s="34">
-        <v>266</v>
-      </c>
-      <c r="D60" s="35">
+      <c r="B60" s="32">
+        <v>4</v>
+      </c>
+      <c r="C60" t="s" s="33">
+        <v>267</v>
+      </c>
+      <c r="D60" s="34">
         <v>310</v>
       </c>
-      <c r="E60" t="s" s="34">
-        <v>267</v>
+      <c r="E60" t="s" s="33">
+        <v>268</v>
       </c>
     </row>
     <row r="61" ht="23" customHeight="1">
-      <c r="A61" s="32">
+      <c r="A61" s="31">
         <v>316</v>
       </c>
-      <c r="B61" s="33">
-        <v>3</v>
-      </c>
-      <c r="C61" t="s" s="34">
-        <v>268</v>
-      </c>
-      <c r="D61" s="35">
+      <c r="B61" s="32">
+        <v>3</v>
+      </c>
+      <c r="C61" t="s" s="33">
+        <v>269</v>
+      </c>
+      <c r="D61" s="34">
         <v>300</v>
       </c>
-      <c r="E61" t="s" s="34">
-        <v>269</v>
+      <c r="E61" t="s" s="33">
+        <v>270</v>
       </c>
     </row>
     <row r="62" ht="23" customHeight="1">
-      <c r="A62" s="32">
+      <c r="A62" s="31">
         <v>317</v>
       </c>
-      <c r="B62" s="33">
-        <v>4</v>
-      </c>
-      <c r="C62" t="s" s="34">
-        <v>270</v>
-      </c>
-      <c r="D62" s="35">
+      <c r="B62" s="32">
+        <v>4</v>
+      </c>
+      <c r="C62" t="s" s="33">
+        <v>271</v>
+      </c>
+      <c r="D62" s="34">
         <v>316</v>
       </c>
-      <c r="E62" t="s" s="34">
-        <v>271</v>
+      <c r="E62" t="s" s="33">
+        <v>272</v>
       </c>
     </row>
     <row r="63" ht="23" customHeight="1">
-      <c r="A63" s="32">
+      <c r="A63" s="31">
         <v>318</v>
       </c>
-      <c r="B63" s="33">
-        <v>4</v>
-      </c>
-      <c r="C63" t="s" s="34">
-        <v>272</v>
-      </c>
-      <c r="D63" s="35">
+      <c r="B63" s="32">
+        <v>4</v>
+      </c>
+      <c r="C63" t="s" s="33">
+        <v>273</v>
+      </c>
+      <c r="D63" s="34">
         <v>316</v>
       </c>
-      <c r="E63" t="s" s="34">
-        <v>273</v>
+      <c r="E63" t="s" s="33">
+        <v>274</v>
       </c>
     </row>
     <row r="64" ht="23" customHeight="1">
-      <c r="A64" s="32">
+      <c r="A64" s="31">
         <v>319</v>
       </c>
-      <c r="B64" s="33">
-        <v>4</v>
-      </c>
-      <c r="C64" t="s" s="34">
-        <v>274</v>
-      </c>
-      <c r="D64" s="35">
+      <c r="B64" s="32">
+        <v>4</v>
+      </c>
+      <c r="C64" t="s" s="33">
+        <v>275</v>
+      </c>
+      <c r="D64" s="34">
         <v>316</v>
       </c>
-      <c r="E64" t="s" s="34">
-        <v>275</v>
+      <c r="E64" t="s" s="33">
+        <v>276</v>
       </c>
     </row>
     <row r="65" ht="23" customHeight="1">
-      <c r="A65" s="32">
+      <c r="A65" s="31">
         <v>320</v>
       </c>
-      <c r="B65" s="33">
-        <v>3</v>
-      </c>
-      <c r="C65" t="s" s="34">
-        <v>276</v>
-      </c>
-      <c r="D65" s="35">
+      <c r="B65" s="32">
+        <v>3</v>
+      </c>
+      <c r="C65" t="s" s="33">
+        <v>277</v>
+      </c>
+      <c r="D65" s="34">
         <v>300</v>
       </c>
-      <c r="E65" t="s" s="34">
-        <v>277</v>
+      <c r="E65" t="s" s="33">
+        <v>278</v>
       </c>
     </row>
     <row r="66" ht="23" customHeight="1">
-      <c r="A66" s="36"/>
-      <c r="B66" s="37"/>
-      <c r="C66" s="38"/>
-      <c r="D66" s="38"/>
-      <c r="E66" s="38"/>
+      <c r="A66" s="35"/>
+      <c r="B66" s="36"/>
+      <c r="C66" s="37"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="37"/>
     </row>
     <row r="67" ht="23" customHeight="1">
-      <c r="A67" s="32">
+      <c r="A67" s="31">
         <v>400</v>
       </c>
-      <c r="B67" s="33">
+      <c r="B67" s="32">
         <v>2</v>
       </c>
-      <c r="C67" t="s" s="34">
-        <v>278</v>
-      </c>
-      <c r="D67" s="35">
+      <c r="C67" t="s" s="33">
+        <v>279</v>
+      </c>
+      <c r="D67" s="34">
         <v>1</v>
       </c>
-      <c r="E67" t="s" s="34">
-        <v>279</v>
+      <c r="E67" t="s" s="33">
+        <v>280</v>
       </c>
     </row>
     <row r="68" ht="23" customHeight="1">
-      <c r="A68" s="32">
+      <c r="A68" s="31">
         <v>401</v>
       </c>
-      <c r="B68" s="33">
-        <v>3</v>
-      </c>
-      <c r="C68" t="s" s="34">
-        <v>280</v>
-      </c>
-      <c r="D68" s="35">
+      <c r="B68" s="32">
+        <v>3</v>
+      </c>
+      <c r="C68" t="s" s="33">
+        <v>281</v>
+      </c>
+      <c r="D68" s="34">
         <v>400</v>
       </c>
-      <c r="E68" s="38"/>
+      <c r="E68" s="37"/>
     </row>
     <row r="69" ht="23" customHeight="1">
-      <c r="A69" s="32">
+      <c r="A69" s="31">
         <v>402</v>
       </c>
-      <c r="B69" s="33">
-        <v>3</v>
-      </c>
-      <c r="C69" t="s" s="34">
-        <v>281</v>
-      </c>
-      <c r="D69" s="35">
+      <c r="B69" s="32">
+        <v>3</v>
+      </c>
+      <c r="C69" t="s" s="33">
+        <v>282</v>
+      </c>
+      <c r="D69" s="34">
         <v>400</v>
       </c>
-      <c r="E69" s="38"/>
+      <c r="E69" s="37"/>
     </row>
     <row r="70" ht="23" customHeight="1">
-      <c r="A70" s="32">
+      <c r="A70" s="31">
         <v>403</v>
       </c>
-      <c r="B70" s="33">
-        <v>4</v>
-      </c>
-      <c r="C70" t="s" s="34">
-        <v>282</v>
-      </c>
-      <c r="D70" s="35">
+      <c r="B70" s="32">
+        <v>4</v>
+      </c>
+      <c r="C70" t="s" s="33">
+        <v>283</v>
+      </c>
+      <c r="D70" s="34">
         <v>402</v>
       </c>
-      <c r="E70" s="38"/>
+      <c r="E70" s="37"/>
     </row>
     <row r="71" ht="23" customHeight="1">
-      <c r="A71" s="32">
+      <c r="A71" s="31">
         <v>404</v>
       </c>
-      <c r="B71" s="33">
-        <v>4</v>
-      </c>
-      <c r="C71" t="s" s="34">
-        <v>283</v>
-      </c>
-      <c r="D71" s="35">
+      <c r="B71" s="32">
+        <v>4</v>
+      </c>
+      <c r="C71" t="s" s="33">
+        <v>284</v>
+      </c>
+      <c r="D71" s="34">
         <v>402</v>
       </c>
-      <c r="E71" s="38"/>
+      <c r="E71" s="37"/>
     </row>
     <row r="72" ht="23" customHeight="1">
-      <c r="A72" s="32">
+      <c r="A72" s="31">
         <v>405</v>
       </c>
-      <c r="B72" s="33">
-        <v>3</v>
-      </c>
-      <c r="C72" t="s" s="34">
-        <v>284</v>
-      </c>
-      <c r="D72" s="35">
+      <c r="B72" s="32">
+        <v>3</v>
+      </c>
+      <c r="C72" t="s" s="33">
+        <v>285</v>
+      </c>
+      <c r="D72" s="34">
         <v>400</v>
       </c>
-      <c r="E72" s="38"/>
+      <c r="E72" s="37"/>
     </row>
     <row r="73" ht="23" customHeight="1">
-      <c r="A73" s="32">
+      <c r="A73" s="31">
         <v>406</v>
       </c>
-      <c r="B73" s="33">
-        <v>4</v>
-      </c>
-      <c r="C73" t="s" s="34">
-        <v>285</v>
-      </c>
-      <c r="D73" s="35">
+      <c r="B73" s="32">
+        <v>4</v>
+      </c>
+      <c r="C73" t="s" s="33">
+        <v>286</v>
+      </c>
+      <c r="D73" s="34">
         <v>405</v>
       </c>
-      <c r="E73" s="38"/>
+      <c r="E73" s="37"/>
     </row>
     <row r="74" ht="23" customHeight="1">
-      <c r="A74" s="32">
+      <c r="A74" s="31">
         <v>407</v>
       </c>
-      <c r="B74" s="33">
-        <v>4</v>
-      </c>
-      <c r="C74" t="s" s="34">
-        <v>286</v>
-      </c>
-      <c r="D74" s="35">
+      <c r="B74" s="32">
+        <v>4</v>
+      </c>
+      <c r="C74" t="s" s="33">
+        <v>287</v>
+      </c>
+      <c r="D74" s="34">
         <v>405</v>
       </c>
-      <c r="E74" s="38"/>
+      <c r="E74" s="37"/>
     </row>
     <row r="75" ht="23" customHeight="1">
-      <c r="A75" s="32">
+      <c r="A75" s="31">
         <v>408</v>
       </c>
-      <c r="B75" s="33">
-        <v>4</v>
-      </c>
-      <c r="C75" t="s" s="34">
-        <v>287</v>
-      </c>
-      <c r="D75" s="35">
+      <c r="B75" s="32">
+        <v>4</v>
+      </c>
+      <c r="C75" t="s" s="33">
+        <v>288</v>
+      </c>
+      <c r="D75" s="34">
         <v>405</v>
       </c>
-      <c r="E75" s="38"/>
+      <c r="E75" s="37"/>
     </row>
     <row r="76" ht="23" customHeight="1">
-      <c r="A76" s="32">
+      <c r="A76" s="31">
         <v>409</v>
       </c>
-      <c r="B76" s="33">
-        <v>4</v>
-      </c>
-      <c r="C76" t="s" s="34">
-        <v>288</v>
-      </c>
-      <c r="D76" s="35">
+      <c r="B76" s="32">
+        <v>4</v>
+      </c>
+      <c r="C76" t="s" s="33">
+        <v>289</v>
+      </c>
+      <c r="D76" s="34">
         <v>405</v>
       </c>
-      <c r="E76" s="38"/>
+      <c r="E76" s="37"/>
     </row>
     <row r="77" ht="23" customHeight="1">
-      <c r="A77" s="32">
+      <c r="A77" s="31">
         <v>410</v>
       </c>
-      <c r="B77" s="33">
-        <v>4</v>
-      </c>
-      <c r="C77" t="s" s="34">
-        <v>289</v>
-      </c>
-      <c r="D77" s="35">
+      <c r="B77" s="32">
+        <v>4</v>
+      </c>
+      <c r="C77" t="s" s="33">
+        <v>290</v>
+      </c>
+      <c r="D77" s="34">
         <v>405</v>
       </c>
-      <c r="E77" s="38"/>
+      <c r="E77" s="37"/>
     </row>
     <row r="78" ht="23" customHeight="1">
-      <c r="A78" s="32">
+      <c r="A78" s="31">
         <v>411</v>
       </c>
-      <c r="B78" s="33">
-        <v>4</v>
-      </c>
-      <c r="C78" t="s" s="34">
-        <v>290</v>
-      </c>
-      <c r="D78" s="35">
+      <c r="B78" s="32">
+        <v>4</v>
+      </c>
+      <c r="C78" t="s" s="33">
+        <v>291</v>
+      </c>
+      <c r="D78" s="34">
         <v>405</v>
       </c>
-      <c r="E78" s="38"/>
+      <c r="E78" s="37"/>
     </row>
     <row r="79" ht="23" customHeight="1">
-      <c r="A79" s="32">
+      <c r="A79" s="31">
         <v>412</v>
       </c>
-      <c r="B79" s="33">
-        <v>3</v>
-      </c>
-      <c r="C79" t="s" s="34">
-        <v>291</v>
-      </c>
-      <c r="D79" s="35">
+      <c r="B79" s="32">
+        <v>3</v>
+      </c>
+      <c r="C79" t="s" s="33">
+        <v>292</v>
+      </c>
+      <c r="D79" s="34">
         <v>400</v>
       </c>
-      <c r="E79" s="38"/>
+      <c r="E79" s="37"/>
     </row>
     <row r="80" ht="23" customHeight="1">
-      <c r="A80" s="32">
+      <c r="A80" s="31">
         <v>413</v>
       </c>
-      <c r="B80" s="33">
-        <v>4</v>
-      </c>
-      <c r="C80" t="s" s="34">
-        <v>292</v>
-      </c>
-      <c r="D80" s="35">
+      <c r="B80" s="32">
+        <v>4</v>
+      </c>
+      <c r="C80" t="s" s="33">
+        <v>293</v>
+      </c>
+      <c r="D80" s="34">
         <v>412</v>
       </c>
-      <c r="E80" s="38"/>
+      <c r="E80" s="37"/>
     </row>
     <row r="81" ht="23" customHeight="1">
-      <c r="A81" s="32">
+      <c r="A81" s="31">
         <v>414</v>
       </c>
-      <c r="B81" s="33">
+      <c r="B81" s="32">
         <v>5</v>
       </c>
-      <c r="C81" t="s" s="34">
-        <v>293</v>
-      </c>
-      <c r="D81" s="35">
+      <c r="C81" t="s" s="33">
+        <v>294</v>
+      </c>
+      <c r="D81" s="34">
         <v>413</v>
       </c>
-      <c r="E81" s="38"/>
+      <c r="E81" s="37"/>
     </row>
     <row r="82" ht="23" customHeight="1">
-      <c r="A82" s="32">
+      <c r="A82" s="31">
         <v>415</v>
       </c>
-      <c r="B82" s="33">
+      <c r="B82" s="32">
         <v>5</v>
       </c>
-      <c r="C82" t="s" s="34">
-        <v>294</v>
-      </c>
-      <c r="D82" s="35">
+      <c r="C82" t="s" s="33">
+        <v>295</v>
+      </c>
+      <c r="D82" s="34">
         <v>413</v>
       </c>
-      <c r="E82" s="38"/>
+      <c r="E82" s="37"/>
     </row>
     <row r="83" ht="23" customHeight="1">
-      <c r="A83" s="32">
+      <c r="A83" s="31">
         <v>416</v>
       </c>
-      <c r="B83" s="33">
+      <c r="B83" s="32">
         <v>5</v>
       </c>
-      <c r="C83" t="s" s="34">
-        <v>295</v>
-      </c>
-      <c r="D83" s="35">
+      <c r="C83" t="s" s="33">
+        <v>296</v>
+      </c>
+      <c r="D83" s="34">
         <v>413</v>
       </c>
-      <c r="E83" s="38"/>
+      <c r="E83" s="37"/>
     </row>
     <row r="84" ht="23" customHeight="1">
-      <c r="A84" s="32">
+      <c r="A84" s="31">
         <v>417</v>
       </c>
-      <c r="B84" s="33">
+      <c r="B84" s="32">
         <v>5</v>
       </c>
-      <c r="C84" t="s" s="34">
-        <v>296</v>
-      </c>
-      <c r="D84" s="35">
+      <c r="C84" t="s" s="33">
+        <v>297</v>
+      </c>
+      <c r="D84" s="34">
         <v>413</v>
       </c>
-      <c r="E84" s="38"/>
+      <c r="E84" s="37"/>
     </row>
     <row r="85" ht="23" customHeight="1">
-      <c r="A85" s="32">
+      <c r="A85" s="31">
         <v>418</v>
       </c>
-      <c r="B85" s="33">
-        <v>4</v>
-      </c>
-      <c r="C85" t="s" s="34">
-        <v>297</v>
-      </c>
-      <c r="D85" s="35">
+      <c r="B85" s="32">
+        <v>4</v>
+      </c>
+      <c r="C85" t="s" s="33">
+        <v>298</v>
+      </c>
+      <c r="D85" s="34">
         <v>412</v>
       </c>
-      <c r="E85" s="38"/>
+      <c r="E85" s="37"/>
     </row>
     <row r="86" ht="23" customHeight="1">
-      <c r="A86" s="32">
+      <c r="A86" s="31">
         <v>419</v>
       </c>
-      <c r="B86" s="33">
+      <c r="B86" s="32">
         <v>5</v>
       </c>
-      <c r="C86" t="s" s="34">
-        <v>298</v>
-      </c>
-      <c r="D86" s="35">
+      <c r="C86" t="s" s="33">
+        <v>299</v>
+      </c>
+      <c r="D86" s="34">
         <v>418</v>
       </c>
-      <c r="E86" s="38"/>
+      <c r="E86" s="37"/>
     </row>
     <row r="87" ht="23" customHeight="1">
-      <c r="A87" s="32">
+      <c r="A87" s="31">
         <v>420</v>
       </c>
-      <c r="B87" s="33">
+      <c r="B87" s="32">
         <v>5</v>
       </c>
-      <c r="C87" t="s" s="34">
-        <v>299</v>
-      </c>
-      <c r="D87" s="35">
+      <c r="C87" t="s" s="33">
+        <v>300</v>
+      </c>
+      <c r="D87" s="34">
         <v>418</v>
       </c>
-      <c r="E87" s="38"/>
+      <c r="E87" s="37"/>
     </row>
     <row r="88" ht="23" customHeight="1">
-      <c r="A88" s="32">
+      <c r="A88" s="31">
         <v>421</v>
       </c>
-      <c r="B88" s="33">
+      <c r="B88" s="32">
         <v>5</v>
       </c>
-      <c r="C88" t="s" s="34">
-        <v>300</v>
-      </c>
-      <c r="D88" s="35">
+      <c r="C88" t="s" s="33">
+        <v>301</v>
+      </c>
+      <c r="D88" s="34">
         <v>418</v>
       </c>
-      <c r="E88" s="38"/>
+      <c r="E88" s="37"/>
     </row>
     <row r="89" ht="23" customHeight="1">
-      <c r="A89" s="32">
+      <c r="A89" s="31">
         <v>422</v>
       </c>
-      <c r="B89" s="33">
-        <v>4</v>
-      </c>
-      <c r="C89" t="s" s="34">
-        <v>301</v>
-      </c>
-      <c r="D89" s="35">
+      <c r="B89" s="32">
+        <v>4</v>
+      </c>
+      <c r="C89" t="s" s="33">
+        <v>302</v>
+      </c>
+      <c r="D89" s="34">
         <v>412</v>
       </c>
-      <c r="E89" s="38"/>
+      <c r="E89" s="37"/>
     </row>
     <row r="90" ht="23" customHeight="1">
-      <c r="A90" s="32">
+      <c r="A90" s="31">
         <v>423</v>
       </c>
-      <c r="B90" s="33">
+      <c r="B90" s="32">
         <v>5</v>
       </c>
-      <c r="C90" t="s" s="34">
-        <v>302</v>
-      </c>
-      <c r="D90" s="35">
+      <c r="C90" t="s" s="33">
+        <v>303</v>
+      </c>
+      <c r="D90" s="34">
         <v>422</v>
       </c>
-      <c r="E90" s="38"/>
+      <c r="E90" s="37"/>
     </row>
     <row r="91" ht="23" customHeight="1">
-      <c r="A91" s="32">
+      <c r="A91" s="31">
         <v>424</v>
       </c>
-      <c r="B91" s="33">
+      <c r="B91" s="32">
         <v>5</v>
       </c>
-      <c r="C91" t="s" s="34">
-        <v>303</v>
-      </c>
-      <c r="D91" s="35">
+      <c r="C91" t="s" s="33">
+        <v>304</v>
+      </c>
+      <c r="D91" s="34">
         <v>422</v>
       </c>
-      <c r="E91" s="38"/>
+      <c r="E91" s="37"/>
     </row>
     <row r="92" ht="23" customHeight="1">
-      <c r="A92" s="32">
+      <c r="A92" s="31">
         <v>425</v>
       </c>
-      <c r="B92" s="33">
+      <c r="B92" s="32">
         <v>5</v>
       </c>
-      <c r="C92" t="s" s="34">
-        <v>304</v>
-      </c>
-      <c r="D92" s="35">
+      <c r="C92" t="s" s="33">
+        <v>305</v>
+      </c>
+      <c r="D92" s="34">
         <v>422</v>
       </c>
-      <c r="E92" s="38"/>
+      <c r="E92" s="37"/>
     </row>
     <row r="93" ht="23" customHeight="1">
-      <c r="A93" s="32">
+      <c r="A93" s="31">
         <v>426</v>
       </c>
-      <c r="B93" s="33">
-        <v>4</v>
-      </c>
-      <c r="C93" t="s" s="34">
-        <v>305</v>
-      </c>
-      <c r="D93" s="35">
+      <c r="B93" s="32">
+        <v>4</v>
+      </c>
+      <c r="C93" t="s" s="33">
+        <v>306</v>
+      </c>
+      <c r="D93" s="34">
         <v>412</v>
       </c>
-      <c r="E93" s="38"/>
+      <c r="E93" s="37"/>
     </row>
     <row r="94" ht="23" customHeight="1">
-      <c r="A94" s="32">
+      <c r="A94" s="31">
         <v>427</v>
       </c>
-      <c r="B94" s="33">
-        <v>3</v>
-      </c>
-      <c r="C94" t="s" s="34">
-        <v>306</v>
-      </c>
-      <c r="D94" s="35">
+      <c r="B94" s="32">
+        <v>3</v>
+      </c>
+      <c r="C94" t="s" s="33">
+        <v>307</v>
+      </c>
+      <c r="D94" s="34">
         <v>400</v>
       </c>
-      <c r="E94" s="38"/>
+      <c r="E94" s="37"/>
     </row>
     <row r="95" ht="23" customHeight="1">
-      <c r="A95" s="32">
+      <c r="A95" s="31">
         <v>428</v>
       </c>
-      <c r="B95" s="33">
-        <v>4</v>
-      </c>
-      <c r="C95" t="s" s="34">
-        <v>307</v>
-      </c>
-      <c r="D95" s="35">
+      <c r="B95" s="32">
+        <v>4</v>
+      </c>
+      <c r="C95" t="s" s="33">
+        <v>308</v>
+      </c>
+      <c r="D95" s="34">
         <v>427</v>
       </c>
-      <c r="E95" s="38"/>
+      <c r="E95" s="37"/>
     </row>
     <row r="96" ht="23" customHeight="1">
-      <c r="A96" s="32">
+      <c r="A96" s="31">
         <v>429</v>
       </c>
-      <c r="B96" s="33">
-        <v>4</v>
-      </c>
-      <c r="C96" t="s" s="34">
-        <v>308</v>
-      </c>
-      <c r="D96" s="35">
+      <c r="B96" s="32">
+        <v>4</v>
+      </c>
+      <c r="C96" t="s" s="33">
+        <v>309</v>
+      </c>
+      <c r="D96" s="34">
         <v>427</v>
       </c>
-      <c r="E96" s="38"/>
+      <c r="E96" s="37"/>
     </row>
     <row r="97" ht="23" customHeight="1">
-      <c r="A97" s="32">
+      <c r="A97" s="31">
         <v>430</v>
       </c>
-      <c r="B97" s="33">
+      <c r="B97" s="32">
         <v>5</v>
       </c>
-      <c r="C97" t="s" s="34">
-        <v>309</v>
-      </c>
-      <c r="D97" s="35">
+      <c r="C97" t="s" s="33">
+        <v>310</v>
+      </c>
+      <c r="D97" s="34">
         <v>429</v>
       </c>
-      <c r="E97" s="38"/>
+      <c r="E97" s="37"/>
     </row>
     <row r="98" ht="23" customHeight="1">
-      <c r="A98" s="32">
+      <c r="A98" s="31">
         <v>431</v>
       </c>
-      <c r="B98" s="33">
+      <c r="B98" s="32">
         <v>5</v>
       </c>
-      <c r="C98" t="s" s="34">
-        <v>310</v>
-      </c>
-      <c r="D98" s="35">
+      <c r="C98" t="s" s="33">
+        <v>311</v>
+      </c>
+      <c r="D98" s="34">
         <v>429</v>
       </c>
-      <c r="E98" s="38"/>
+      <c r="E98" s="37"/>
     </row>
     <row r="99" ht="23" customHeight="1">
-      <c r="A99" s="32">
+      <c r="A99" s="31">
         <v>432</v>
       </c>
-      <c r="B99" s="33">
+      <c r="B99" s="32">
         <v>5</v>
       </c>
-      <c r="C99" t="s" s="34">
-        <v>311</v>
-      </c>
-      <c r="D99" s="35">
+      <c r="C99" t="s" s="33">
+        <v>312</v>
+      </c>
+      <c r="D99" s="34">
         <v>429</v>
       </c>
-      <c r="E99" s="38"/>
+      <c r="E99" s="37"/>
     </row>
     <row r="100" ht="23" customHeight="1">
-      <c r="A100" s="32">
+      <c r="A100" s="31">
         <v>433</v>
       </c>
-      <c r="B100" s="33">
+      <c r="B100" s="32">
         <v>5</v>
       </c>
-      <c r="C100" t="s" s="34">
-        <v>312</v>
-      </c>
-      <c r="D100" s="35">
+      <c r="C100" t="s" s="33">
+        <v>313</v>
+      </c>
+      <c r="D100" s="34">
         <v>429</v>
       </c>
-      <c r="E100" s="38"/>
+      <c r="E100" s="37"/>
     </row>
     <row r="101" ht="23" customHeight="1">
-      <c r="A101" s="32">
+      <c r="A101" s="31">
         <v>434</v>
       </c>
-      <c r="B101" s="33">
+      <c r="B101" s="32">
         <v>5</v>
       </c>
-      <c r="C101" t="s" s="34">
-        <v>313</v>
-      </c>
-      <c r="D101" s="35">
+      <c r="C101" t="s" s="33">
+        <v>314</v>
+      </c>
+      <c r="D101" s="34">
         <v>429</v>
       </c>
-      <c r="E101" s="38"/>
+      <c r="E101" s="37"/>
     </row>
     <row r="102" ht="23" customHeight="1">
-      <c r="A102" s="32">
+      <c r="A102" s="31">
         <v>435</v>
       </c>
-      <c r="B102" s="33">
-        <v>4</v>
-      </c>
-      <c r="C102" t="s" s="34">
-        <v>314</v>
-      </c>
-      <c r="D102" s="35">
+      <c r="B102" s="32">
+        <v>4</v>
+      </c>
+      <c r="C102" t="s" s="33">
+        <v>315</v>
+      </c>
+      <c r="D102" s="34">
         <v>427</v>
       </c>
-      <c r="E102" s="38"/>
+      <c r="E102" s="37"/>
     </row>
     <row r="103" ht="23" customHeight="1">
-      <c r="A103" s="32">
+      <c r="A103" s="31">
         <v>436</v>
       </c>
-      <c r="B103" s="33">
-        <v>3</v>
-      </c>
-      <c r="C103" t="s" s="34">
-        <v>315</v>
-      </c>
-      <c r="D103" s="35">
+      <c r="B103" s="32">
+        <v>3</v>
+      </c>
+      <c r="C103" t="s" s="33">
+        <v>316</v>
+      </c>
+      <c r="D103" s="34">
         <v>400</v>
       </c>
-      <c r="E103" s="38"/>
+      <c r="E103" s="37"/>
     </row>
     <row r="104" ht="23" customHeight="1">
-      <c r="A104" s="32">
+      <c r="A104" s="31">
         <v>437</v>
       </c>
-      <c r="B104" s="33">
-        <v>4</v>
-      </c>
-      <c r="C104" t="s" s="34">
-        <v>316</v>
-      </c>
-      <c r="D104" s="35">
+      <c r="B104" s="32">
+        <v>4</v>
+      </c>
+      <c r="C104" t="s" s="33">
+        <v>317</v>
+      </c>
+      <c r="D104" s="34">
         <v>436</v>
       </c>
-      <c r="E104" s="38"/>
+      <c r="E104" s="37"/>
     </row>
     <row r="105" ht="23" customHeight="1">
-      <c r="A105" s="32">
+      <c r="A105" s="31">
         <v>438</v>
       </c>
-      <c r="B105" s="33">
-        <v>4</v>
-      </c>
-      <c r="C105" t="s" s="34">
-        <v>317</v>
-      </c>
-      <c r="D105" s="35">
+      <c r="B105" s="32">
+        <v>4</v>
+      </c>
+      <c r="C105" t="s" s="33">
+        <v>318</v>
+      </c>
+      <c r="D105" s="34">
         <v>436</v>
       </c>
-      <c r="E105" s="38"/>
+      <c r="E105" s="37"/>
     </row>
     <row r="106" ht="23" customHeight="1">
-      <c r="A106" s="32">
+      <c r="A106" s="31">
         <v>439</v>
       </c>
-      <c r="B106" s="33">
-        <v>4</v>
-      </c>
-      <c r="C106" t="s" s="34">
-        <v>318</v>
-      </c>
-      <c r="D106" s="35">
+      <c r="B106" s="32">
+        <v>4</v>
+      </c>
+      <c r="C106" t="s" s="33">
+        <v>319</v>
+      </c>
+      <c r="D106" s="34">
         <v>436</v>
       </c>
-      <c r="E106" s="38"/>
+      <c r="E106" s="37"/>
     </row>
     <row r="107" ht="23" customHeight="1">
-      <c r="A107" s="32">
+      <c r="A107" s="31">
         <v>440</v>
       </c>
-      <c r="B107" s="33">
-        <v>4</v>
-      </c>
-      <c r="C107" t="s" s="34">
-        <v>319</v>
-      </c>
-      <c r="D107" s="35">
+      <c r="B107" s="32">
+        <v>4</v>
+      </c>
+      <c r="C107" t="s" s="33">
+        <v>320</v>
+      </c>
+      <c r="D107" s="34">
         <v>436</v>
       </c>
-      <c r="E107" s="38"/>
+      <c r="E107" s="37"/>
     </row>
     <row r="108" ht="23" customHeight="1">
-      <c r="A108" s="32">
+      <c r="A108" s="31">
         <v>441</v>
       </c>
-      <c r="B108" s="33">
-        <v>3</v>
-      </c>
-      <c r="C108" t="s" s="34">
-        <v>320</v>
-      </c>
-      <c r="D108" s="35">
+      <c r="B108" s="32">
+        <v>3</v>
+      </c>
+      <c r="C108" t="s" s="33">
+        <v>321</v>
+      </c>
+      <c r="D108" s="34">
         <v>400</v>
       </c>
-      <c r="E108" s="38"/>
+      <c r="E108" s="37"/>
     </row>
     <row r="109" ht="23" customHeight="1">
-      <c r="A109" s="32">
+      <c r="A109" s="31">
         <v>442</v>
       </c>
-      <c r="B109" s="33">
-        <v>4</v>
-      </c>
-      <c r="C109" t="s" s="34">
-        <v>321</v>
-      </c>
-      <c r="D109" s="35">
+      <c r="B109" s="32">
+        <v>4</v>
+      </c>
+      <c r="C109" t="s" s="33">
+        <v>322</v>
+      </c>
+      <c r="D109" s="34">
         <v>441</v>
       </c>
-      <c r="E109" s="38"/>
+      <c r="E109" s="37"/>
     </row>
     <row r="110" ht="23" customHeight="1">
-      <c r="A110" s="32">
+      <c r="A110" s="31">
         <v>443</v>
       </c>
-      <c r="B110" s="33">
-        <v>4</v>
-      </c>
-      <c r="C110" t="s" s="34">
-        <v>322</v>
-      </c>
-      <c r="D110" s="35">
+      <c r="B110" s="32">
+        <v>4</v>
+      </c>
+      <c r="C110" t="s" s="33">
+        <v>323</v>
+      </c>
+      <c r="D110" s="34">
         <v>441</v>
       </c>
-      <c r="E110" s="38"/>
+      <c r="E110" s="37"/>
     </row>
     <row r="111" ht="23" customHeight="1">
-      <c r="A111" s="32">
+      <c r="A111" s="31">
         <v>444</v>
       </c>
-      <c r="B111" s="33">
-        <v>4</v>
-      </c>
-      <c r="C111" t="s" s="34">
-        <v>323</v>
-      </c>
-      <c r="D111" s="35">
+      <c r="B111" s="32">
+        <v>4</v>
+      </c>
+      <c r="C111" t="s" s="33">
+        <v>324</v>
+      </c>
+      <c r="D111" s="34">
         <v>441</v>
       </c>
-      <c r="E111" s="38"/>
+      <c r="E111" s="37"/>
     </row>
     <row r="112" ht="23" customHeight="1">
-      <c r="A112" s="32">
+      <c r="A112" s="31">
         <v>445</v>
       </c>
-      <c r="B112" s="33">
-        <v>3</v>
-      </c>
-      <c r="C112" t="s" s="34">
-        <v>324</v>
-      </c>
-      <c r="D112" s="35">
+      <c r="B112" s="32">
+        <v>3</v>
+      </c>
+      <c r="C112" t="s" s="33">
+        <v>325</v>
+      </c>
+      <c r="D112" s="34">
         <v>400</v>
       </c>
-      <c r="E112" s="38"/>
+      <c r="E112" s="37"/>
     </row>
     <row r="113" ht="23" customHeight="1">
-      <c r="A113" s="32">
+      <c r="A113" s="31">
         <v>446</v>
       </c>
-      <c r="B113" s="33">
-        <v>4</v>
-      </c>
-      <c r="C113" t="s" s="34">
-        <v>325</v>
-      </c>
-      <c r="D113" s="35">
+      <c r="B113" s="32">
+        <v>4</v>
+      </c>
+      <c r="C113" t="s" s="33">
+        <v>326</v>
+      </c>
+      <c r="D113" s="34">
         <v>445</v>
       </c>
-      <c r="E113" s="38"/>
+      <c r="E113" s="37"/>
     </row>
     <row r="114" ht="23" customHeight="1">
-      <c r="A114" s="32">
+      <c r="A114" s="31">
         <v>447</v>
       </c>
-      <c r="B114" s="33">
-        <v>4</v>
-      </c>
-      <c r="C114" t="s" s="34">
-        <v>326</v>
-      </c>
-      <c r="D114" s="35">
+      <c r="B114" s="32">
+        <v>4</v>
+      </c>
+      <c r="C114" t="s" s="33">
+        <v>327</v>
+      </c>
+      <c r="D114" s="34">
         <v>445</v>
       </c>
-      <c r="E114" s="38"/>
+      <c r="E114" s="37"/>
     </row>
     <row r="115" ht="23" customHeight="1">
-      <c r="A115" s="32">
+      <c r="A115" s="31">
         <v>448</v>
       </c>
-      <c r="B115" s="33">
-        <v>4</v>
-      </c>
-      <c r="C115" t="s" s="34">
-        <v>327</v>
-      </c>
-      <c r="D115" s="35">
+      <c r="B115" s="32">
+        <v>4</v>
+      </c>
+      <c r="C115" t="s" s="33">
+        <v>328</v>
+      </c>
+      <c r="D115" s="34">
         <v>445</v>
       </c>
-      <c r="E115" s="38"/>
+      <c r="E115" s="37"/>
     </row>
     <row r="116" ht="23" customHeight="1">
-      <c r="A116" s="32">
+      <c r="A116" s="31">
         <v>449</v>
       </c>
-      <c r="B116" s="33">
-        <v>3</v>
-      </c>
-      <c r="C116" t="s" s="34">
-        <v>328</v>
-      </c>
-      <c r="D116" s="35">
+      <c r="B116" s="32">
+        <v>3</v>
+      </c>
+      <c r="C116" t="s" s="33">
+        <v>329</v>
+      </c>
+      <c r="D116" s="34">
         <v>400</v>
       </c>
-      <c r="E116" s="38"/>
+      <c r="E116" s="37"/>
     </row>
     <row r="117" ht="23" customHeight="1">
-      <c r="A117" s="32">
+      <c r="A117" s="31">
         <v>450</v>
       </c>
-      <c r="B117" s="33">
-        <v>4</v>
-      </c>
-      <c r="C117" t="s" s="34">
-        <v>329</v>
-      </c>
-      <c r="D117" s="35">
+      <c r="B117" s="32">
+        <v>4</v>
+      </c>
+      <c r="C117" t="s" s="33">
+        <v>330</v>
+      </c>
+      <c r="D117" s="34">
         <v>449</v>
       </c>
-      <c r="E117" s="38"/>
+      <c r="E117" s="37"/>
     </row>
     <row r="118" ht="23" customHeight="1">
-      <c r="A118" s="32">
+      <c r="A118" s="31">
         <v>451</v>
       </c>
-      <c r="B118" s="33">
-        <v>4</v>
-      </c>
-      <c r="C118" t="s" s="34">
-        <v>330</v>
-      </c>
-      <c r="D118" s="35">
+      <c r="B118" s="32">
+        <v>4</v>
+      </c>
+      <c r="C118" t="s" s="33">
+        <v>331</v>
+      </c>
+      <c r="D118" s="34">
         <v>449</v>
       </c>
-      <c r="E118" s="38"/>
+      <c r="E118" s="37"/>
     </row>
     <row r="119" ht="23" customHeight="1">
-      <c r="A119" s="32">
+      <c r="A119" s="31">
         <v>452</v>
       </c>
-      <c r="B119" s="33">
-        <v>4</v>
-      </c>
-      <c r="C119" t="s" s="34">
-        <v>331</v>
-      </c>
-      <c r="D119" s="35">
+      <c r="B119" s="32">
+        <v>4</v>
+      </c>
+      <c r="C119" t="s" s="33">
+        <v>332</v>
+      </c>
+      <c r="D119" s="34">
         <v>449</v>
       </c>
-      <c r="E119" s="38"/>
+      <c r="E119" s="37"/>
     </row>
     <row r="120" ht="23" customHeight="1">
-      <c r="A120" s="32">
+      <c r="A120" s="31">
         <v>453</v>
       </c>
-      <c r="B120" s="33">
-        <v>3</v>
-      </c>
-      <c r="C120" t="s" s="34">
-        <v>332</v>
-      </c>
-      <c r="D120" s="35">
+      <c r="B120" s="32">
+        <v>3</v>
+      </c>
+      <c r="C120" t="s" s="33">
+        <v>333</v>
+      </c>
+      <c r="D120" s="34">
         <v>400</v>
       </c>
-      <c r="E120" s="38"/>
+      <c r="E120" s="37"/>
     </row>
     <row r="121" ht="23" customHeight="1">
-      <c r="A121" s="32">
+      <c r="A121" s="31">
         <v>454</v>
       </c>
-      <c r="B121" s="33">
-        <v>4</v>
-      </c>
-      <c r="C121" t="s" s="34">
-        <v>333</v>
-      </c>
-      <c r="D121" s="35">
+      <c r="B121" s="32">
+        <v>4</v>
+      </c>
+      <c r="C121" t="s" s="33">
+        <v>334</v>
+      </c>
+      <c r="D121" s="34">
         <v>453</v>
       </c>
-      <c r="E121" s="38"/>
+      <c r="E121" s="37"/>
     </row>
     <row r="122" ht="23" customHeight="1">
-      <c r="A122" s="32">
+      <c r="A122" s="31">
         <v>455</v>
       </c>
-      <c r="B122" s="33">
-        <v>4</v>
-      </c>
-      <c r="C122" t="s" s="34">
-        <v>334</v>
-      </c>
-      <c r="D122" s="35">
+      <c r="B122" s="32">
+        <v>4</v>
+      </c>
+      <c r="C122" t="s" s="33">
+        <v>335</v>
+      </c>
+      <c r="D122" s="34">
         <v>453</v>
       </c>
-      <c r="E122" s="38"/>
+      <c r="E122" s="37"/>
     </row>
     <row r="123" ht="23" customHeight="1">
-      <c r="A123" s="32">
+      <c r="A123" s="31">
         <v>456</v>
       </c>
-      <c r="B123" s="33">
-        <v>4</v>
-      </c>
-      <c r="C123" t="s" s="34">
-        <v>335</v>
-      </c>
-      <c r="D123" s="35">
+      <c r="B123" s="32">
+        <v>4</v>
+      </c>
+      <c r="C123" t="s" s="33">
+        <v>336</v>
+      </c>
+      <c r="D123" s="34">
         <v>453</v>
       </c>
-      <c r="E123" s="38"/>
+      <c r="E123" s="37"/>
     </row>
     <row r="124" ht="23" customHeight="1">
-      <c r="A124" s="32">
+      <c r="A124" s="31">
         <v>457</v>
       </c>
-      <c r="B124" s="33">
-        <v>4</v>
-      </c>
-      <c r="C124" t="s" s="34">
-        <v>336</v>
-      </c>
-      <c r="D124" s="35">
+      <c r="B124" s="32">
+        <v>4</v>
+      </c>
+      <c r="C124" t="s" s="33">
+        <v>337</v>
+      </c>
+      <c r="D124" s="34">
         <v>453</v>
       </c>
-      <c r="E124" s="38"/>
+      <c r="E124" s="37"/>
     </row>
     <row r="125" ht="23" customHeight="1">
-      <c r="A125" s="36"/>
-      <c r="B125" s="37"/>
-      <c r="C125" s="38"/>
-      <c r="D125" s="38"/>
-      <c r="E125" s="38"/>
+      <c r="A125" s="35"/>
+      <c r="B125" s="36"/>
+      <c r="C125" s="37"/>
+      <c r="D125" s="37"/>
+      <c r="E125" s="37"/>
     </row>
     <row r="126" ht="23" customHeight="1">
-      <c r="A126" s="32">
+      <c r="A126" s="31">
         <v>500</v>
       </c>
-      <c r="B126" s="33">
+      <c r="B126" s="32">
         <v>2</v>
       </c>
-      <c r="C126" t="s" s="34">
-        <v>337</v>
-      </c>
-      <c r="D126" s="35">
+      <c r="C126" t="s" s="33">
+        <v>338</v>
+      </c>
+      <c r="D126" s="34">
         <v>1</v>
       </c>
-      <c r="E126" t="s" s="34">
-        <v>338</v>
+      <c r="E126" t="s" s="33">
+        <v>339</v>
       </c>
     </row>
     <row r="127" ht="23" customHeight="1">
-      <c r="A127" s="32">
+      <c r="A127" s="31">
         <v>501</v>
       </c>
-      <c r="B127" s="33">
-        <v>3</v>
-      </c>
-      <c r="C127" t="s" s="34">
-        <v>339</v>
-      </c>
-      <c r="D127" s="35">
+      <c r="B127" s="32">
+        <v>3</v>
+      </c>
+      <c r="C127" t="s" s="33">
+        <v>340</v>
+      </c>
+      <c r="D127" s="34">
         <v>500</v>
       </c>
-      <c r="E127" s="38"/>
+      <c r="E127" s="37"/>
     </row>
     <row r="128" ht="23" customHeight="1">
-      <c r="A128" s="32">
+      <c r="A128" s="31">
         <v>502</v>
       </c>
-      <c r="B128" s="33">
-        <v>3</v>
-      </c>
-      <c r="C128" t="s" s="34">
-        <v>340</v>
-      </c>
-      <c r="D128" s="35">
+      <c r="B128" s="32">
+        <v>3</v>
+      </c>
+      <c r="C128" t="s" s="33">
+        <v>341</v>
+      </c>
+      <c r="D128" s="34">
         <v>500</v>
       </c>
-      <c r="E128" s="38"/>
+      <c r="E128" s="37"/>
     </row>
     <row r="129" ht="23" customHeight="1">
-      <c r="A129" s="32">
+      <c r="A129" s="31">
         <v>503</v>
       </c>
-      <c r="B129" s="33">
-        <v>4</v>
-      </c>
-      <c r="C129" t="s" s="34">
-        <v>341</v>
-      </c>
-      <c r="D129" s="35">
+      <c r="B129" s="32">
+        <v>4</v>
+      </c>
+      <c r="C129" t="s" s="33">
+        <v>342</v>
+      </c>
+      <c r="D129" s="34">
         <v>502</v>
       </c>
-      <c r="E129" s="38"/>
+      <c r="E129" s="37"/>
     </row>
     <row r="130" ht="23" customHeight="1">
-      <c r="A130" s="32">
+      <c r="A130" s="31">
         <v>504</v>
       </c>
-      <c r="B130" s="33">
-        <v>4</v>
-      </c>
-      <c r="C130" t="s" s="34">
-        <v>342</v>
-      </c>
-      <c r="D130" s="35">
+      <c r="B130" s="32">
+        <v>4</v>
+      </c>
+      <c r="C130" t="s" s="33">
+        <v>343</v>
+      </c>
+      <c r="D130" s="34">
         <v>502</v>
       </c>
-      <c r="E130" s="38"/>
+      <c r="E130" s="37"/>
     </row>
     <row r="131" ht="23" customHeight="1">
-      <c r="A131" s="32">
+      <c r="A131" s="31">
         <v>505</v>
       </c>
-      <c r="B131" s="33">
-        <v>3</v>
-      </c>
-      <c r="C131" t="s" s="34">
-        <v>343</v>
-      </c>
-      <c r="D131" s="35">
+      <c r="B131" s="32">
+        <v>3</v>
+      </c>
+      <c r="C131" t="s" s="33">
+        <v>344</v>
+      </c>
+      <c r="D131" s="34">
         <v>500</v>
       </c>
-      <c r="E131" s="38"/>
+      <c r="E131" s="37"/>
     </row>
     <row r="132" ht="23" customHeight="1">
-      <c r="A132" s="32">
+      <c r="A132" s="31">
         <v>506</v>
       </c>
-      <c r="B132" s="33">
-        <v>4</v>
-      </c>
-      <c r="C132" t="s" s="34">
-        <v>344</v>
-      </c>
-      <c r="D132" s="35">
+      <c r="B132" s="32">
+        <v>4</v>
+      </c>
+      <c r="C132" t="s" s="33">
+        <v>345</v>
+      </c>
+      <c r="D132" s="34">
         <v>505</v>
       </c>
-      <c r="E132" s="38"/>
+      <c r="E132" s="37"/>
     </row>
     <row r="133" ht="23" customHeight="1">
-      <c r="A133" s="32">
+      <c r="A133" s="31">
         <v>507</v>
       </c>
-      <c r="B133" s="33">
-        <v>4</v>
-      </c>
-      <c r="C133" t="s" s="34">
-        <v>345</v>
-      </c>
-      <c r="D133" s="35">
+      <c r="B133" s="32">
+        <v>4</v>
+      </c>
+      <c r="C133" t="s" s="33">
+        <v>346</v>
+      </c>
+      <c r="D133" s="34">
         <v>505</v>
       </c>
-      <c r="E133" s="38"/>
+      <c r="E133" s="37"/>
     </row>
     <row r="134" ht="23" customHeight="1">
-      <c r="A134" s="32">
+      <c r="A134" s="31">
         <v>508</v>
       </c>
-      <c r="B134" s="33">
-        <v>4</v>
-      </c>
-      <c r="C134" t="s" s="34">
-        <v>346</v>
-      </c>
-      <c r="D134" s="35">
+      <c r="B134" s="32">
+        <v>4</v>
+      </c>
+      <c r="C134" t="s" s="33">
+        <v>347</v>
+      </c>
+      <c r="D134" s="34">
         <v>505</v>
       </c>
-      <c r="E134" s="38"/>
+      <c r="E134" s="37"/>
     </row>
     <row r="135" ht="23" customHeight="1">
-      <c r="A135" s="32">
+      <c r="A135" s="31">
         <v>509</v>
       </c>
-      <c r="B135" s="33">
-        <v>4</v>
-      </c>
-      <c r="C135" t="s" s="34">
-        <v>347</v>
-      </c>
-      <c r="D135" s="35">
+      <c r="B135" s="32">
+        <v>4</v>
+      </c>
+      <c r="C135" t="s" s="33">
+        <v>348</v>
+      </c>
+      <c r="D135" s="34">
         <v>505</v>
       </c>
-      <c r="E135" s="38"/>
+      <c r="E135" s="37"/>
     </row>
     <row r="136" ht="23" customHeight="1">
-      <c r="A136" s="32">
+      <c r="A136" s="31">
         <v>510</v>
       </c>
-      <c r="B136" s="33">
-        <v>3</v>
-      </c>
-      <c r="C136" t="s" s="34">
-        <v>348</v>
-      </c>
-      <c r="D136" s="35">
+      <c r="B136" s="32">
+        <v>3</v>
+      </c>
+      <c r="C136" t="s" s="33">
+        <v>349</v>
+      </c>
+      <c r="D136" s="34">
         <v>500</v>
       </c>
-      <c r="E136" s="38"/>
+      <c r="E136" s="37"/>
     </row>
     <row r="137" ht="23" customHeight="1">
-      <c r="A137" s="32">
+      <c r="A137" s="31">
         <v>511</v>
       </c>
-      <c r="B137" s="33">
-        <v>4</v>
-      </c>
-      <c r="C137" t="s" s="34">
-        <v>349</v>
-      </c>
-      <c r="D137" s="35">
+      <c r="B137" s="32">
+        <v>4</v>
+      </c>
+      <c r="C137" t="s" s="33">
+        <v>350</v>
+      </c>
+      <c r="D137" s="34">
         <v>510</v>
       </c>
-      <c r="E137" s="38"/>
+      <c r="E137" s="37"/>
     </row>
     <row r="138" ht="23" customHeight="1">
-      <c r="A138" s="32">
+      <c r="A138" s="31">
         <v>512</v>
       </c>
-      <c r="B138" s="33">
-        <v>4</v>
-      </c>
-      <c r="C138" t="s" s="34">
-        <v>350</v>
-      </c>
-      <c r="D138" s="35">
+      <c r="B138" s="32">
+        <v>4</v>
+      </c>
+      <c r="C138" t="s" s="33">
+        <v>351</v>
+      </c>
+      <c r="D138" s="34">
         <v>510</v>
       </c>
-      <c r="E138" s="38"/>
+      <c r="E138" s="37"/>
     </row>
     <row r="139" ht="23" customHeight="1">
-      <c r="A139" s="32">
+      <c r="A139" s="31">
         <v>513</v>
       </c>
-      <c r="B139" s="33">
-        <v>3</v>
-      </c>
-      <c r="C139" t="s" s="34">
-        <v>351</v>
-      </c>
-      <c r="D139" s="35">
+      <c r="B139" s="32">
+        <v>3</v>
+      </c>
+      <c r="C139" t="s" s="33">
+        <v>352</v>
+      </c>
+      <c r="D139" s="34">
         <v>500</v>
       </c>
-      <c r="E139" s="38"/>
+      <c r="E139" s="37"/>
     </row>
     <row r="140" ht="23" customHeight="1">
-      <c r="A140" s="36"/>
-      <c r="B140" s="37"/>
-      <c r="C140" s="38"/>
-      <c r="D140" s="38"/>
-      <c r="E140" s="38"/>
+      <c r="A140" s="35"/>
+      <c r="B140" s="36"/>
+      <c r="C140" s="37"/>
+      <c r="D140" s="37"/>
+      <c r="E140" s="37"/>
     </row>
     <row r="141" ht="23" customHeight="1">
-      <c r="A141" s="32">
+      <c r="A141" s="31">
         <v>600</v>
       </c>
-      <c r="B141" s="33">
+      <c r="B141" s="32">
         <v>2</v>
       </c>
-      <c r="C141" t="s" s="34">
-        <v>352</v>
-      </c>
-      <c r="D141" s="35">
+      <c r="C141" t="s" s="33">
+        <v>353</v>
+      </c>
+      <c r="D141" s="34">
         <v>1</v>
       </c>
-      <c r="E141" t="s" s="34">
-        <v>353</v>
+      <c r="E141" t="s" s="33">
+        <v>354</v>
       </c>
     </row>
     <row r="142" ht="23" customHeight="1">
-      <c r="A142" s="32">
+      <c r="A142" s="31">
         <v>601</v>
       </c>
-      <c r="B142" s="33">
-        <v>3</v>
-      </c>
-      <c r="C142" t="s" s="34">
-        <v>354</v>
-      </c>
-      <c r="D142" s="35">
+      <c r="B142" s="32">
+        <v>3</v>
+      </c>
+      <c r="C142" t="s" s="33">
+        <v>355</v>
+      </c>
+      <c r="D142" s="34">
         <v>600</v>
       </c>
-      <c r="E142" s="38"/>
+      <c r="E142" s="37"/>
     </row>
     <row r="143" ht="23" customHeight="1">
-      <c r="A143" s="32">
+      <c r="A143" s="31">
         <v>602</v>
       </c>
-      <c r="B143" s="33">
-        <v>3</v>
-      </c>
-      <c r="C143" t="s" s="34">
-        <v>355</v>
-      </c>
-      <c r="D143" s="35">
+      <c r="B143" s="32">
+        <v>3</v>
+      </c>
+      <c r="C143" t="s" s="33">
+        <v>356</v>
+      </c>
+      <c r="D143" s="34">
         <v>600</v>
       </c>
-      <c r="E143" s="38"/>
+      <c r="E143" s="37"/>
     </row>
     <row r="144" ht="23" customHeight="1">
-      <c r="A144" s="32">
+      <c r="A144" s="31">
         <v>603</v>
       </c>
-      <c r="B144" s="33">
-        <v>4</v>
-      </c>
-      <c r="C144" t="s" s="34">
-        <v>356</v>
-      </c>
-      <c r="D144" s="35">
+      <c r="B144" s="32">
+        <v>4</v>
+      </c>
+      <c r="C144" t="s" s="33">
+        <v>357</v>
+      </c>
+      <c r="D144" s="34">
         <v>602</v>
       </c>
-      <c r="E144" s="38"/>
+      <c r="E144" s="37"/>
     </row>
     <row r="145" ht="23" customHeight="1">
-      <c r="A145" s="32">
+      <c r="A145" s="31">
         <v>604</v>
       </c>
-      <c r="B145" s="33">
-        <v>4</v>
-      </c>
-      <c r="C145" t="s" s="34">
-        <v>357</v>
-      </c>
-      <c r="D145" s="35">
+      <c r="B145" s="32">
+        <v>4</v>
+      </c>
+      <c r="C145" t="s" s="33">
+        <v>358</v>
+      </c>
+      <c r="D145" s="34">
         <v>602</v>
       </c>
-      <c r="E145" s="38"/>
+      <c r="E145" s="37"/>
     </row>
     <row r="146" ht="23" customHeight="1">
-      <c r="A146" s="32">
+      <c r="A146" s="31">
         <v>605</v>
       </c>
-      <c r="B146" s="33">
-        <v>4</v>
-      </c>
-      <c r="C146" t="s" s="34">
-        <v>358</v>
-      </c>
-      <c r="D146" s="35">
+      <c r="B146" s="32">
+        <v>4</v>
+      </c>
+      <c r="C146" t="s" s="33">
+        <v>359</v>
+      </c>
+      <c r="D146" s="34">
         <v>602</v>
       </c>
-      <c r="E146" s="38"/>
+      <c r="E146" s="37"/>
     </row>
     <row r="147" ht="23" customHeight="1">
-      <c r="A147" s="32">
+      <c r="A147" s="31">
         <v>606</v>
       </c>
-      <c r="B147" s="33">
-        <v>4</v>
-      </c>
-      <c r="C147" t="s" s="34">
-        <v>359</v>
-      </c>
-      <c r="D147" s="35">
+      <c r="B147" s="32">
+        <v>4</v>
+      </c>
+      <c r="C147" t="s" s="33">
+        <v>360</v>
+      </c>
+      <c r="D147" s="34">
         <v>602</v>
       </c>
-      <c r="E147" s="38"/>
+      <c r="E147" s="37"/>
     </row>
     <row r="148" ht="23" customHeight="1">
-      <c r="A148" s="32">
+      <c r="A148" s="31">
         <v>607</v>
       </c>
-      <c r="B148" s="33">
-        <v>3</v>
-      </c>
-      <c r="C148" t="s" s="34">
-        <v>360</v>
-      </c>
-      <c r="D148" s="35">
+      <c r="B148" s="32">
+        <v>3</v>
+      </c>
+      <c r="C148" t="s" s="33">
+        <v>361</v>
+      </c>
+      <c r="D148" s="34">
         <v>600</v>
       </c>
-      <c r="E148" s="38"/>
+      <c r="E148" s="37"/>
     </row>
     <row r="149" ht="23" customHeight="1">
-      <c r="A149" s="32">
+      <c r="A149" s="31">
         <v>608</v>
       </c>
-      <c r="B149" s="33">
-        <v>4</v>
-      </c>
-      <c r="C149" t="s" s="34">
-        <v>361</v>
-      </c>
-      <c r="D149" s="35">
+      <c r="B149" s="32">
+        <v>4</v>
+      </c>
+      <c r="C149" t="s" s="33">
+        <v>362</v>
+      </c>
+      <c r="D149" s="34">
         <v>607</v>
       </c>
-      <c r="E149" s="38"/>
+      <c r="E149" s="37"/>
     </row>
     <row r="150" ht="23" customHeight="1">
-      <c r="A150" s="32">
+      <c r="A150" s="31">
         <v>609</v>
       </c>
-      <c r="B150" s="33">
-        <v>4</v>
-      </c>
-      <c r="C150" t="s" s="34">
-        <v>362</v>
-      </c>
-      <c r="D150" s="35">
+      <c r="B150" s="32">
+        <v>4</v>
+      </c>
+      <c r="C150" t="s" s="33">
+        <v>363</v>
+      </c>
+      <c r="D150" s="34">
         <v>607</v>
       </c>
-      <c r="E150" s="38"/>
+      <c r="E150" s="37"/>
     </row>
     <row r="151" ht="23" customHeight="1">
-      <c r="A151" s="32">
+      <c r="A151" s="31">
         <v>610</v>
       </c>
-      <c r="B151" s="33">
-        <v>4</v>
-      </c>
-      <c r="C151" t="s" s="34">
-        <v>363</v>
-      </c>
-      <c r="D151" s="35">
+      <c r="B151" s="32">
+        <v>4</v>
+      </c>
+      <c r="C151" t="s" s="33">
+        <v>364</v>
+      </c>
+      <c r="D151" s="34">
         <v>607</v>
       </c>
-      <c r="E151" s="38"/>
+      <c r="E151" s="37"/>
     </row>
     <row r="152" ht="23" customHeight="1">
-      <c r="A152" s="32">
+      <c r="A152" s="31">
         <v>611</v>
       </c>
-      <c r="B152" s="33">
-        <v>4</v>
-      </c>
-      <c r="C152" t="s" s="34">
-        <v>364</v>
-      </c>
-      <c r="D152" s="35">
+      <c r="B152" s="32">
+        <v>4</v>
+      </c>
+      <c r="C152" t="s" s="33">
+        <v>365</v>
+      </c>
+      <c r="D152" s="34">
         <v>607</v>
       </c>
-      <c r="E152" s="38"/>
+      <c r="E152" s="37"/>
     </row>
     <row r="153" ht="23" customHeight="1">
-      <c r="A153" s="32">
+      <c r="A153" s="31">
         <v>612</v>
       </c>
-      <c r="B153" s="33">
-        <v>3</v>
-      </c>
-      <c r="C153" t="s" s="34">
-        <v>365</v>
-      </c>
-      <c r="D153" s="35">
+      <c r="B153" s="32">
+        <v>3</v>
+      </c>
+      <c r="C153" t="s" s="33">
+        <v>366</v>
+      </c>
+      <c r="D153" s="34">
         <v>600</v>
       </c>
-      <c r="E153" s="38"/>
+      <c r="E153" s="37"/>
     </row>
     <row r="154" ht="23" customHeight="1">
-      <c r="A154" s="32">
+      <c r="A154" s="31">
         <v>613</v>
       </c>
-      <c r="B154" s="33">
-        <v>4</v>
-      </c>
-      <c r="C154" t="s" s="34">
-        <v>366</v>
-      </c>
-      <c r="D154" s="35">
+      <c r="B154" s="32">
+        <v>4</v>
+      </c>
+      <c r="C154" t="s" s="33">
+        <v>367</v>
+      </c>
+      <c r="D154" s="34">
         <v>612</v>
       </c>
-      <c r="E154" s="38"/>
+      <c r="E154" s="37"/>
     </row>
     <row r="155" ht="23" customHeight="1">
-      <c r="A155" s="32">
+      <c r="A155" s="31">
         <v>614</v>
       </c>
-      <c r="B155" s="33">
-        <v>4</v>
-      </c>
-      <c r="C155" t="s" s="34">
-        <v>367</v>
-      </c>
-      <c r="D155" s="35">
+      <c r="B155" s="32">
+        <v>4</v>
+      </c>
+      <c r="C155" t="s" s="33">
+        <v>368</v>
+      </c>
+      <c r="D155" s="34">
         <v>612</v>
       </c>
-      <c r="E155" s="38"/>
+      <c r="E155" s="37"/>
     </row>
     <row r="156" ht="23" customHeight="1">
-      <c r="A156" s="32">
+      <c r="A156" s="31">
         <v>615</v>
       </c>
-      <c r="B156" s="33">
-        <v>4</v>
-      </c>
-      <c r="C156" t="s" s="34">
-        <v>368</v>
-      </c>
-      <c r="D156" s="35">
+      <c r="B156" s="32">
+        <v>4</v>
+      </c>
+      <c r="C156" t="s" s="33">
+        <v>369</v>
+      </c>
+      <c r="D156" s="34">
         <v>612</v>
       </c>
-      <c r="E156" s="38"/>
+      <c r="E156" s="37"/>
     </row>
     <row r="157" ht="23" customHeight="1">
-      <c r="A157" s="32">
+      <c r="A157" s="31">
         <v>616</v>
       </c>
-      <c r="B157" s="33">
-        <v>3</v>
-      </c>
-      <c r="C157" t="s" s="34">
-        <v>369</v>
-      </c>
-      <c r="D157" s="35">
+      <c r="B157" s="32">
+        <v>3</v>
+      </c>
+      <c r="C157" t="s" s="33">
+        <v>370</v>
+      </c>
+      <c r="D157" s="34">
         <v>600</v>
       </c>
-      <c r="E157" s="38"/>
+      <c r="E157" s="37"/>
     </row>
     <row r="158" ht="23" customHeight="1">
-      <c r="A158" s="32">
+      <c r="A158" s="31">
         <v>617</v>
       </c>
-      <c r="B158" s="33">
-        <v>4</v>
-      </c>
-      <c r="C158" t="s" s="34">
-        <v>370</v>
-      </c>
-      <c r="D158" s="35">
+      <c r="B158" s="32">
+        <v>4</v>
+      </c>
+      <c r="C158" t="s" s="33">
+        <v>371</v>
+      </c>
+      <c r="D158" s="34">
         <v>616</v>
       </c>
-      <c r="E158" s="38"/>
+      <c r="E158" s="37"/>
     </row>
     <row r="159" ht="23" customHeight="1">
-      <c r="A159" s="32">
+      <c r="A159" s="31">
         <v>618</v>
       </c>
-      <c r="B159" s="33">
-        <v>4</v>
-      </c>
-      <c r="C159" t="s" s="34">
-        <v>371</v>
-      </c>
-      <c r="D159" s="35">
+      <c r="B159" s="32">
+        <v>4</v>
+      </c>
+      <c r="C159" t="s" s="33">
+        <v>372</v>
+      </c>
+      <c r="D159" s="34">
         <v>616</v>
       </c>
-      <c r="E159" s="38"/>
+      <c r="E159" s="37"/>
     </row>
     <row r="160" ht="23" customHeight="1">
-      <c r="A160" s="32">
+      <c r="A160" s="31">
         <v>619</v>
       </c>
-      <c r="B160" s="33">
-        <v>4</v>
-      </c>
-      <c r="C160" t="s" s="34">
-        <v>372</v>
-      </c>
-      <c r="D160" s="35">
+      <c r="B160" s="32">
+        <v>4</v>
+      </c>
+      <c r="C160" t="s" s="33">
+        <v>373</v>
+      </c>
+      <c r="D160" s="34">
         <v>616</v>
       </c>
-      <c r="E160" s="38"/>
+      <c r="E160" s="37"/>
     </row>
     <row r="161" ht="23" customHeight="1">
-      <c r="A161" s="32">
+      <c r="A161" s="31">
         <v>620</v>
       </c>
-      <c r="B161" s="33">
-        <v>4</v>
-      </c>
-      <c r="C161" t="s" s="34">
-        <v>373</v>
-      </c>
-      <c r="D161" s="35">
+      <c r="B161" s="32">
+        <v>4</v>
+      </c>
+      <c r="C161" t="s" s="33">
+        <v>374</v>
+      </c>
+      <c r="D161" s="34">
         <v>616</v>
       </c>
-      <c r="E161" s="38"/>
+      <c r="E161" s="37"/>
     </row>
     <row r="162" ht="23" customHeight="1">
-      <c r="A162" s="32">
+      <c r="A162" s="31">
         <v>621</v>
       </c>
-      <c r="B162" s="33">
-        <v>4</v>
-      </c>
-      <c r="C162" t="s" s="34">
-        <v>374</v>
-      </c>
-      <c r="D162" s="35">
+      <c r="B162" s="32">
+        <v>4</v>
+      </c>
+      <c r="C162" t="s" s="33">
+        <v>375</v>
+      </c>
+      <c r="D162" s="34">
         <v>616</v>
       </c>
-      <c r="E162" s="38"/>
+      <c r="E162" s="37"/>
     </row>
     <row r="163" ht="23" customHeight="1">
-      <c r="A163" s="32">
+      <c r="A163" s="31">
         <v>622</v>
       </c>
-      <c r="B163" s="33">
-        <v>3</v>
-      </c>
-      <c r="C163" t="s" s="34">
-        <v>375</v>
-      </c>
-      <c r="D163" s="35">
+      <c r="B163" s="32">
+        <v>3</v>
+      </c>
+      <c r="C163" t="s" s="33">
+        <v>376</v>
+      </c>
+      <c r="D163" s="34">
         <v>600</v>
       </c>
-      <c r="E163" s="38"/>
+      <c r="E163" s="37"/>
     </row>
     <row r="164" ht="23" customHeight="1">
-      <c r="A164" s="36"/>
-      <c r="B164" s="37"/>
-      <c r="C164" s="38"/>
-      <c r="D164" s="38"/>
-      <c r="E164" s="38"/>
+      <c r="A164" s="35"/>
+      <c r="B164" s="36"/>
+      <c r="C164" s="37"/>
+      <c r="D164" s="37"/>
+      <c r="E164" s="37"/>
     </row>
     <row r="165" ht="23" customHeight="1">
-      <c r="A165" s="32">
+      <c r="A165" s="31">
         <v>700</v>
       </c>
-      <c r="B165" s="33">
+      <c r="B165" s="32">
         <v>2</v>
       </c>
-      <c r="C165" t="s" s="34">
-        <v>376</v>
-      </c>
-      <c r="D165" s="35">
+      <c r="C165" t="s" s="33">
+        <v>377</v>
+      </c>
+      <c r="D165" s="34">
         <v>1</v>
       </c>
-      <c r="E165" t="s" s="34">
-        <v>377</v>
+      <c r="E165" t="s" s="33">
+        <v>378</v>
       </c>
     </row>
     <row r="166" ht="23" customHeight="1">
-      <c r="A166" s="32">
+      <c r="A166" s="31">
         <v>701</v>
       </c>
-      <c r="B166" s="33">
-        <v>3</v>
-      </c>
-      <c r="C166" t="s" s="34">
-        <v>378</v>
-      </c>
-      <c r="D166" s="35">
+      <c r="B166" s="32">
+        <v>3</v>
+      </c>
+      <c r="C166" t="s" s="33">
+        <v>379</v>
+      </c>
+      <c r="D166" s="34">
         <v>700</v>
       </c>
-      <c r="E166" s="38"/>
+      <c r="E166" s="37"/>
     </row>
     <row r="167" ht="23" customHeight="1">
-      <c r="A167" s="32">
+      <c r="A167" s="31">
         <v>702</v>
       </c>
-      <c r="B167" s="33">
-        <v>3</v>
-      </c>
-      <c r="C167" t="s" s="34">
-        <v>379</v>
-      </c>
-      <c r="D167" s="35">
+      <c r="B167" s="32">
+        <v>3</v>
+      </c>
+      <c r="C167" t="s" s="33">
+        <v>380</v>
+      </c>
+      <c r="D167" s="34">
         <v>700</v>
       </c>
-      <c r="E167" s="38"/>
+      <c r="E167" s="37"/>
     </row>
     <row r="168" ht="23" customHeight="1">
-      <c r="A168" s="32">
+      <c r="A168" s="31">
         <v>703</v>
       </c>
-      <c r="B168" s="33">
-        <v>4</v>
-      </c>
-      <c r="C168" t="s" s="34">
-        <v>380</v>
-      </c>
-      <c r="D168" s="35">
+      <c r="B168" s="32">
+        <v>4</v>
+      </c>
+      <c r="C168" t="s" s="33">
+        <v>381</v>
+      </c>
+      <c r="D168" s="34">
         <v>702</v>
       </c>
-      <c r="E168" s="38"/>
+      <c r="E168" s="37"/>
     </row>
     <row r="169" ht="23" customHeight="1">
-      <c r="A169" s="32">
+      <c r="A169" s="31">
         <v>704</v>
       </c>
-      <c r="B169" s="33">
-        <v>4</v>
-      </c>
-      <c r="C169" t="s" s="34">
-        <v>381</v>
-      </c>
-      <c r="D169" s="35">
+      <c r="B169" s="32">
+        <v>4</v>
+      </c>
+      <c r="C169" t="s" s="33">
+        <v>382</v>
+      </c>
+      <c r="D169" s="34">
         <v>702</v>
       </c>
-      <c r="E169" s="38"/>
+      <c r="E169" s="37"/>
     </row>
     <row r="170" ht="23" customHeight="1">
-      <c r="A170" s="32">
+      <c r="A170" s="31">
         <v>705</v>
       </c>
-      <c r="B170" s="33">
-        <v>4</v>
-      </c>
-      <c r="C170" t="s" s="34">
-        <v>382</v>
-      </c>
-      <c r="D170" s="35">
+      <c r="B170" s="32">
+        <v>4</v>
+      </c>
+      <c r="C170" t="s" s="33">
+        <v>383</v>
+      </c>
+      <c r="D170" s="34">
         <v>702</v>
       </c>
-      <c r="E170" s="38"/>
+      <c r="E170" s="37"/>
     </row>
     <row r="171" ht="23" customHeight="1">
-      <c r="A171" s="32">
+      <c r="A171" s="31">
         <v>706</v>
       </c>
-      <c r="B171" s="33">
-        <v>3</v>
-      </c>
-      <c r="C171" t="s" s="34">
-        <v>383</v>
-      </c>
-      <c r="D171" s="35">
+      <c r="B171" s="32">
+        <v>3</v>
+      </c>
+      <c r="C171" t="s" s="33">
+        <v>384</v>
+      </c>
+      <c r="D171" s="34">
         <v>700</v>
       </c>
-      <c r="E171" s="38"/>
+      <c r="E171" s="37"/>
     </row>
     <row r="172" ht="23" customHeight="1">
-      <c r="A172" s="32">
+      <c r="A172" s="31">
         <v>707</v>
       </c>
-      <c r="B172" s="33">
-        <v>4</v>
-      </c>
-      <c r="C172" t="s" s="34">
-        <v>384</v>
-      </c>
-      <c r="D172" s="35">
+      <c r="B172" s="32">
+        <v>4</v>
+      </c>
+      <c r="C172" t="s" s="33">
+        <v>385</v>
+      </c>
+      <c r="D172" s="34">
         <v>706</v>
       </c>
-      <c r="E172" s="38"/>
+      <c r="E172" s="37"/>
     </row>
     <row r="173" ht="23" customHeight="1">
-      <c r="A173" s="32">
+      <c r="A173" s="31">
         <v>708</v>
       </c>
-      <c r="B173" s="33">
-        <v>4</v>
-      </c>
-      <c r="C173" t="s" s="34">
-        <v>385</v>
-      </c>
-      <c r="D173" s="35">
+      <c r="B173" s="32">
+        <v>4</v>
+      </c>
+      <c r="C173" t="s" s="33">
+        <v>386</v>
+      </c>
+      <c r="D173" s="34">
         <v>706</v>
       </c>
-      <c r="E173" s="38"/>
+      <c r="E173" s="37"/>
     </row>
     <row r="174" ht="23" customHeight="1">
-      <c r="A174" s="32">
+      <c r="A174" s="31">
         <v>709</v>
       </c>
-      <c r="B174" s="33">
-        <v>4</v>
-      </c>
-      <c r="C174" t="s" s="34">
-        <v>386</v>
-      </c>
-      <c r="D174" s="35">
+      <c r="B174" s="32">
+        <v>4</v>
+      </c>
+      <c r="C174" t="s" s="33">
+        <v>387</v>
+      </c>
+      <c r="D174" s="34">
         <v>706</v>
       </c>
-      <c r="E174" s="38"/>
+      <c r="E174" s="37"/>
     </row>
     <row r="175" ht="23" customHeight="1">
-      <c r="A175" s="32">
+      <c r="A175" s="31">
         <v>710</v>
       </c>
-      <c r="B175" s="33">
-        <v>3</v>
-      </c>
-      <c r="C175" t="s" s="34">
-        <v>387</v>
-      </c>
-      <c r="D175" s="35">
+      <c r="B175" s="32">
+        <v>3</v>
+      </c>
+      <c r="C175" t="s" s="33">
+        <v>388</v>
+      </c>
+      <c r="D175" s="34">
         <v>700</v>
       </c>
-      <c r="E175" s="38"/>
+      <c r="E175" s="37"/>
     </row>
     <row r="176" ht="23" customHeight="1">
-      <c r="A176" s="32">
+      <c r="A176" s="31">
         <v>711</v>
       </c>
-      <c r="B176" s="33">
-        <v>4</v>
-      </c>
-      <c r="C176" t="s" s="34">
-        <v>388</v>
-      </c>
-      <c r="D176" s="35">
+      <c r="B176" s="32">
+        <v>4</v>
+      </c>
+      <c r="C176" t="s" s="33">
+        <v>389</v>
+      </c>
+      <c r="D176" s="34">
         <v>710</v>
       </c>
-      <c r="E176" s="38"/>
+      <c r="E176" s="37"/>
     </row>
     <row r="177" ht="23" customHeight="1">
-      <c r="A177" s="32">
+      <c r="A177" s="31">
         <v>712</v>
       </c>
-      <c r="B177" s="33">
-        <v>4</v>
-      </c>
-      <c r="C177" t="s" s="34">
-        <v>389</v>
-      </c>
-      <c r="D177" s="35">
+      <c r="B177" s="32">
+        <v>4</v>
+      </c>
+      <c r="C177" t="s" s="33">
+        <v>390</v>
+      </c>
+      <c r="D177" s="34">
         <v>710</v>
       </c>
-      <c r="E177" s="38"/>
+      <c r="E177" s="37"/>
     </row>
     <row r="178" ht="23" customHeight="1">
-      <c r="A178" s="32">
+      <c r="A178" s="31">
         <v>713</v>
       </c>
-      <c r="B178" s="33">
-        <v>4</v>
-      </c>
-      <c r="C178" t="s" s="34">
-        <v>390</v>
-      </c>
-      <c r="D178" s="35">
+      <c r="B178" s="32">
+        <v>4</v>
+      </c>
+      <c r="C178" t="s" s="33">
+        <v>391</v>
+      </c>
+      <c r="D178" s="34">
         <v>710</v>
       </c>
-      <c r="E178" s="38"/>
+      <c r="E178" s="37"/>
     </row>
     <row r="179" ht="23" customHeight="1">
-      <c r="A179" s="32">
+      <c r="A179" s="31">
         <v>714</v>
       </c>
-      <c r="B179" s="33">
-        <v>3</v>
-      </c>
-      <c r="C179" t="s" s="34">
-        <v>391</v>
-      </c>
-      <c r="D179" s="35">
+      <c r="B179" s="32">
+        <v>3</v>
+      </c>
+      <c r="C179" t="s" s="33">
+        <v>392</v>
+      </c>
+      <c r="D179" s="34">
         <v>700</v>
       </c>
-      <c r="E179" s="38"/>
+      <c r="E179" s="37"/>
     </row>
     <row r="180" ht="23" customHeight="1">
-      <c r="A180" s="32">
+      <c r="A180" s="31">
         <v>715</v>
       </c>
-      <c r="B180" s="33">
-        <v>4</v>
-      </c>
-      <c r="C180" t="s" s="34">
-        <v>392</v>
-      </c>
-      <c r="D180" s="35">
+      <c r="B180" s="32">
+        <v>4</v>
+      </c>
+      <c r="C180" t="s" s="33">
+        <v>393</v>
+      </c>
+      <c r="D180" s="34">
         <v>714</v>
       </c>
-      <c r="E180" s="38"/>
+      <c r="E180" s="37"/>
     </row>
     <row r="181" ht="23" customHeight="1">
-      <c r="A181" s="32">
+      <c r="A181" s="31">
         <v>716</v>
       </c>
-      <c r="B181" s="33">
-        <v>4</v>
-      </c>
-      <c r="C181" t="s" s="34">
-        <v>393</v>
-      </c>
-      <c r="D181" s="35">
+      <c r="B181" s="32">
+        <v>4</v>
+      </c>
+      <c r="C181" t="s" s="33">
+        <v>394</v>
+      </c>
+      <c r="D181" s="34">
         <v>714</v>
       </c>
-      <c r="E181" s="38"/>
+      <c r="E181" s="37"/>
     </row>
     <row r="182" ht="23" customHeight="1">
-      <c r="A182" s="32">
+      <c r="A182" s="31">
         <v>717</v>
       </c>
-      <c r="B182" s="33">
-        <v>4</v>
-      </c>
-      <c r="C182" t="s" s="34">
-        <v>394</v>
-      </c>
-      <c r="D182" s="35">
+      <c r="B182" s="32">
+        <v>4</v>
+      </c>
+      <c r="C182" t="s" s="33">
+        <v>395</v>
+      </c>
+      <c r="D182" s="34">
         <v>714</v>
       </c>
-      <c r="E182" s="38"/>
+      <c r="E182" s="37"/>
     </row>
     <row r="183" ht="23" customHeight="1">
-      <c r="A183" s="32">
+      <c r="A183" s="31">
         <v>718</v>
       </c>
-      <c r="B183" s="33">
-        <v>3</v>
-      </c>
-      <c r="C183" t="s" s="34">
-        <v>395</v>
-      </c>
-      <c r="D183" s="35">
+      <c r="B183" s="32">
+        <v>3</v>
+      </c>
+      <c r="C183" t="s" s="33">
+        <v>396</v>
+      </c>
+      <c r="D183" s="34">
         <v>700</v>
       </c>
-      <c r="E183" s="38"/>
+      <c r="E183" s="37"/>
     </row>
     <row r="184" ht="23" customHeight="1">
-      <c r="A184" s="32">
+      <c r="A184" s="31">
         <v>719</v>
       </c>
-      <c r="B184" s="33">
-        <v>4</v>
-      </c>
-      <c r="C184" t="s" s="34">
-        <v>396</v>
-      </c>
-      <c r="D184" s="35">
+      <c r="B184" s="32">
+        <v>4</v>
+      </c>
+      <c r="C184" t="s" s="33">
+        <v>397</v>
+      </c>
+      <c r="D184" s="34">
         <v>718</v>
       </c>
-      <c r="E184" s="38"/>
+      <c r="E184" s="37"/>
     </row>
     <row r="185" ht="23" customHeight="1">
-      <c r="A185" s="32">
+      <c r="A185" s="31">
         <v>720</v>
       </c>
-      <c r="B185" s="33">
-        <v>4</v>
-      </c>
-      <c r="C185" t="s" s="34">
-        <v>397</v>
-      </c>
-      <c r="D185" s="35">
+      <c r="B185" s="32">
+        <v>4</v>
+      </c>
+      <c r="C185" t="s" s="33">
+        <v>398</v>
+      </c>
+      <c r="D185" s="34">
         <v>718</v>
       </c>
-      <c r="E185" s="38"/>
+      <c r="E185" s="37"/>
     </row>
     <row r="186" ht="23" customHeight="1">
-      <c r="A186" s="32">
+      <c r="A186" s="31">
         <v>721</v>
       </c>
-      <c r="B186" s="33">
-        <v>4</v>
-      </c>
-      <c r="C186" t="s" s="34">
-        <v>398</v>
-      </c>
-      <c r="D186" s="35">
+      <c r="B186" s="32">
+        <v>4</v>
+      </c>
+      <c r="C186" t="s" s="33">
+        <v>399</v>
+      </c>
+      <c r="D186" s="34">
         <v>718</v>
       </c>
-      <c r="E186" s="38"/>
+      <c r="E186" s="37"/>
     </row>
     <row r="187" ht="23" customHeight="1">
-      <c r="A187" s="32">
+      <c r="A187" s="31">
         <v>722</v>
       </c>
-      <c r="B187" s="33">
-        <v>4</v>
-      </c>
-      <c r="C187" t="s" s="34">
-        <v>399</v>
-      </c>
-      <c r="D187" s="35">
+      <c r="B187" s="32">
+        <v>4</v>
+      </c>
+      <c r="C187" t="s" s="33">
+        <v>400</v>
+      </c>
+      <c r="D187" s="34">
         <v>718</v>
       </c>
-      <c r="E187" s="38"/>
+      <c r="E187" s="37"/>
     </row>
     <row r="188" ht="23" customHeight="1">
-      <c r="A188" s="32">
+      <c r="A188" s="31">
         <v>723</v>
       </c>
-      <c r="B188" s="33">
-        <v>3</v>
-      </c>
-      <c r="C188" t="s" s="34">
-        <v>400</v>
-      </c>
-      <c r="D188" s="35">
+      <c r="B188" s="32">
+        <v>3</v>
+      </c>
+      <c r="C188" t="s" s="33">
+        <v>401</v>
+      </c>
+      <c r="D188" s="34">
         <v>700</v>
       </c>
-      <c r="E188" s="38"/>
+      <c r="E188" s="37"/>
     </row>
     <row r="189" ht="23" customHeight="1">
-      <c r="A189" s="32">
+      <c r="A189" s="31">
         <v>724</v>
       </c>
-      <c r="B189" s="33">
-        <v>3</v>
-      </c>
-      <c r="C189" t="s" s="34">
-        <v>401</v>
-      </c>
-      <c r="D189" s="35">
+      <c r="B189" s="32">
+        <v>3</v>
+      </c>
+      <c r="C189" t="s" s="33">
+        <v>402</v>
+      </c>
+      <c r="D189" s="34">
         <v>700</v>
       </c>
-      <c r="E189" s="38"/>
+      <c r="E189" s="37"/>
     </row>
     <row r="190" ht="23" customHeight="1">
-      <c r="A190" s="36"/>
-      <c r="B190" s="37"/>
-      <c r="C190" s="38"/>
-      <c r="D190" s="38"/>
-      <c r="E190" s="38"/>
+      <c r="A190" s="35"/>
+      <c r="B190" s="36"/>
+      <c r="C190" s="37"/>
+      <c r="D190" s="37"/>
+      <c r="E190" s="37"/>
     </row>
     <row r="191" ht="23" customHeight="1">
-      <c r="A191" s="32">
+      <c r="A191" s="31">
         <v>800</v>
       </c>
-      <c r="B191" s="33">
+      <c r="B191" s="32">
         <v>2</v>
       </c>
-      <c r="C191" t="s" s="34">
-        <v>402</v>
-      </c>
-      <c r="D191" s="35">
+      <c r="C191" t="s" s="33">
+        <v>403</v>
+      </c>
+      <c r="D191" s="34">
         <v>1</v>
       </c>
-      <c r="E191" t="s" s="34">
-        <v>403</v>
+      <c r="E191" t="s" s="33">
+        <v>404</v>
       </c>
     </row>
     <row r="192" ht="23" customHeight="1">
-      <c r="A192" s="32">
+      <c r="A192" s="31">
         <v>801</v>
       </c>
-      <c r="B192" s="33">
-        <v>3</v>
-      </c>
-      <c r="C192" t="s" s="34">
-        <v>404</v>
-      </c>
-      <c r="D192" s="35">
+      <c r="B192" s="32">
+        <v>3</v>
+      </c>
+      <c r="C192" t="s" s="33">
+        <v>405</v>
+      </c>
+      <c r="D192" s="34">
         <v>800</v>
       </c>
-      <c r="E192" s="38"/>
+      <c r="E192" s="37"/>
     </row>
     <row r="193" ht="23" customHeight="1">
-      <c r="A193" s="32">
+      <c r="A193" s="31">
         <v>802</v>
       </c>
-      <c r="B193" s="33">
-        <v>3</v>
-      </c>
-      <c r="C193" t="s" s="34">
-        <v>405</v>
-      </c>
-      <c r="D193" s="35">
+      <c r="B193" s="32">
+        <v>3</v>
+      </c>
+      <c r="C193" t="s" s="33">
+        <v>406</v>
+      </c>
+      <c r="D193" s="34">
         <v>800</v>
       </c>
-      <c r="E193" s="38"/>
+      <c r="E193" s="37"/>
     </row>
     <row r="194" ht="23" customHeight="1">
-      <c r="A194" s="32">
+      <c r="A194" s="31">
         <v>803</v>
       </c>
-      <c r="B194" s="33">
-        <v>4</v>
-      </c>
-      <c r="C194" t="s" s="34">
-        <v>406</v>
-      </c>
-      <c r="D194" s="35">
+      <c r="B194" s="32">
+        <v>4</v>
+      </c>
+      <c r="C194" t="s" s="33">
+        <v>407</v>
+      </c>
+      <c r="D194" s="34">
         <v>802</v>
       </c>
-      <c r="E194" s="38"/>
+      <c r="E194" s="37"/>
     </row>
     <row r="195" ht="23" customHeight="1">
-      <c r="A195" s="32">
+      <c r="A195" s="31">
         <v>804</v>
       </c>
-      <c r="B195" s="33">
-        <v>4</v>
-      </c>
-      <c r="C195" t="s" s="34">
-        <v>407</v>
-      </c>
-      <c r="D195" s="35">
+      <c r="B195" s="32">
+        <v>4</v>
+      </c>
+      <c r="C195" t="s" s="33">
+        <v>408</v>
+      </c>
+      <c r="D195" s="34">
         <v>802</v>
       </c>
-      <c r="E195" s="38"/>
+      <c r="E195" s="37"/>
     </row>
     <row r="196" ht="23" customHeight="1">
-      <c r="A196" s="32">
+      <c r="A196" s="31">
         <v>805</v>
       </c>
-      <c r="B196" s="33">
-        <v>3</v>
-      </c>
-      <c r="C196" t="s" s="34">
-        <v>408</v>
-      </c>
-      <c r="D196" s="35">
+      <c r="B196" s="32">
+        <v>3</v>
+      </c>
+      <c r="C196" t="s" s="33">
+        <v>409</v>
+      </c>
+      <c r="D196" s="34">
         <v>800</v>
       </c>
-      <c r="E196" s="38"/>
+      <c r="E196" s="37"/>
     </row>
     <row r="197" ht="23" customHeight="1">
-      <c r="A197" s="32">
+      <c r="A197" s="31">
         <v>806</v>
       </c>
-      <c r="B197" s="33">
-        <v>4</v>
-      </c>
-      <c r="C197" t="s" s="34">
-        <v>409</v>
-      </c>
-      <c r="D197" s="35">
+      <c r="B197" s="32">
+        <v>4</v>
+      </c>
+      <c r="C197" t="s" s="33">
+        <v>410</v>
+      </c>
+      <c r="D197" s="34">
         <v>805</v>
       </c>
-      <c r="E197" s="38"/>
+      <c r="E197" s="37"/>
     </row>
     <row r="198" ht="23" customHeight="1">
-      <c r="A198" s="32">
+      <c r="A198" s="31">
         <v>807</v>
       </c>
-      <c r="B198" s="33">
-        <v>4</v>
-      </c>
-      <c r="C198" t="s" s="34">
-        <v>410</v>
-      </c>
-      <c r="D198" s="35">
+      <c r="B198" s="32">
+        <v>4</v>
+      </c>
+      <c r="C198" t="s" s="33">
+        <v>411</v>
+      </c>
+      <c r="D198" s="34">
         <v>805</v>
       </c>
-      <c r="E198" s="38"/>
+      <c r="E198" s="37"/>
     </row>
     <row r="199" ht="23" customHeight="1">
-      <c r="A199" s="32">
+      <c r="A199" s="31">
         <v>808</v>
       </c>
-      <c r="B199" s="33">
-        <v>3</v>
-      </c>
-      <c r="C199" t="s" s="34">
-        <v>411</v>
-      </c>
-      <c r="D199" s="35">
+      <c r="B199" s="32">
+        <v>3</v>
+      </c>
+      <c r="C199" t="s" s="33">
+        <v>412</v>
+      </c>
+      <c r="D199" s="34">
         <v>800</v>
       </c>
-      <c r="E199" s="38"/>
+      <c r="E199" s="37"/>
     </row>
     <row r="200" ht="23" customHeight="1">
-      <c r="A200" s="32">
+      <c r="A200" s="31">
         <v>809</v>
       </c>
-      <c r="B200" s="33">
-        <v>4</v>
-      </c>
-      <c r="C200" t="s" s="34">
-        <v>412</v>
-      </c>
-      <c r="D200" s="35">
+      <c r="B200" s="32">
+        <v>4</v>
+      </c>
+      <c r="C200" t="s" s="33">
+        <v>413</v>
+      </c>
+      <c r="D200" s="34">
         <v>808</v>
       </c>
-      <c r="E200" s="38"/>
+      <c r="E200" s="37"/>
     </row>
     <row r="201" ht="23" customHeight="1">
-      <c r="A201" s="32">
+      <c r="A201" s="31">
         <v>810</v>
       </c>
-      <c r="B201" s="33">
-        <v>4</v>
-      </c>
-      <c r="C201" t="s" s="34">
-        <v>413</v>
-      </c>
-      <c r="D201" s="35">
+      <c r="B201" s="32">
+        <v>4</v>
+      </c>
+      <c r="C201" t="s" s="33">
+        <v>414</v>
+      </c>
+      <c r="D201" s="34">
         <v>808</v>
       </c>
-      <c r="E201" s="38"/>
+      <c r="E201" s="37"/>
     </row>
     <row r="202" ht="23" customHeight="1">
-      <c r="A202" s="32">
+      <c r="A202" s="31">
         <v>811</v>
       </c>
-      <c r="B202" s="33">
-        <v>3</v>
-      </c>
-      <c r="C202" t="s" s="34">
-        <v>414</v>
-      </c>
-      <c r="D202" s="35">
+      <c r="B202" s="32">
+        <v>3</v>
+      </c>
+      <c r="C202" t="s" s="33">
+        <v>415</v>
+      </c>
+      <c r="D202" s="34">
         <v>800</v>
       </c>
-      <c r="E202" s="38"/>
+      <c r="E202" s="37"/>
     </row>
     <row r="203" ht="23" customHeight="1">
-      <c r="A203" s="36"/>
-      <c r="B203" s="37"/>
-      <c r="C203" s="38"/>
-      <c r="D203" s="38"/>
-      <c r="E203" s="38"/>
+      <c r="A203" s="35"/>
+      <c r="B203" s="36"/>
+      <c r="C203" s="37"/>
+      <c r="D203" s="37"/>
+      <c r="E203" s="37"/>
     </row>
     <row r="204" ht="23" customHeight="1">
-      <c r="A204" s="32">
+      <c r="A204" s="31">
         <v>900</v>
       </c>
-      <c r="B204" s="33">
+      <c r="B204" s="32">
         <v>2</v>
       </c>
-      <c r="C204" t="s" s="34">
-        <v>415</v>
-      </c>
-      <c r="D204" s="35">
+      <c r="C204" t="s" s="33">
+        <v>416</v>
+      </c>
+      <c r="D204" s="34">
         <v>1</v>
       </c>
-      <c r="E204" t="s" s="34">
-        <v>416</v>
+      <c r="E204" t="s" s="33">
+        <v>417</v>
       </c>
     </row>
     <row r="205" ht="23" customHeight="1">
-      <c r="A205" s="32">
+      <c r="A205" s="31">
         <v>901</v>
       </c>
-      <c r="B205" s="33">
-        <v>3</v>
-      </c>
-      <c r="C205" t="s" s="34">
-        <v>417</v>
-      </c>
-      <c r="D205" s="35">
+      <c r="B205" s="32">
+        <v>3</v>
+      </c>
+      <c r="C205" t="s" s="33">
+        <v>418</v>
+      </c>
+      <c r="D205" s="34">
         <v>900</v>
       </c>
-      <c r="E205" s="38"/>
+      <c r="E205" s="37"/>
     </row>
     <row r="206" ht="23" customHeight="1">
-      <c r="A206" s="32">
+      <c r="A206" s="31">
         <v>902</v>
       </c>
-      <c r="B206" s="33">
-        <v>4</v>
-      </c>
-      <c r="C206" t="s" s="34">
-        <v>418</v>
-      </c>
-      <c r="D206" s="35">
+      <c r="B206" s="32">
+        <v>4</v>
+      </c>
+      <c r="C206" t="s" s="33">
+        <v>419</v>
+      </c>
+      <c r="D206" s="34">
         <v>901</v>
       </c>
-      <c r="E206" s="38"/>
+      <c r="E206" s="37"/>
     </row>
     <row r="207" ht="23" customHeight="1">
-      <c r="A207" s="32">
+      <c r="A207" s="31">
         <v>903</v>
       </c>
-      <c r="B207" s="33">
-        <v>4</v>
-      </c>
-      <c r="C207" t="s" s="34">
-        <v>419</v>
-      </c>
-      <c r="D207" s="35">
+      <c r="B207" s="32">
+        <v>4</v>
+      </c>
+      <c r="C207" t="s" s="33">
+        <v>420</v>
+      </c>
+      <c r="D207" s="34">
         <v>901</v>
       </c>
-      <c r="E207" s="38"/>
+      <c r="E207" s="37"/>
     </row>
     <row r="208" ht="23" customHeight="1">
-      <c r="A208" s="32">
+      <c r="A208" s="31">
         <v>904</v>
       </c>
-      <c r="B208" s="33">
-        <v>4</v>
-      </c>
-      <c r="C208" t="s" s="34">
-        <v>420</v>
-      </c>
-      <c r="D208" s="35">
+      <c r="B208" s="32">
+        <v>4</v>
+      </c>
+      <c r="C208" t="s" s="33">
+        <v>421</v>
+      </c>
+      <c r="D208" s="34">
         <v>901</v>
       </c>
-      <c r="E208" s="38"/>
+      <c r="E208" s="37"/>
     </row>
     <row r="209" ht="23" customHeight="1">
-      <c r="A209" s="32">
+      <c r="A209" s="31">
         <v>905</v>
       </c>
-      <c r="B209" s="33">
-        <v>4</v>
-      </c>
-      <c r="C209" t="s" s="34">
-        <v>421</v>
-      </c>
-      <c r="D209" s="35">
+      <c r="B209" s="32">
+        <v>4</v>
+      </c>
+      <c r="C209" t="s" s="33">
+        <v>422</v>
+      </c>
+      <c r="D209" s="34">
         <v>901</v>
       </c>
-      <c r="E209" s="38"/>
+      <c r="E209" s="37"/>
     </row>
     <row r="210" ht="23" customHeight="1">
-      <c r="A210" s="32">
+      <c r="A210" s="31">
         <v>906</v>
       </c>
-      <c r="B210" s="33">
-        <v>4</v>
-      </c>
-      <c r="C210" t="s" s="34">
-        <v>422</v>
-      </c>
-      <c r="D210" s="35">
+      <c r="B210" s="32">
+        <v>4</v>
+      </c>
+      <c r="C210" t="s" s="33">
+        <v>423</v>
+      </c>
+      <c r="D210" s="34">
         <v>901</v>
       </c>
-      <c r="E210" s="38"/>
+      <c r="E210" s="37"/>
     </row>
     <row r="211" ht="23" customHeight="1">
-      <c r="A211" s="32">
+      <c r="A211" s="31">
         <v>907</v>
       </c>
-      <c r="B211" s="33">
-        <v>4</v>
-      </c>
-      <c r="C211" t="s" s="34">
-        <v>423</v>
-      </c>
-      <c r="D211" s="35">
+      <c r="B211" s="32">
+        <v>4</v>
+      </c>
+      <c r="C211" t="s" s="33">
+        <v>424</v>
+      </c>
+      <c r="D211" s="34">
         <v>901</v>
       </c>
-      <c r="E211" s="38"/>
+      <c r="E211" s="37"/>
     </row>
     <row r="212" ht="23" customHeight="1">
-      <c r="A212" s="32">
+      <c r="A212" s="31">
         <v>908</v>
       </c>
-      <c r="B212" s="33">
-        <v>3</v>
-      </c>
-      <c r="C212" t="s" s="34">
-        <v>424</v>
-      </c>
-      <c r="D212" s="35">
+      <c r="B212" s="32">
+        <v>3</v>
+      </c>
+      <c r="C212" t="s" s="33">
+        <v>425</v>
+      </c>
+      <c r="D212" s="34">
         <v>900</v>
       </c>
-      <c r="E212" s="38"/>
+      <c r="E212" s="37"/>
     </row>
     <row r="213" ht="23" customHeight="1">
-      <c r="A213" s="32">
+      <c r="A213" s="31">
         <v>909</v>
       </c>
-      <c r="B213" s="33">
-        <v>4</v>
-      </c>
-      <c r="C213" t="s" s="34">
-        <v>425</v>
-      </c>
-      <c r="D213" s="35">
+      <c r="B213" s="32">
+        <v>4</v>
+      </c>
+      <c r="C213" t="s" s="33">
+        <v>426</v>
+      </c>
+      <c r="D213" s="34">
         <v>908</v>
       </c>
-      <c r="E213" s="38"/>
+      <c r="E213" s="37"/>
     </row>
     <row r="214" ht="23" customHeight="1">
-      <c r="A214" s="32">
+      <c r="A214" s="31">
         <v>910</v>
       </c>
-      <c r="B214" s="33">
-        <v>4</v>
-      </c>
-      <c r="C214" t="s" s="34">
-        <v>426</v>
-      </c>
-      <c r="D214" s="35">
+      <c r="B214" s="32">
+        <v>4</v>
+      </c>
+      <c r="C214" t="s" s="33">
+        <v>427</v>
+      </c>
+      <c r="D214" s="34">
         <v>908</v>
       </c>
-      <c r="E214" s="38"/>
+      <c r="E214" s="37"/>
     </row>
     <row r="215" ht="23" customHeight="1">
-      <c r="A215" s="32">
+      <c r="A215" s="31">
         <v>911</v>
       </c>
-      <c r="B215" s="33">
-        <v>4</v>
-      </c>
-      <c r="C215" t="s" s="34">
-        <v>427</v>
-      </c>
-      <c r="D215" s="35">
+      <c r="B215" s="32">
+        <v>4</v>
+      </c>
+      <c r="C215" t="s" s="33">
+        <v>428</v>
+      </c>
+      <c r="D215" s="34">
         <v>908</v>
       </c>
-      <c r="E215" s="38"/>
+      <c r="E215" s="37"/>
     </row>
     <row r="216" ht="23" customHeight="1">
-      <c r="A216" s="32">
+      <c r="A216" s="31">
         <v>912</v>
       </c>
-      <c r="B216" s="33">
-        <v>4</v>
-      </c>
-      <c r="C216" t="s" s="34">
-        <v>428</v>
-      </c>
-      <c r="D216" s="35">
+      <c r="B216" s="32">
+        <v>4</v>
+      </c>
+      <c r="C216" t="s" s="33">
+        <v>429</v>
+      </c>
+      <c r="D216" s="34">
         <v>908</v>
       </c>
-      <c r="E216" s="38"/>
+      <c r="E216" s="37"/>
     </row>
     <row r="217" ht="23" customHeight="1">
-      <c r="A217" s="32">
+      <c r="A217" s="31">
         <v>913</v>
       </c>
-      <c r="B217" s="33">
-        <v>4</v>
-      </c>
-      <c r="C217" t="s" s="34">
-        <v>429</v>
-      </c>
-      <c r="D217" s="35">
+      <c r="B217" s="32">
+        <v>4</v>
+      </c>
+      <c r="C217" t="s" s="33">
+        <v>430</v>
+      </c>
+      <c r="D217" s="34">
         <v>908</v>
       </c>
-      <c r="E217" s="38"/>
+      <c r="E217" s="37"/>
     </row>
     <row r="218" ht="23" customHeight="1">
-      <c r="A218" s="32">
+      <c r="A218" s="31">
         <v>914</v>
       </c>
-      <c r="B218" s="33">
-        <v>4</v>
-      </c>
-      <c r="C218" t="s" s="34">
-        <v>430</v>
-      </c>
-      <c r="D218" s="35">
+      <c r="B218" s="32">
+        <v>4</v>
+      </c>
+      <c r="C218" t="s" s="33">
+        <v>431</v>
+      </c>
+      <c r="D218" s="34">
         <v>908</v>
       </c>
-      <c r="E218" s="38"/>
+      <c r="E218" s="37"/>
     </row>
     <row r="219" ht="23" customHeight="1">
-      <c r="A219" s="32">
+      <c r="A219" s="31">
         <v>915</v>
       </c>
-      <c r="B219" s="33">
-        <v>4</v>
-      </c>
-      <c r="C219" t="s" s="34">
-        <v>431</v>
-      </c>
-      <c r="D219" s="35">
+      <c r="B219" s="32">
+        <v>4</v>
+      </c>
+      <c r="C219" t="s" s="33">
+        <v>432</v>
+      </c>
+      <c r="D219" s="34">
         <v>908</v>
       </c>
-      <c r="E219" s="38"/>
+      <c r="E219" s="37"/>
     </row>
     <row r="220" ht="23" customHeight="1">
-      <c r="A220" s="32">
+      <c r="A220" s="31">
         <v>916</v>
       </c>
-      <c r="B220" s="33">
-        <v>4</v>
-      </c>
-      <c r="C220" t="s" s="34">
-        <v>432</v>
-      </c>
-      <c r="D220" s="35">
+      <c r="B220" s="32">
+        <v>4</v>
+      </c>
+      <c r="C220" t="s" s="33">
+        <v>433</v>
+      </c>
+      <c r="D220" s="34">
         <v>908</v>
       </c>
-      <c r="E220" s="38"/>
+      <c r="E220" s="37"/>
     </row>
     <row r="221" ht="23" customHeight="1">
-      <c r="A221" s="32">
+      <c r="A221" s="31">
         <v>917</v>
       </c>
-      <c r="B221" s="33">
-        <v>3</v>
-      </c>
-      <c r="C221" t="s" s="34">
-        <v>433</v>
-      </c>
-      <c r="D221" s="35">
+      <c r="B221" s="32">
+        <v>3</v>
+      </c>
+      <c r="C221" t="s" s="33">
+        <v>434</v>
+      </c>
+      <c r="D221" s="34">
         <v>900</v>
       </c>
-      <c r="E221" s="38"/>
+      <c r="E221" s="37"/>
     </row>
     <row r="222" ht="23" customHeight="1">
-      <c r="A222" s="32">
+      <c r="A222" s="31">
         <v>918</v>
       </c>
-      <c r="B222" s="33">
-        <v>4</v>
-      </c>
-      <c r="C222" t="s" s="34">
-        <v>434</v>
-      </c>
-      <c r="D222" s="35">
+      <c r="B222" s="32">
+        <v>4</v>
+      </c>
+      <c r="C222" t="s" s="33">
+        <v>435</v>
+      </c>
+      <c r="D222" s="34">
         <v>917</v>
       </c>
-      <c r="E222" s="38"/>
+      <c r="E222" s="37"/>
     </row>
     <row r="223" ht="23" customHeight="1">
-      <c r="A223" s="36"/>
-      <c r="B223" s="37"/>
-      <c r="C223" s="38"/>
-      <c r="D223" s="38"/>
-      <c r="E223" s="38"/>
+      <c r="A223" s="35"/>
+      <c r="B223" s="36"/>
+      <c r="C223" s="37"/>
+      <c r="D223" s="37"/>
+      <c r="E223" s="37"/>
     </row>
     <row r="224" ht="23" customHeight="1">
-      <c r="A224" s="32">
+      <c r="A224" s="31">
         <v>1000</v>
       </c>
-      <c r="B224" s="33">
+      <c r="B224" s="32">
         <v>2</v>
       </c>
-      <c r="C224" t="s" s="34">
-        <v>435</v>
-      </c>
-      <c r="D224" s="35">
+      <c r="C224" t="s" s="33">
+        <v>436</v>
+      </c>
+      <c r="D224" s="34">
         <v>1</v>
       </c>
-      <c r="E224" t="s" s="34">
-        <v>436</v>
+      <c r="E224" t="s" s="33">
+        <v>437</v>
       </c>
     </row>
     <row r="225" ht="23" customHeight="1">
-      <c r="A225" s="32">
+      <c r="A225" s="31">
         <v>1001</v>
       </c>
-      <c r="B225" s="33">
-        <v>3</v>
-      </c>
-      <c r="C225" t="s" s="34">
-        <v>437</v>
-      </c>
-      <c r="D225" s="35">
+      <c r="B225" s="32">
+        <v>3</v>
+      </c>
+      <c r="C225" t="s" s="33">
+        <v>438</v>
+      </c>
+      <c r="D225" s="34">
         <v>1000</v>
       </c>
-      <c r="E225" s="38"/>
+      <c r="E225" s="37"/>
     </row>
     <row r="226" ht="23" customHeight="1">
-      <c r="A226" s="32">
+      <c r="A226" s="31">
         <v>1002</v>
       </c>
-      <c r="B226" s="33">
-        <v>3</v>
-      </c>
-      <c r="C226" t="s" s="34">
-        <v>438</v>
-      </c>
-      <c r="D226" s="35">
+      <c r="B226" s="32">
+        <v>3</v>
+      </c>
+      <c r="C226" t="s" s="33">
+        <v>439</v>
+      </c>
+      <c r="D226" s="34">
         <v>1000</v>
       </c>
-      <c r="E226" s="38"/>
+      <c r="E226" s="37"/>
     </row>
     <row r="227" ht="23" customHeight="1">
-      <c r="A227" s="32">
+      <c r="A227" s="31">
         <v>1003</v>
       </c>
-      <c r="B227" s="33">
-        <v>4</v>
-      </c>
-      <c r="C227" t="s" s="34">
-        <v>439</v>
-      </c>
-      <c r="D227" s="35">
+      <c r="B227" s="32">
+        <v>4</v>
+      </c>
+      <c r="C227" t="s" s="33">
+        <v>440</v>
+      </c>
+      <c r="D227" s="34">
         <v>1002</v>
       </c>
-      <c r="E227" s="38"/>
+      <c r="E227" s="37"/>
     </row>
     <row r="228" ht="23" customHeight="1">
-      <c r="A228" s="32">
+      <c r="A228" s="31">
         <v>1004</v>
       </c>
-      <c r="B228" s="33">
-        <v>4</v>
-      </c>
-      <c r="C228" t="s" s="34">
-        <v>440</v>
-      </c>
-      <c r="D228" s="35">
+      <c r="B228" s="32">
+        <v>4</v>
+      </c>
+      <c r="C228" t="s" s="33">
+        <v>441</v>
+      </c>
+      <c r="D228" s="34">
         <v>1002</v>
       </c>
-      <c r="E228" s="38"/>
+      <c r="E228" s="37"/>
     </row>
     <row r="229" ht="23" customHeight="1">
-      <c r="A229" s="32">
+      <c r="A229" s="31">
         <v>1005</v>
       </c>
-      <c r="B229" s="33">
-        <v>4</v>
-      </c>
-      <c r="C229" t="s" s="34">
-        <v>441</v>
-      </c>
-      <c r="D229" s="35">
+      <c r="B229" s="32">
+        <v>4</v>
+      </c>
+      <c r="C229" t="s" s="33">
+        <v>442</v>
+      </c>
+      <c r="D229" s="34">
         <v>1002</v>
       </c>
-      <c r="E229" s="38"/>
+      <c r="E229" s="37"/>
     </row>
     <row r="230" ht="23" customHeight="1">
-      <c r="A230" s="32">
+      <c r="A230" s="31">
         <v>1006</v>
       </c>
-      <c r="B230" s="33">
-        <v>3</v>
-      </c>
-      <c r="C230" t="s" s="34">
-        <v>442</v>
-      </c>
-      <c r="D230" s="35">
+      <c r="B230" s="32">
+        <v>3</v>
+      </c>
+      <c r="C230" t="s" s="33">
+        <v>443</v>
+      </c>
+      <c r="D230" s="34">
         <v>1000</v>
       </c>
-      <c r="E230" s="38"/>
+      <c r="E230" s="37"/>
     </row>
     <row r="231" ht="23" customHeight="1">
-      <c r="A231" s="32">
+      <c r="A231" s="31">
         <v>1007</v>
       </c>
-      <c r="B231" s="33">
-        <v>4</v>
-      </c>
-      <c r="C231" t="s" s="34">
-        <v>443</v>
-      </c>
-      <c r="D231" s="35">
+      <c r="B231" s="32">
+        <v>4</v>
+      </c>
+      <c r="C231" t="s" s="33">
+        <v>444</v>
+      </c>
+      <c r="D231" s="34">
         <v>1006</v>
       </c>
-      <c r="E231" s="38"/>
+      <c r="E231" s="37"/>
     </row>
     <row r="232" ht="23" customHeight="1">
-      <c r="A232" s="32">
+      <c r="A232" s="31">
         <v>1008</v>
       </c>
-      <c r="B232" s="33">
-        <v>4</v>
-      </c>
-      <c r="C232" t="s" s="34">
-        <v>444</v>
-      </c>
-      <c r="D232" s="35">
+      <c r="B232" s="32">
+        <v>4</v>
+      </c>
+      <c r="C232" t="s" s="33">
+        <v>445</v>
+      </c>
+      <c r="D232" s="34">
         <v>1006</v>
       </c>
-      <c r="E232" s="38"/>
+      <c r="E232" s="37"/>
     </row>
     <row r="233" ht="23" customHeight="1">
-      <c r="A233" s="32">
+      <c r="A233" s="31">
         <v>1009</v>
       </c>
-      <c r="B233" s="33">
-        <v>4</v>
-      </c>
-      <c r="C233" t="s" s="34">
-        <v>445</v>
-      </c>
-      <c r="D233" s="35">
+      <c r="B233" s="32">
+        <v>4</v>
+      </c>
+      <c r="C233" t="s" s="33">
+        <v>446</v>
+      </c>
+      <c r="D233" s="34">
         <v>1006</v>
       </c>
-      <c r="E233" s="38"/>
+      <c r="E233" s="37"/>
     </row>
     <row r="234" ht="23" customHeight="1">
-      <c r="A234" s="32">
+      <c r="A234" s="31">
         <v>1010</v>
       </c>
-      <c r="B234" s="33">
-        <v>4</v>
-      </c>
-      <c r="C234" t="s" s="34">
-        <v>446</v>
-      </c>
-      <c r="D234" s="35">
+      <c r="B234" s="32">
+        <v>4</v>
+      </c>
+      <c r="C234" t="s" s="33">
+        <v>447</v>
+      </c>
+      <c r="D234" s="34">
         <v>1006</v>
       </c>
-      <c r="E234" s="38"/>
+      <c r="E234" s="37"/>
     </row>
     <row r="235" ht="23" customHeight="1">
-      <c r="A235" s="32">
+      <c r="A235" s="31">
         <v>1011</v>
       </c>
-      <c r="B235" s="33">
-        <v>3</v>
-      </c>
-      <c r="C235" t="s" s="34">
-        <v>447</v>
-      </c>
-      <c r="D235" s="35">
+      <c r="B235" s="32">
+        <v>3</v>
+      </c>
+      <c r="C235" t="s" s="33">
+        <v>448</v>
+      </c>
+      <c r="D235" s="34">
         <v>1000</v>
       </c>
-      <c r="E235" s="38"/>
+      <c r="E235" s="37"/>
     </row>
     <row r="236" ht="23" customHeight="1">
-      <c r="A236" s="32">
+      <c r="A236" s="31">
         <v>1012</v>
       </c>
-      <c r="B236" s="33">
-        <v>3</v>
-      </c>
-      <c r="C236" t="s" s="34">
-        <v>448</v>
-      </c>
-      <c r="D236" s="35">
+      <c r="B236" s="32">
+        <v>3</v>
+      </c>
+      <c r="C236" t="s" s="33">
+        <v>449</v>
+      </c>
+      <c r="D236" s="34">
         <v>1000</v>
       </c>
-      <c r="E236" s="38"/>
+      <c r="E236" s="37"/>
     </row>
     <row r="237" ht="23" customHeight="1">
-      <c r="A237" s="36"/>
-      <c r="B237" s="37"/>
-      <c r="C237" s="38"/>
-      <c r="D237" s="38"/>
-      <c r="E237" s="38"/>
+      <c r="A237" s="35"/>
+      <c r="B237" s="36"/>
+      <c r="C237" s="37"/>
+      <c r="D237" s="37"/>
+      <c r="E237" s="37"/>
     </row>
     <row r="238" ht="23" customHeight="1">
-      <c r="A238" s="32">
+      <c r="A238" s="31">
         <v>1100</v>
       </c>
-      <c r="B238" s="33">
+      <c r="B238" s="32">
         <v>2</v>
       </c>
-      <c r="C238" t="s" s="34">
-        <v>449</v>
-      </c>
-      <c r="D238" s="35">
+      <c r="C238" t="s" s="33">
+        <v>450</v>
+      </c>
+      <c r="D238" s="34">
         <v>1</v>
       </c>
-      <c r="E238" s="38"/>
+      <c r="E238" s="37"/>
     </row>
     <row r="239" ht="23" customHeight="1">
-      <c r="A239" s="32">
+      <c r="A239" s="31">
         <v>1101</v>
       </c>
-      <c r="B239" s="33">
-        <v>3</v>
-      </c>
-      <c r="C239" t="s" s="34">
-        <v>450</v>
-      </c>
-      <c r="D239" s="35">
+      <c r="B239" s="32">
+        <v>3</v>
+      </c>
+      <c r="C239" t="s" s="33">
+        <v>451</v>
+      </c>
+      <c r="D239" s="34">
         <v>1100</v>
       </c>
-      <c r="E239" s="38"/>
+      <c r="E239" s="37"/>
     </row>
     <row r="240" ht="23" customHeight="1">
-      <c r="A240" s="32">
+      <c r="A240" s="31">
         <v>1102</v>
       </c>
-      <c r="B240" s="33">
-        <v>4</v>
-      </c>
-      <c r="C240" t="s" s="34">
-        <v>451</v>
-      </c>
-      <c r="D240" s="35">
+      <c r="B240" s="32">
+        <v>4</v>
+      </c>
+      <c r="C240" t="s" s="33">
+        <v>452</v>
+      </c>
+      <c r="D240" s="34">
         <v>1101</v>
       </c>
-      <c r="E240" s="38"/>
+      <c r="E240" s="37"/>
     </row>
     <row r="241" ht="23" customHeight="1">
-      <c r="A241" s="32">
+      <c r="A241" s="31">
         <v>1103</v>
       </c>
-      <c r="B241" s="33">
-        <v>3</v>
-      </c>
-      <c r="C241" t="s" s="34">
-        <v>452</v>
-      </c>
-      <c r="D241" s="35">
+      <c r="B241" s="32">
+        <v>3</v>
+      </c>
+      <c r="C241" t="s" s="33">
+        <v>453</v>
+      </c>
+      <c r="D241" s="34">
         <v>1100</v>
       </c>
-      <c r="E241" s="38"/>
+      <c r="E241" s="37"/>
     </row>
     <row r="242" ht="23" customHeight="1">
-      <c r="A242" s="36"/>
-      <c r="B242" s="37"/>
-      <c r="C242" s="38"/>
-      <c r="D242" s="38"/>
-      <c r="E242" s="38"/>
+      <c r="A242" s="35"/>
+      <c r="B242" s="36"/>
+      <c r="C242" s="37"/>
+      <c r="D242" s="37"/>
+      <c r="E242" s="37"/>
     </row>
     <row r="243" ht="23" customHeight="1">
-      <c r="A243" s="32">
+      <c r="A243" s="31">
         <v>1200</v>
       </c>
-      <c r="B243" s="33">
+      <c r="B243" s="32">
         <v>2</v>
       </c>
-      <c r="C243" t="s" s="34">
-        <v>453</v>
-      </c>
-      <c r="D243" s="35">
+      <c r="C243" t="s" s="33">
+        <v>454</v>
+      </c>
+      <c r="D243" s="34">
         <v>1</v>
       </c>
-      <c r="E243" s="38"/>
+      <c r="E243" s="37"/>
     </row>
     <row r="244" ht="23" customHeight="1">
-      <c r="A244" s="32">
+      <c r="A244" s="31">
         <v>1201</v>
       </c>
-      <c r="B244" s="33">
-        <v>3</v>
-      </c>
-      <c r="C244" t="s" s="34">
-        <v>454</v>
-      </c>
-      <c r="D244" s="35">
+      <c r="B244" s="32">
+        <v>3</v>
+      </c>
+      <c r="C244" t="s" s="33">
+        <v>455</v>
+      </c>
+      <c r="D244" s="34">
         <v>1200</v>
       </c>
-      <c r="E244" s="38"/>
+      <c r="E244" s="37"/>
     </row>
     <row r="245" ht="23" customHeight="1">
-      <c r="A245" s="32">
+      <c r="A245" s="31">
         <v>1202</v>
       </c>
-      <c r="B245" s="33">
-        <v>4</v>
-      </c>
-      <c r="C245" t="s" s="34">
-        <v>455</v>
-      </c>
-      <c r="D245" s="35">
+      <c r="B245" s="32">
+        <v>4</v>
+      </c>
+      <c r="C245" t="s" s="33">
+        <v>456</v>
+      </c>
+      <c r="D245" s="34">
         <v>1201</v>
       </c>
-      <c r="E245" s="38"/>
+      <c r="E245" s="37"/>
     </row>
     <row r="246" ht="23" customHeight="1">
-      <c r="A246" s="32">
+      <c r="A246" s="31">
         <v>1203</v>
       </c>
-      <c r="B246" s="33">
-        <v>3</v>
-      </c>
-      <c r="C246" t="s" s="34">
-        <v>456</v>
-      </c>
-      <c r="D246" s="35">
+      <c r="B246" s="32">
+        <v>3</v>
+      </c>
+      <c r="C246" t="s" s="33">
+        <v>457</v>
+      </c>
+      <c r="D246" s="34">
         <v>1200</v>
       </c>
-      <c r="E246" s="38"/>
+      <c r="E246" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8148,982 +7923,4 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:F62"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="16.3516" style="39" customWidth="1"/>
-    <col min="2" max="2" width="53.2266" style="39" customWidth="1"/>
-    <col min="3" max="3" width="16.1562" style="39" customWidth="1"/>
-    <col min="4" max="4" width="52.9297" style="39" customWidth="1"/>
-    <col min="5" max="5" width="22.0469" style="39" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="39" customWidth="1"/>
-    <col min="7" max="16384" width="16.3516" style="39" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" ht="32.25" customHeight="1">
-      <c r="A2" t="s" s="5">
-        <v>31</v>
-      </c>
-      <c r="B2" t="s" s="40">
-        <v>34</v>
-      </c>
-      <c r="C2" t="s" s="40">
-        <v>457</v>
-      </c>
-      <c r="D2" t="s" s="40">
-        <v>458</v>
-      </c>
-      <c r="E2" t="s" s="40">
-        <v>459</v>
-      </c>
-      <c r="F2" s="19"/>
-    </row>
-    <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" t="s" s="6">
-        <v>460</v>
-      </c>
-      <c r="B3" t="s" s="41">
-        <v>461</v>
-      </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="10">
-        <v>462</v>
-      </c>
-      <c r="B4" t="s" s="43">
-        <v>352</v>
-      </c>
-      <c r="C4" t="s" s="44">
-        <v>353</v>
-      </c>
-      <c r="D4" t="s" s="44">
-        <v>461</v>
-      </c>
-      <c r="E4" s="45"/>
-      <c r="F4" s="13"/>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="10">
-        <v>462</v>
-      </c>
-      <c r="B5" t="s" s="43">
-        <v>178</v>
-      </c>
-      <c r="C5" t="s" s="44">
-        <v>179</v>
-      </c>
-      <c r="D5" t="s" s="44">
-        <v>461</v>
-      </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="13"/>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="10">
-        <v>462</v>
-      </c>
-      <c r="B6" t="s" s="43">
-        <v>463</v>
-      </c>
-      <c r="C6" t="s" s="44">
-        <v>464</v>
-      </c>
-      <c r="D6" t="s" s="44">
-        <v>461</v>
-      </c>
-      <c r="E6" s="45"/>
-      <c r="F6" s="13"/>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="10">
-        <v>462</v>
-      </c>
-      <c r="B7" t="s" s="46">
-        <v>449</v>
-      </c>
-      <c r="C7" t="s" s="44">
-        <v>465</v>
-      </c>
-      <c r="D7" t="s" s="44">
-        <v>461</v>
-      </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="13"/>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="10">
-        <v>462</v>
-      </c>
-      <c r="B8" t="s" s="43">
-        <v>453</v>
-      </c>
-      <c r="C8" t="s" s="44">
-        <v>466</v>
-      </c>
-      <c r="D8" t="s" s="44">
-        <v>461</v>
-      </c>
-      <c r="E8" s="45"/>
-      <c r="F8" s="13"/>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" t="s" s="10">
-        <v>462</v>
-      </c>
-      <c r="B9" t="s" s="43">
-        <v>278</v>
-      </c>
-      <c r="C9" t="s" s="44">
-        <v>279</v>
-      </c>
-      <c r="D9" t="s" s="44">
-        <v>461</v>
-      </c>
-      <c r="E9" s="45"/>
-      <c r="F9" s="13"/>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="10">
-        <v>462</v>
-      </c>
-      <c r="B10" t="s" s="43">
-        <v>337</v>
-      </c>
-      <c r="C10" t="s" s="44">
-        <v>338</v>
-      </c>
-      <c r="D10" t="s" s="44">
-        <v>461</v>
-      </c>
-      <c r="E10" s="45"/>
-      <c r="F10" s="13"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" t="s" s="10">
-        <v>462</v>
-      </c>
-      <c r="B11" t="s" s="43">
-        <v>236</v>
-      </c>
-      <c r="C11" t="s" s="44">
-        <v>237</v>
-      </c>
-      <c r="D11" t="s" s="44">
-        <v>461</v>
-      </c>
-      <c r="E11" s="45"/>
-      <c r="F11" s="13"/>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" t="s" s="10">
-        <v>462</v>
-      </c>
-      <c r="B12" t="s" s="43">
-        <v>402</v>
-      </c>
-      <c r="C12" t="s" s="44">
-        <v>403</v>
-      </c>
-      <c r="D12" t="s" s="44">
-        <v>461</v>
-      </c>
-      <c r="E12" s="45"/>
-      <c r="F12" s="13"/>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" t="s" s="10">
-        <v>462</v>
-      </c>
-      <c r="B13" t="s" s="43">
-        <v>376</v>
-      </c>
-      <c r="C13" t="s" s="44">
-        <v>377</v>
-      </c>
-      <c r="D13" t="s" s="44">
-        <v>461</v>
-      </c>
-      <c r="E13" s="45"/>
-      <c r="F13" s="13"/>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" t="s" s="10">
-        <v>462</v>
-      </c>
-      <c r="B14" t="s" s="43">
-        <v>415</v>
-      </c>
-      <c r="C14" t="s" s="44">
-        <v>416</v>
-      </c>
-      <c r="D14" t="s" s="44">
-        <v>461</v>
-      </c>
-      <c r="E14" s="45"/>
-      <c r="F14" s="13"/>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" t="s" s="10">
-        <v>462</v>
-      </c>
-      <c r="B15" t="s" s="43">
-        <v>435</v>
-      </c>
-      <c r="C15" t="s" s="44">
-        <v>436</v>
-      </c>
-      <c r="D15" t="s" s="44">
-        <v>461</v>
-      </c>
-      <c r="E15" s="45"/>
-      <c r="F15" s="13"/>
-    </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" t="s" s="10">
-        <v>462</v>
-      </c>
-      <c r="B16" t="s" s="43">
-        <v>467</v>
-      </c>
-      <c r="C16" t="s" s="44">
-        <v>159</v>
-      </c>
-      <c r="D16" t="s" s="44">
-        <v>461</v>
-      </c>
-      <c r="E16" s="45"/>
-      <c r="F16" s="13"/>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" t="s" s="10">
-        <v>468</v>
-      </c>
-      <c r="B17" t="s" s="46">
-        <v>469</v>
-      </c>
-      <c r="C17" s="44"/>
-      <c r="D17" t="s" s="44">
-        <v>467</v>
-      </c>
-      <c r="E17" t="s" s="44">
-        <v>461</v>
-      </c>
-      <c r="F17" s="13"/>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" t="s" s="10">
-        <v>468</v>
-      </c>
-      <c r="B18" t="s" s="46">
-        <v>180</v>
-      </c>
-      <c r="C18" s="44"/>
-      <c r="D18" t="s" s="44">
-        <v>178</v>
-      </c>
-      <c r="E18" t="s" s="44">
-        <v>461</v>
-      </c>
-      <c r="F18" s="13"/>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" t="s" s="10">
-        <v>468</v>
-      </c>
-      <c r="B19" t="s" s="46">
-        <v>238</v>
-      </c>
-      <c r="C19" s="44"/>
-      <c r="D19" t="s" s="44">
-        <v>236</v>
-      </c>
-      <c r="E19" t="s" s="44">
-        <v>461</v>
-      </c>
-      <c r="F19" s="13"/>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" t="s" s="10">
-        <v>468</v>
-      </c>
-      <c r="B20" t="s" s="46">
-        <v>450</v>
-      </c>
-      <c r="C20" s="44"/>
-      <c r="D20" t="s" s="44">
-        <v>449</v>
-      </c>
-      <c r="E20" t="s" s="44">
-        <v>461</v>
-      </c>
-      <c r="F20" s="13"/>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" t="s" s="10">
-        <v>468</v>
-      </c>
-      <c r="B21" t="s" s="46">
-        <v>452</v>
-      </c>
-      <c r="C21" s="44"/>
-      <c r="D21" t="s" s="44">
-        <v>449</v>
-      </c>
-      <c r="E21" t="s" s="44">
-        <v>461</v>
-      </c>
-      <c r="F21" s="13"/>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" t="s" s="10">
-        <v>468</v>
-      </c>
-      <c r="B22" t="s" s="46">
-        <v>454</v>
-      </c>
-      <c r="C22" s="44"/>
-      <c r="D22" t="s" s="44">
-        <v>453</v>
-      </c>
-      <c r="E22" t="s" s="44">
-        <v>461</v>
-      </c>
-      <c r="F22" s="13"/>
-    </row>
-    <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" t="s" s="10">
-        <v>468</v>
-      </c>
-      <c r="B23" t="s" s="46">
-        <v>456</v>
-      </c>
-      <c r="C23" s="44"/>
-      <c r="D23" t="s" s="44">
-        <v>453</v>
-      </c>
-      <c r="E23" t="s" s="44">
-        <v>461</v>
-      </c>
-      <c r="F23" s="13"/>
-    </row>
-    <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" t="s" s="10">
-        <v>468</v>
-      </c>
-      <c r="B24" t="s" s="46">
-        <v>470</v>
-      </c>
-      <c r="C24" s="44"/>
-      <c r="D24" t="s" s="44">
-        <v>402</v>
-      </c>
-      <c r="E24" t="s" s="44">
-        <v>461</v>
-      </c>
-      <c r="F24" s="13"/>
-    </row>
-    <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" t="s" s="10">
-        <v>468</v>
-      </c>
-      <c r="B25" t="s" s="43">
-        <v>182</v>
-      </c>
-      <c r="C25" s="47"/>
-      <c r="D25" t="s" s="47">
-        <v>178</v>
-      </c>
-      <c r="E25" t="s" s="44">
-        <v>461</v>
-      </c>
-      <c r="F25" s="13"/>
-    </row>
-    <row r="26" ht="31" customHeight="1">
-      <c r="A26" t="s" s="10">
-        <v>468</v>
-      </c>
-      <c r="B26" t="s" s="43">
-        <v>354</v>
-      </c>
-      <c r="C26" s="47"/>
-      <c r="D26" t="s" s="47">
-        <v>352</v>
-      </c>
-      <c r="E26" t="s" s="44">
-        <v>461</v>
-      </c>
-      <c r="F26" s="13"/>
-    </row>
-    <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" t="s" s="10">
-        <v>468</v>
-      </c>
-      <c r="B27" t="s" s="43">
-        <v>355</v>
-      </c>
-      <c r="C27" s="44"/>
-      <c r="D27" t="s" s="44">
-        <v>352</v>
-      </c>
-      <c r="E27" t="s" s="44">
-        <v>461</v>
-      </c>
-      <c r="F27" s="13"/>
-    </row>
-    <row r="28" ht="36.85" customHeight="1">
-      <c r="A28" t="s" s="10">
-        <v>468</v>
-      </c>
-      <c r="B28" t="s" s="43">
-        <v>234</v>
-      </c>
-      <c r="C28" s="44"/>
-      <c r="D28" t="s" s="47">
-        <v>178</v>
-      </c>
-      <c r="E28" t="s" s="44">
-        <v>461</v>
-      </c>
-      <c r="F28" s="13"/>
-    </row>
-    <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" t="s" s="10">
-        <v>468</v>
-      </c>
-      <c r="B29" t="s" s="43">
-        <v>246</v>
-      </c>
-      <c r="C29" s="44"/>
-      <c r="D29" t="s" s="47">
-        <v>236</v>
-      </c>
-      <c r="E29" t="s" s="44">
-        <v>461</v>
-      </c>
-      <c r="F29" s="13"/>
-    </row>
-    <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" t="s" s="10">
-        <v>468</v>
-      </c>
-      <c r="B30" t="s" s="43">
-        <v>471</v>
-      </c>
-      <c r="C30" s="44"/>
-      <c r="D30" t="s" s="47">
-        <v>352</v>
-      </c>
-      <c r="E30" t="s" s="44">
-        <v>461</v>
-      </c>
-      <c r="F30" s="13"/>
-    </row>
-    <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" t="s" s="10">
-        <v>468</v>
-      </c>
-      <c r="B31" t="s" s="46">
-        <v>472</v>
-      </c>
-      <c r="C31" s="44"/>
-      <c r="D31" t="s" s="44">
-        <v>352</v>
-      </c>
-      <c r="E31" t="s" s="44">
-        <v>461</v>
-      </c>
-      <c r="F31" s="13"/>
-    </row>
-    <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" t="s" s="10">
-        <v>468</v>
-      </c>
-      <c r="B32" t="s" s="43">
-        <v>473</v>
-      </c>
-      <c r="C32" s="44"/>
-      <c r="D32" t="s" s="44">
-        <v>178</v>
-      </c>
-      <c r="E32" t="s" s="44">
-        <v>461</v>
-      </c>
-      <c r="F32" s="13"/>
-    </row>
-    <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" t="s" s="10">
-        <v>468</v>
-      </c>
-      <c r="B33" t="s" s="43">
-        <v>474</v>
-      </c>
-      <c r="C33" s="44"/>
-      <c r="D33" t="s" s="47">
-        <v>278</v>
-      </c>
-      <c r="E33" t="s" s="44">
-        <v>461</v>
-      </c>
-      <c r="F33" s="13"/>
-    </row>
-    <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" t="s" s="10">
-        <v>468</v>
-      </c>
-      <c r="B34" t="s" s="43">
-        <v>281</v>
-      </c>
-      <c r="C34" s="44"/>
-      <c r="D34" t="s" s="44">
-        <v>278</v>
-      </c>
-      <c r="E34" t="s" s="44">
-        <v>461</v>
-      </c>
-      <c r="F34" s="13"/>
-    </row>
-    <row r="35" ht="20.05" customHeight="1">
-      <c r="A35" t="s" s="10">
-        <v>468</v>
-      </c>
-      <c r="B35" t="s" s="43">
-        <v>417</v>
-      </c>
-      <c r="C35" s="44"/>
-      <c r="D35" t="s" s="44">
-        <v>415</v>
-      </c>
-      <c r="E35" t="s" s="44">
-        <v>461</v>
-      </c>
-      <c r="F35" s="13"/>
-    </row>
-    <row r="36" ht="20.05" customHeight="1">
-      <c r="A36" t="s" s="10">
-        <v>468</v>
-      </c>
-      <c r="B36" t="s" s="43">
-        <v>284</v>
-      </c>
-      <c r="C36" s="44"/>
-      <c r="D36" t="s" s="44">
-        <v>278</v>
-      </c>
-      <c r="E36" t="s" s="44">
-        <v>461</v>
-      </c>
-      <c r="F36" s="13"/>
-    </row>
-    <row r="37" ht="20.05" customHeight="1">
-      <c r="A37" t="s" s="10">
-        <v>468</v>
-      </c>
-      <c r="B37" t="s" s="43">
-        <v>369</v>
-      </c>
-      <c r="C37" s="44"/>
-      <c r="D37" t="s" s="47">
-        <v>352</v>
-      </c>
-      <c r="E37" t="s" s="44">
-        <v>461</v>
-      </c>
-      <c r="F37" s="13"/>
-    </row>
-    <row r="38" ht="20.05" customHeight="1">
-      <c r="A38" t="s" s="10">
-        <v>468</v>
-      </c>
-      <c r="B38" t="s" s="43">
-        <v>475</v>
-      </c>
-      <c r="C38" s="44"/>
-      <c r="D38" t="s" s="44">
-        <v>236</v>
-      </c>
-      <c r="E38" t="s" s="44">
-        <v>461</v>
-      </c>
-      <c r="F38" s="13"/>
-    </row>
-    <row r="39" ht="20.05" customHeight="1">
-      <c r="A39" t="s" s="10">
-        <v>468</v>
-      </c>
-      <c r="B39" t="s" s="43">
-        <v>339</v>
-      </c>
-      <c r="C39" s="44"/>
-      <c r="D39" t="s" s="47">
-        <v>337</v>
-      </c>
-      <c r="E39" t="s" s="44">
-        <v>461</v>
-      </c>
-      <c r="F39" s="13"/>
-    </row>
-    <row r="40" ht="20.05" customHeight="1">
-      <c r="A40" t="s" s="10">
-        <v>468</v>
-      </c>
-      <c r="B40" t="s" s="43">
-        <v>166</v>
-      </c>
-      <c r="C40" s="44"/>
-      <c r="D40" t="s" s="47">
-        <v>467</v>
-      </c>
-      <c r="E40" t="s" s="44">
-        <v>461</v>
-      </c>
-      <c r="F40" s="13"/>
-    </row>
-    <row r="41" ht="20.05" customHeight="1">
-      <c r="A41" t="s" s="10">
-        <v>468</v>
-      </c>
-      <c r="B41" t="s" s="43">
-        <v>190</v>
-      </c>
-      <c r="C41" s="44"/>
-      <c r="D41" t="s" s="47">
-        <v>178</v>
-      </c>
-      <c r="E41" t="s" s="44">
-        <v>461</v>
-      </c>
-      <c r="F41" s="13"/>
-    </row>
-    <row r="42" ht="20.05" customHeight="1">
-      <c r="A42" t="s" s="10">
-        <v>468</v>
-      </c>
-      <c r="B42" t="s" s="43">
-        <v>476</v>
-      </c>
-      <c r="C42" s="44"/>
-      <c r="D42" t="s" s="44">
-        <v>337</v>
-      </c>
-      <c r="E42" t="s" s="44">
-        <v>461</v>
-      </c>
-      <c r="F42" s="13"/>
-    </row>
-    <row r="43" ht="20.05" customHeight="1">
-      <c r="A43" t="s" s="10">
-        <v>468</v>
-      </c>
-      <c r="B43" t="s" s="43">
-        <v>343</v>
-      </c>
-      <c r="C43" s="44"/>
-      <c r="D43" t="s" s="44">
-        <v>337</v>
-      </c>
-      <c r="E43" t="s" s="44">
-        <v>461</v>
-      </c>
-      <c r="F43" s="13"/>
-    </row>
-    <row r="44" ht="20.05" customHeight="1">
-      <c r="A44" t="s" s="10">
-        <v>468</v>
-      </c>
-      <c r="B44" t="s" s="43">
-        <v>379</v>
-      </c>
-      <c r="C44" s="44"/>
-      <c r="D44" t="s" s="47">
-        <v>376</v>
-      </c>
-      <c r="E44" t="s" s="44">
-        <v>461</v>
-      </c>
-      <c r="F44" s="13"/>
-    </row>
-    <row r="45" ht="20.05" customHeight="1">
-      <c r="A45" t="s" s="10">
-        <v>468</v>
-      </c>
-      <c r="B45" t="s" s="43">
-        <v>220</v>
-      </c>
-      <c r="C45" s="44"/>
-      <c r="D45" t="s" s="47">
-        <v>178</v>
-      </c>
-      <c r="E45" t="s" s="44">
-        <v>461</v>
-      </c>
-      <c r="F45" s="13"/>
-    </row>
-    <row r="46" ht="20.05" customHeight="1">
-      <c r="A46" t="s" s="10">
-        <v>468</v>
-      </c>
-      <c r="B46" t="s" s="43">
-        <v>276</v>
-      </c>
-      <c r="C46" s="44"/>
-      <c r="D46" t="s" s="47">
-        <v>236</v>
-      </c>
-      <c r="E46" t="s" s="44">
-        <v>461</v>
-      </c>
-      <c r="F46" s="13"/>
-    </row>
-    <row r="47" ht="20.05" customHeight="1">
-      <c r="A47" t="s" s="10">
-        <v>468</v>
-      </c>
-      <c r="B47" t="s" s="43">
-        <v>433</v>
-      </c>
-      <c r="C47" s="44"/>
-      <c r="D47" t="s" s="44">
-        <v>415</v>
-      </c>
-      <c r="E47" t="s" s="44">
-        <v>461</v>
-      </c>
-      <c r="F47" s="13"/>
-    </row>
-    <row r="48" ht="20.05" customHeight="1">
-      <c r="A48" t="s" s="10">
-        <v>468</v>
-      </c>
-      <c r="B48" t="s" s="43">
-        <v>405</v>
-      </c>
-      <c r="C48" s="44"/>
-      <c r="D48" t="s" s="44">
-        <v>402</v>
-      </c>
-      <c r="E48" t="s" s="44">
-        <v>461</v>
-      </c>
-      <c r="F48" s="13"/>
-    </row>
-    <row r="49" ht="20.05" customHeight="1">
-      <c r="A49" t="s" s="10">
-        <v>468</v>
-      </c>
-      <c r="B49" t="s" s="43">
-        <v>400</v>
-      </c>
-      <c r="C49" s="44"/>
-      <c r="D49" t="s" s="47">
-        <v>376</v>
-      </c>
-      <c r="E49" t="s" s="44">
-        <v>461</v>
-      </c>
-      <c r="F49" s="13"/>
-    </row>
-    <row r="50" ht="20.05" customHeight="1">
-      <c r="A50" t="s" s="10">
-        <v>468</v>
-      </c>
-      <c r="B50" t="s" s="43">
-        <v>168</v>
-      </c>
-      <c r="C50" s="44"/>
-      <c r="D50" t="s" s="44">
-        <v>467</v>
-      </c>
-      <c r="E50" s="44"/>
-      <c r="F50" s="13"/>
-    </row>
-    <row r="51" ht="20.05" customHeight="1">
-      <c r="A51" s="10"/>
-      <c r="B51" t="s" s="46">
-        <v>477</v>
-      </c>
-      <c r="C51" s="44"/>
-      <c r="D51" t="s" s="44">
-        <v>376</v>
-      </c>
-      <c r="E51" s="44"/>
-      <c r="F51" s="13"/>
-    </row>
-    <row r="52" ht="20.05" customHeight="1">
-      <c r="A52" s="10"/>
-      <c r="B52" s="46"/>
-      <c r="C52" s="44"/>
-      <c r="D52" s="44"/>
-      <c r="E52" s="44"/>
-      <c r="F52" s="13"/>
-    </row>
-    <row r="53" ht="20.05" customHeight="1">
-      <c r="A53" s="10"/>
-      <c r="B53" s="46"/>
-      <c r="C53" s="44"/>
-      <c r="D53" s="44"/>
-      <c r="E53" s="44"/>
-      <c r="F53" s="13"/>
-    </row>
-    <row r="54" ht="20.05" customHeight="1">
-      <c r="A54" s="10"/>
-      <c r="B54" s="46"/>
-      <c r="C54" s="44"/>
-      <c r="D54" s="44"/>
-      <c r="E54" s="44"/>
-      <c r="F54" s="13"/>
-    </row>
-    <row r="55" ht="20.05" customHeight="1">
-      <c r="A55" t="s" s="10">
-        <v>478</v>
-      </c>
-      <c r="B55" t="s" s="46">
-        <v>479</v>
-      </c>
-      <c r="C55" s="44"/>
-      <c r="D55" t="s" s="44">
-        <v>480</v>
-      </c>
-      <c r="E55" t="s" s="44">
-        <v>481</v>
-      </c>
-      <c r="F55" s="13"/>
-    </row>
-    <row r="56" ht="20.05" customHeight="1">
-      <c r="A56" t="s" s="10">
-        <v>478</v>
-      </c>
-      <c r="B56" t="s" s="46">
-        <v>482</v>
-      </c>
-      <c r="C56" s="44"/>
-      <c r="D56" t="s" s="44">
-        <v>480</v>
-      </c>
-      <c r="E56" t="s" s="44">
-        <v>481</v>
-      </c>
-      <c r="F56" s="13"/>
-    </row>
-    <row r="57" ht="20.05" customHeight="1">
-      <c r="A57" t="s" s="10">
-        <v>478</v>
-      </c>
-      <c r="B57" t="s" s="46">
-        <v>483</v>
-      </c>
-      <c r="C57" s="44"/>
-      <c r="D57" t="s" s="44">
-        <v>480</v>
-      </c>
-      <c r="E57" t="s" s="44">
-        <v>481</v>
-      </c>
-      <c r="F57" s="13"/>
-    </row>
-    <row r="58" ht="20.05" customHeight="1">
-      <c r="A58" t="s" s="10">
-        <v>478</v>
-      </c>
-      <c r="B58" t="s" s="46">
-        <v>484</v>
-      </c>
-      <c r="C58" s="44"/>
-      <c r="D58" t="s" s="44">
-        <v>485</v>
-      </c>
-      <c r="E58" t="s" s="44">
-        <v>481</v>
-      </c>
-      <c r="F58" s="13"/>
-    </row>
-    <row r="59" ht="20.05" customHeight="1">
-      <c r="A59" t="s" s="10">
-        <v>478</v>
-      </c>
-      <c r="B59" t="s" s="46">
-        <v>486</v>
-      </c>
-      <c r="C59" s="44"/>
-      <c r="D59" t="s" s="44">
-        <v>487</v>
-      </c>
-      <c r="E59" t="s" s="44">
-        <v>488</v>
-      </c>
-      <c r="F59" s="13"/>
-    </row>
-    <row r="60" ht="20.05" customHeight="1">
-      <c r="A60" t="s" s="10">
-        <v>478</v>
-      </c>
-      <c r="B60" t="s" s="46">
-        <v>489</v>
-      </c>
-      <c r="C60" s="44"/>
-      <c r="D60" t="s" s="44">
-        <v>487</v>
-      </c>
-      <c r="E60" t="s" s="44">
-        <v>488</v>
-      </c>
-      <c r="F60" s="13"/>
-    </row>
-    <row r="61" ht="20.05" customHeight="1">
-      <c r="A61" t="s" s="10">
-        <v>478</v>
-      </c>
-      <c r="B61" t="s" s="46">
-        <v>490</v>
-      </c>
-      <c r="C61" s="44"/>
-      <c r="D61" t="s" s="44">
-        <v>491</v>
-      </c>
-      <c r="E61" t="s" s="44">
-        <v>481</v>
-      </c>
-      <c r="F61" s="13"/>
-    </row>
-    <row r="62" ht="20.05" customHeight="1">
-      <c r="A62" s="16"/>
-      <c r="B62" s="48"/>
-      <c r="C62" s="45"/>
-      <c r="D62" s="45"/>
-      <c r="E62" s="45"/>
-      <c r="F62" s="13"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/week_02.xlsx
+++ b/week_02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="460">
   <si>
     <t>Table 1</t>
   </si>
@@ -40,7 +40,7 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Risk ID</t>
+    <t>Risk_ID</t>
   </si>
   <si>
     <t>Unique identifier for risk</t>
@@ -82,42 +82,84 @@
     <t>“Risk” or “Issue”</t>
   </si>
   <si>
+    <t>Org_Unit_ID</t>
+  </si>
+  <si>
+    <t>Unit ID</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Must match ID in Org Structure </t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Risk’s category</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Risk owner</t>
+  </si>
+  <si>
+    <t>Max Length: 50</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Org level this risk belongs to</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Risk priority</t>
+  </si>
+  <si>
+    <t>1 = low, 5 = high</t>
+  </si>
+  <si>
+    <t>Velocity</t>
+  </si>
+  <si>
+    <t>Risk velocity</t>
+  </si>
+  <si>
+    <t>1 = low, 3 = high</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Risk magnitude</t>
+  </si>
+  <si>
+    <t>Asset_ID</t>
+  </si>
+  <si>
+    <t>Affected asset ID</t>
+  </si>
+  <si>
+    <t>Mitigation_plan</t>
+  </si>
+  <si>
+    <t>Mitigation Plan</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Org ID</t>
+  </si>
+  <si>
     <t>Org Unit ID</t>
   </si>
   <si>
-    <t>Unit ID</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Must match ID in Org Structure </t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Risk’s category</t>
-  </si>
-  <si>
-    <t>Owner</t>
-  </si>
-  <si>
-    <t>Risk owner</t>
-  </si>
-  <si>
-    <t>Max Length: 50</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Org ID</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
     <t>Organizational level</t>
   </si>
   <si>
@@ -142,55 +184,16 @@
     <t>Max Length: 20</t>
   </si>
   <si>
-    <t>Priority</t>
-  </si>
-  <si>
-    <t>Risk priority</t>
-  </si>
-  <si>
-    <t>1 = low, 5 = high</t>
-  </si>
-  <si>
-    <t>Velocity</t>
-  </si>
-  <si>
-    <t>Risk velocity</t>
-  </si>
-  <si>
-    <t>1 = low, 3 = high</t>
-  </si>
-  <si>
-    <t>Magnitude</t>
-  </si>
-  <si>
-    <t>Risk magnitude</t>
-  </si>
-  <si>
-    <t>Mitigation plan</t>
-  </si>
-  <si>
-    <t>Mitigation Plan</t>
-  </si>
-  <si>
-    <t>Asset ID</t>
-  </si>
-  <si>
-    <t>Affected asset ID</t>
-  </si>
-  <si>
-    <t>Asset name</t>
+    <t>Asset_name</t>
   </si>
   <si>
     <t>Affected asset name</t>
   </si>
   <si>
-    <t>Asset Unit ID</t>
-  </si>
-  <si>
     <t>Affected asset owner</t>
   </si>
   <si>
-    <t>Asset value</t>
+    <t>Asset_value</t>
   </si>
   <si>
     <t>Affected asset value</t>
@@ -335,6 +338,9 @@
   </si>
   <si>
     <t>227</t>
+  </si>
+  <si>
+    <t>Mitigation_Plan</t>
   </si>
   <si>
     <t>R01</t>
@@ -2787,7 +2793,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2971,21 +2977,25 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" ht="56.05" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
+    <row r="10" ht="26.7" customHeight="1">
+      <c r="A10" t="s" s="10">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s" s="11">
+        <v>32</v>
+      </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="12"/>
     </row>
-    <row r="11" ht="27.65" customHeight="1">
+    <row r="11" ht="14.7" customHeight="1">
       <c r="A11" t="s" s="10">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s" s="11">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s" s="12">
         <v>24</v>
@@ -2993,18 +3003,22 @@
       <c r="D11" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
+      <c r="E11" s="14">
+        <v>1</v>
+      </c>
+      <c r="F11" s="14">
+        <v>5</v>
+      </c>
       <c r="G11" t="s" s="12">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" ht="26.7" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" ht="14.7" customHeight="1">
       <c r="A12" t="s" s="10">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s" s="11">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s" s="12">
         <v>24</v>
@@ -3012,41 +3026,45 @@
       <c r="D12" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="E12" s="13"/>
+      <c r="E12" s="14">
+        <v>1</v>
+      </c>
       <c r="F12" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G12" t="s" s="12">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" ht="14.7" customHeight="1">
       <c r="A13" t="s" s="10">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s" s="11">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s" s="12">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="E13" s="13"/>
+      <c r="E13" s="14">
+        <v>1</v>
+      </c>
       <c r="F13" s="14">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="G13" t="s" s="12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" ht="14.7" customHeight="1">
       <c r="A14" t="s" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s" s="11">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s" s="12">
         <v>10</v>
@@ -3055,17 +3073,17 @@
         <v>11</v>
       </c>
       <c r="E14" s="13"/>
-      <c r="F14" s="14">
-        <v>9999</v>
-      </c>
-      <c r="G14" s="12"/>
-    </row>
-    <row r="15" ht="32.05" customHeight="1">
+      <c r="F14" s="13"/>
+      <c r="G14" t="s" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" ht="14.7" customHeight="1">
       <c r="A15" t="s" s="10">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s" s="11">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s" s="12">
         <v>10</v>
@@ -3075,36 +3093,22 @@
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="14">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="G15" t="s" s="12">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" t="s" s="10">
-        <v>42</v>
-      </c>
-      <c r="B16" t="s" s="11">
-        <v>43</v>
-      </c>
-      <c r="C16" t="s" s="12">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="E16" s="14">
-        <v>1</v>
-      </c>
-      <c r="F16" s="14">
-        <v>5</v>
-      </c>
-      <c r="G16" t="s" s="12">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" ht="56.05" customHeight="1">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" ht="27.65" customHeight="1">
       <c r="A17" t="s" s="10">
         <v>45</v>
       </c>
@@ -3117,22 +3121,18 @@
       <c r="D17" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="E17" s="14">
-        <v>1</v>
-      </c>
-      <c r="F17" s="14">
-        <v>3</v>
-      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
       <c r="G17" t="s" s="12">
         <v>47</v>
       </c>
     </row>
-    <row r="18" ht="20.05" customHeight="1">
+    <row r="18" ht="26.7" customHeight="1">
       <c r="A18" t="s" s="10">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s" s="11">
         <v>48</v>
-      </c>
-      <c r="B18" t="s" s="11">
-        <v>49</v>
       </c>
       <c r="C18" t="s" s="12">
         <v>24</v>
@@ -3140,14 +3140,12 @@
       <c r="D18" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="E18" s="14">
-        <v>1</v>
-      </c>
+      <c r="E18" s="13"/>
       <c r="F18" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G18" t="s" s="12">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" ht="20.05" customHeight="1">
@@ -3161,71 +3159,71 @@
         <v>10</v>
       </c>
       <c r="D19" t="s" s="12">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="14">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G19" t="s" s="12">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
+      <c r="A20" t="s" s="10">
+        <v>52</v>
+      </c>
+      <c r="B20" t="s" s="11">
+        <v>53</v>
+      </c>
+      <c r="C20" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s" s="12">
+        <v>11</v>
+      </c>
       <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
+      <c r="F20" s="14">
+        <v>9999</v>
+      </c>
       <c r="G20" s="12"/>
     </row>
-    <row r="21" ht="20.05" customHeight="1">
+    <row r="21" ht="32.05" customHeight="1">
       <c r="A21" t="s" s="10">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B21" t="s" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s" s="12">
         <v>10</v>
       </c>
       <c r="D21" t="s" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
+      <c r="F21" s="14">
+        <v>20</v>
+      </c>
       <c r="G21" t="s" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" ht="32.05" customHeight="1">
-      <c r="A22" t="s" s="10">
-        <v>54</v>
-      </c>
-      <c r="B22" t="s" s="11">
         <v>55</v>
       </c>
-      <c r="C22" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="D22" t="s" s="12">
-        <v>11</v>
-      </c>
+    </row>
+    <row r="22" ht="20.05" customHeight="1">
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
       <c r="E22" s="13"/>
-      <c r="F22" s="14">
-        <v>50</v>
-      </c>
-      <c r="G22" t="s" s="12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" ht="32.05" customHeight="1">
+      <c r="F22" s="13"/>
+      <c r="G22" s="12"/>
+    </row>
+    <row r="23" ht="20.05" customHeight="1">
       <c r="A23" t="s" s="10">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s" s="11">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s" s="12">
         <v>10</v>
@@ -3234,50 +3232,72 @@
         <v>11</v>
       </c>
       <c r="E23" s="13"/>
-      <c r="F23" s="14">
-        <v>50</v>
-      </c>
+      <c r="F23" s="13"/>
       <c r="G23" t="s" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="32.05" customHeight="1">
       <c r="A24" t="s" s="10">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s" s="11">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C24" t="s" s="12">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="13"/>
+      <c r="F24" s="14">
+        <v>50</v>
+      </c>
+      <c r="G24" t="s" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" ht="32.05" customHeight="1">
+      <c r="A25" t="s" s="10">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s" s="11">
+        <v>58</v>
+      </c>
+      <c r="C25" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="14">
+        <v>50</v>
+      </c>
+      <c r="G25" t="s" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" ht="32.05" customHeight="1">
+      <c r="A26" t="s" s="10">
+        <v>59</v>
+      </c>
+      <c r="B26" t="s" s="11">
+        <v>60</v>
+      </c>
+      <c r="C26" t="s" s="12">
+        <v>24</v>
+      </c>
+      <c r="D26" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="E26" s="14">
         <v>0</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F26" s="15">
         <v>100000000</v>
       </c>
-      <c r="G24" s="13"/>
-    </row>
-    <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" s="16"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-    </row>
-    <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" s="16"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
       <c r="G26" s="13"/>
     </row>
     <row r="27" ht="20.05" customHeight="1">
@@ -3315,6 +3335,24 @@
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
+    </row>
+    <row r="31" ht="20.05" customHeight="1">
+      <c r="A31" s="16"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+    </row>
+    <row r="32" ht="20.05" customHeight="1">
+      <c r="A32" s="16"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3356,28 +3394,28 @@
     </row>
     <row r="2" ht="20.25" customHeight="1">
       <c r="A2" t="s" s="5">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s" s="5">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s" s="5">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s" s="5">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E2" s="19"/>
     </row>
     <row r="3" ht="32.25" customHeight="1">
       <c r="A3" t="s" s="6">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s" s="20">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D3" s="21">
         <v>1000000</v>
@@ -3386,13 +3424,13 @@
     </row>
     <row r="4" ht="32.05" customHeight="1">
       <c r="A4" t="s" s="10">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s" s="12">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D4" s="15">
         <v>1500000</v>
@@ -3401,13 +3439,13 @@
     </row>
     <row r="5" ht="32.05" customHeight="1">
       <c r="A5" t="s" s="10">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s" s="12">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D5" s="15">
         <v>1350000</v>
@@ -3416,13 +3454,13 @@
     </row>
     <row r="6" ht="20.05" customHeight="1">
       <c r="A6" t="s" s="10">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s" s="12">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D6" s="15">
         <v>1750000</v>
@@ -3431,13 +3469,13 @@
     </row>
     <row r="7" ht="20.05" customHeight="1">
       <c r="A7" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s" s="12">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D7" s="15">
         <v>850000</v>
@@ -3446,13 +3484,13 @@
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" t="s" s="10">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B8" t="s" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s" s="12">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D8" s="15">
         <v>5500000</v>
@@ -3461,13 +3499,13 @@
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" t="s" s="10">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B9" t="s" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s" s="12">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D9" s="15">
         <v>4500000</v>
@@ -3476,13 +3514,13 @@
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" t="s" s="10">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B10" t="s" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s" s="12">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D10" s="15">
         <v>4000000</v>
@@ -3491,13 +3529,13 @@
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" t="s" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B11" t="s" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s" s="12">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D11" s="15">
         <v>2000000</v>
@@ -3506,13 +3544,13 @@
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" t="s" s="10">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B12" t="s" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s" s="12">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D12" s="15">
         <v>500000</v>
@@ -3528,13 +3566,13 @@
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" t="s" s="10">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B14" t="s" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C14" t="s" s="12">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D14" s="15">
         <v>600000</v>
@@ -3543,13 +3581,13 @@
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" t="s" s="10">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B15" t="s" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C15" t="s" s="12">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D15" s="15">
         <v>560000</v>
@@ -3558,13 +3596,13 @@
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" t="s" s="10">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B16" t="s" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C16" t="s" s="12">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D16" s="15">
         <v>65000</v>
@@ -3573,13 +3611,13 @@
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" t="s" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B17" t="s" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C17" t="s" s="12">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D17" s="15">
         <v>275000</v>
@@ -3588,13 +3626,13 @@
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" t="s" s="10">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B18" t="s" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C18" t="s" s="12">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D18" s="15">
         <v>70000</v>
@@ -3603,13 +3641,13 @@
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" t="s" s="10">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B19" t="s" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C19" t="s" s="12">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D19" s="15">
         <v>450000</v>
@@ -3683,48 +3721,48 @@
         <v>28</v>
       </c>
       <c r="H2" t="s" s="24">
+        <v>31</v>
+      </c>
+      <c r="I2" t="s" s="24">
         <v>33</v>
       </c>
-      <c r="I2" t="s" s="24">
-        <v>42</v>
-      </c>
       <c r="J2" t="s" s="24">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K2" t="s" s="24">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="L2" t="s" s="24">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="M2" t="s" s="24">
-        <v>51</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" ht="32.05" customHeight="1">
       <c r="A3" t="s" s="10">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s" s="11">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s" s="12">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s" s="12">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E3" t="s" s="12">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F3" t="s" s="12">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G3" t="s" s="12">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H3" t="s" s="12">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I3" s="14">
         <v>3</v>
@@ -3736,36 +3774,36 @@
         <v>4</v>
       </c>
       <c r="L3" t="s" s="12">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M3" t="s" s="12">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" ht="32.05" customHeight="1">
       <c r="A4" t="s" s="10">
+        <v>117</v>
+      </c>
+      <c r="B4" t="s" s="11">
+        <v>118</v>
+      </c>
+      <c r="C4" t="s" s="12">
+        <v>119</v>
+      </c>
+      <c r="D4" t="s" s="12">
+        <v>112</v>
+      </c>
+      <c r="E4" t="s" s="12">
+        <v>81</v>
+      </c>
+      <c r="F4" t="s" s="12">
+        <v>120</v>
+      </c>
+      <c r="G4" t="s" s="12">
+        <v>121</v>
+      </c>
+      <c r="H4" t="s" s="12">
         <v>115</v>
-      </c>
-      <c r="B4" t="s" s="11">
-        <v>116</v>
-      </c>
-      <c r="C4" t="s" s="12">
-        <v>117</v>
-      </c>
-      <c r="D4" t="s" s="12">
-        <v>110</v>
-      </c>
-      <c r="E4" t="s" s="12">
-        <v>80</v>
-      </c>
-      <c r="F4" t="s" s="12">
-        <v>118</v>
-      </c>
-      <c r="G4" t="s" s="12">
-        <v>119</v>
-      </c>
-      <c r="H4" t="s" s="12">
-        <v>113</v>
       </c>
       <c r="I4" s="14">
         <v>2</v>
@@ -3777,36 +3815,36 @@
         <v>1</v>
       </c>
       <c r="L4" t="s" s="12">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M4" t="s" s="12">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" ht="32.05" customHeight="1">
       <c r="A5" t="s" s="10">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B5" t="s" s="11">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C5" t="s" s="12">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D5" t="s" s="12">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E5" t="s" s="12">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F5" t="s" s="12">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G5" t="s" s="12">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H5" t="s" s="12">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I5" s="14">
         <v>2</v>
@@ -3818,36 +3856,36 @@
         <v>3</v>
       </c>
       <c r="L5" t="s" s="12">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M5" t="s" s="12">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" ht="32.05" customHeight="1">
       <c r="A6" t="s" s="10">
+        <v>127</v>
+      </c>
+      <c r="B6" t="s" s="11">
+        <v>128</v>
+      </c>
+      <c r="C6" t="s" s="12">
+        <v>129</v>
+      </c>
+      <c r="D6" t="s" s="12">
+        <v>112</v>
+      </c>
+      <c r="E6" t="s" s="12">
+        <v>78</v>
+      </c>
+      <c r="F6" t="s" s="12">
         <v>125</v>
       </c>
-      <c r="B6" t="s" s="11">
+      <c r="G6" t="s" s="12">
         <v>126</v>
       </c>
-      <c r="C6" t="s" s="12">
-        <v>127</v>
-      </c>
-      <c r="D6" t="s" s="12">
-        <v>110</v>
-      </c>
-      <c r="E6" t="s" s="12">
-        <v>77</v>
-      </c>
-      <c r="F6" t="s" s="12">
-        <v>123</v>
-      </c>
-      <c r="G6" t="s" s="12">
-        <v>124</v>
-      </c>
       <c r="H6" t="s" s="12">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I6" s="14">
         <v>1</v>
@@ -3859,36 +3897,36 @@
         <v>4</v>
       </c>
       <c r="L6" t="s" s="12">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M6" t="s" s="12">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" ht="32.05" customHeight="1">
       <c r="A7" t="s" s="10">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B7" t="s" s="11">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C7" t="s" s="12">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D7" t="s" s="12">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E7" t="s" s="12">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F7" t="s" s="12">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G7" t="s" s="12">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H7" t="s" s="12">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I7" s="14">
         <v>1</v>
@@ -3900,36 +3938,36 @@
         <v>3</v>
       </c>
       <c r="L7" t="s" s="12">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M7" t="s" s="12">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" ht="32.05" customHeight="1">
       <c r="A8" t="s" s="10">
+        <v>136</v>
+      </c>
+      <c r="B8" t="s" s="11">
+        <v>137</v>
+      </c>
+      <c r="C8" t="s" s="12">
+        <v>138</v>
+      </c>
+      <c r="D8" t="s" s="12">
+        <v>112</v>
+      </c>
+      <c r="E8" t="s" s="12">
+        <v>92</v>
+      </c>
+      <c r="F8" t="s" s="12">
         <v>134</v>
       </c>
-      <c r="B8" t="s" s="11">
-        <v>135</v>
-      </c>
-      <c r="C8" t="s" s="12">
-        <v>136</v>
-      </c>
-      <c r="D8" t="s" s="12">
-        <v>110</v>
-      </c>
-      <c r="E8" t="s" s="12">
-        <v>91</v>
-      </c>
-      <c r="F8" t="s" s="12">
-        <v>132</v>
-      </c>
       <c r="G8" t="s" s="12">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H8" t="s" s="12">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I8" s="14">
         <v>2</v>
@@ -3941,36 +3979,36 @@
         <v>2</v>
       </c>
       <c r="L8" t="s" s="12">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M8" t="s" s="12">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" ht="32.05" customHeight="1">
       <c r="A9" t="s" s="10">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B9" t="s" s="11">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C9" t="s" s="12">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D9" t="s" s="12">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E9" t="s" s="12">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F9" t="s" s="12">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G9" t="s" s="12">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H9" t="s" s="12">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I9" s="14">
         <v>3</v>
@@ -3982,36 +4020,36 @@
         <v>4</v>
       </c>
       <c r="L9" t="s" s="12">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M9" t="s" s="12">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" ht="32.05" customHeight="1">
       <c r="A10" t="s" s="10">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B10" t="s" s="11">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C10" t="s" s="12">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D10" t="s" s="12">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E10" t="s" s="12">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F10" t="s" s="12">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G10" t="s" s="12">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H10" t="s" s="12">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I10" s="14">
         <v>3</v>
@@ -4023,36 +4061,36 @@
         <v>2</v>
       </c>
       <c r="L10" t="s" s="12">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M10" t="s" s="12">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" ht="32.05" customHeight="1">
       <c r="A11" t="s" s="10">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s" s="11">
+        <v>149</v>
+      </c>
+      <c r="C11" t="s" s="12">
+        <v>150</v>
+      </c>
+      <c r="D11" t="s" s="12">
+        <v>112</v>
+      </c>
+      <c r="E11" t="s" s="12">
+        <v>104</v>
+      </c>
+      <c r="F11" t="s" s="12">
+        <v>113</v>
+      </c>
+      <c r="G11" t="s" s="12">
         <v>147</v>
       </c>
-      <c r="C11" t="s" s="12">
-        <v>148</v>
-      </c>
-      <c r="D11" t="s" s="12">
-        <v>110</v>
-      </c>
-      <c r="E11" t="s" s="12">
-        <v>103</v>
-      </c>
-      <c r="F11" t="s" s="12">
-        <v>111</v>
-      </c>
-      <c r="G11" t="s" s="12">
-        <v>145</v>
-      </c>
       <c r="H11" t="s" s="12">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I11" s="14">
         <v>2</v>
@@ -4064,36 +4102,36 @@
         <v>4</v>
       </c>
       <c r="L11" t="s" s="12">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M11" t="s" s="12">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" ht="32.05" customHeight="1">
       <c r="A12" t="s" s="10">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s" s="11">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C12" t="s" s="12">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D12" t="s" s="12">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E12" t="s" s="12">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F12" t="s" s="12">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G12" t="s" s="12">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H12" t="s" s="12">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I12" s="14">
         <v>3</v>
@@ -4105,36 +4143,36 @@
         <v>2</v>
       </c>
       <c r="L12" t="s" s="12">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M12" t="s" s="12">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" ht="32.05" customHeight="1">
       <c r="A13" t="s" s="10">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s" s="11">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C13" t="s" s="12">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D13" t="s" s="12">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E13" t="s" s="12">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F13" t="s" s="12">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G13" t="s" s="12">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H13" t="s" s="12">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I13" s="14">
         <v>2</v>
@@ -4146,10 +4184,10 @@
         <v>2</v>
       </c>
       <c r="L13" t="s" s="12">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M13" t="s" s="12">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -4185,7 +4223,7 @@
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -4194,19 +4232,19 @@
     </row>
     <row r="2" ht="23.2" customHeight="1">
       <c r="A2" t="s" s="26">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s" s="26">
         <v>31</v>
       </c>
-      <c r="B2" t="s" s="26">
-        <v>33</v>
-      </c>
       <c r="C2" t="s" s="26">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s" s="26">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s" s="26">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" ht="23.2" customHeight="1">
@@ -4217,7 +4255,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s" s="29">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D3" s="30"/>
       <c r="E3" s="30"/>
@@ -4230,13 +4268,13 @@
         <v>2</v>
       </c>
       <c r="C4" t="s" s="33">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D4" s="34">
         <v>1</v>
       </c>
       <c r="E4" t="s" s="33">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" ht="23" customHeight="1">
@@ -4247,13 +4285,13 @@
         <v>3</v>
       </c>
       <c r="C5" t="s" s="33">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D5" s="34">
         <v>100</v>
       </c>
       <c r="E5" t="s" s="33">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" ht="23" customHeight="1">
@@ -4264,13 +4302,13 @@
         <v>4</v>
       </c>
       <c r="C6" t="s" s="33">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D6" s="34">
         <v>101</v>
       </c>
       <c r="E6" t="s" s="33">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" ht="23" customHeight="1">
@@ -4281,13 +4319,13 @@
         <v>4</v>
       </c>
       <c r="C7" t="s" s="33">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D7" s="34">
         <v>101</v>
       </c>
       <c r="E7" t="s" s="33">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" ht="23" customHeight="1">
@@ -4298,13 +4336,13 @@
         <v>3</v>
       </c>
       <c r="C8" t="s" s="33">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D8" s="34">
         <v>100</v>
       </c>
       <c r="E8" t="s" s="33">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" ht="23" customHeight="1">
@@ -4315,13 +4353,13 @@
         <v>3</v>
       </c>
       <c r="C9" t="s" s="33">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D9" s="34">
         <v>100</v>
       </c>
       <c r="E9" t="s" s="33">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" ht="23" customHeight="1">
@@ -4332,13 +4370,13 @@
         <v>3</v>
       </c>
       <c r="C10" t="s" s="33">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D10" s="34">
         <v>100</v>
       </c>
       <c r="E10" t="s" s="33">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" ht="23" customHeight="1">
@@ -4349,13 +4387,13 @@
         <v>4</v>
       </c>
       <c r="C11" t="s" s="33">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D11" s="34">
         <v>106</v>
       </c>
       <c r="E11" t="s" s="33">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" ht="23" customHeight="1">
@@ -4366,13 +4404,13 @@
         <v>4</v>
       </c>
       <c r="C12" t="s" s="33">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D12" s="34">
         <v>106</v>
       </c>
       <c r="E12" t="s" s="33">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" ht="23" customHeight="1">
@@ -4383,13 +4421,13 @@
         <v>3</v>
       </c>
       <c r="C13" t="s" s="33">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D13" s="34">
         <v>100</v>
       </c>
       <c r="E13" t="s" s="33">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" ht="23" customHeight="1">
@@ -4407,13 +4445,13 @@
         <v>2</v>
       </c>
       <c r="C15" t="s" s="33">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D15" s="34">
         <v>1</v>
       </c>
       <c r="E15" t="s" s="33">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" ht="23" customHeight="1">
@@ -4424,13 +4462,13 @@
         <v>3</v>
       </c>
       <c r="C16" t="s" s="33">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D16" s="34">
         <v>200</v>
       </c>
       <c r="E16" t="s" s="33">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" ht="23" customHeight="1">
@@ -4441,13 +4479,13 @@
         <v>3</v>
       </c>
       <c r="C17" t="s" s="33">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D17" s="34">
         <v>200</v>
       </c>
       <c r="E17" t="s" s="33">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" ht="23" customHeight="1">
@@ -4458,13 +4496,13 @@
         <v>4</v>
       </c>
       <c r="C18" t="s" s="33">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D18" s="34">
         <v>202</v>
       </c>
       <c r="E18" t="s" s="33">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" ht="23" customHeight="1">
@@ -4475,13 +4513,13 @@
         <v>4</v>
       </c>
       <c r="C19" t="s" s="33">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D19" s="34">
         <v>202</v>
       </c>
       <c r="E19" t="s" s="33">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" ht="23" customHeight="1">
@@ -4492,13 +4530,13 @@
         <v>4</v>
       </c>
       <c r="C20" t="s" s="33">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D20" s="34">
         <v>202</v>
       </c>
       <c r="E20" t="s" s="33">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" ht="23" customHeight="1">
@@ -4509,13 +4547,13 @@
         <v>3</v>
       </c>
       <c r="C21" t="s" s="33">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D21" s="34">
         <v>200</v>
       </c>
       <c r="E21" t="s" s="33">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" ht="23" customHeight="1">
@@ -4526,13 +4564,13 @@
         <v>4</v>
       </c>
       <c r="C22" t="s" s="33">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D22" s="34">
         <v>206</v>
       </c>
       <c r="E22" t="s" s="33">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" ht="23" customHeight="1">
@@ -4543,13 +4581,13 @@
         <v>4</v>
       </c>
       <c r="C23" t="s" s="33">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D23" s="34">
         <v>206</v>
       </c>
       <c r="E23" t="s" s="33">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" ht="23" customHeight="1">
@@ -4560,13 +4598,13 @@
         <v>4</v>
       </c>
       <c r="C24" t="s" s="33">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D24" s="34">
         <v>206</v>
       </c>
       <c r="E24" t="s" s="33">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" ht="23" customHeight="1">
@@ -4577,13 +4615,13 @@
         <v>3</v>
       </c>
       <c r="C25" t="s" s="33">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D25" s="34">
         <v>200</v>
       </c>
       <c r="E25" t="s" s="33">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26" ht="23" customHeight="1">
@@ -4594,13 +4632,13 @@
         <v>4</v>
       </c>
       <c r="C26" t="s" s="33">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D26" s="34">
         <v>210</v>
       </c>
       <c r="E26" t="s" s="33">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27" ht="23" customHeight="1">
@@ -4611,13 +4649,13 @@
         <v>4</v>
       </c>
       <c r="C27" t="s" s="33">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D27" s="34">
         <v>210</v>
       </c>
       <c r="E27" t="s" s="33">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="28" ht="23" customHeight="1">
@@ -4628,13 +4666,13 @@
         <v>3</v>
       </c>
       <c r="C28" t="s" s="33">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D28" s="34">
         <v>200</v>
       </c>
       <c r="E28" t="s" s="33">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="29" ht="23" customHeight="1">
@@ -4645,13 +4683,13 @@
         <v>4</v>
       </c>
       <c r="C29" t="s" s="33">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D29" s="34">
         <v>213</v>
       </c>
       <c r="E29" t="s" s="33">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" ht="23" customHeight="1">
@@ -4662,13 +4700,13 @@
         <v>4</v>
       </c>
       <c r="C30" t="s" s="33">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D30" s="34">
         <v>213</v>
       </c>
       <c r="E30" t="s" s="33">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" ht="23" customHeight="1">
@@ -4679,13 +4717,13 @@
         <v>3</v>
       </c>
       <c r="C31" t="s" s="33">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D31" s="34">
         <v>200</v>
       </c>
       <c r="E31" t="s" s="33">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="32" ht="23" customHeight="1">
@@ -4696,13 +4734,13 @@
         <v>4</v>
       </c>
       <c r="C32" t="s" s="33">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D32" s="34">
         <v>216</v>
       </c>
       <c r="E32" t="s" s="33">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33" ht="23" customHeight="1">
@@ -4713,13 +4751,13 @@
         <v>4</v>
       </c>
       <c r="C33" t="s" s="33">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D33" s="34">
         <v>216</v>
       </c>
       <c r="E33" t="s" s="33">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="34" ht="23" customHeight="1">
@@ -4730,13 +4768,13 @@
         <v>3</v>
       </c>
       <c r="C34" t="s" s="33">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D34" s="34">
         <v>200</v>
       </c>
       <c r="E34" t="s" s="33">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="35" ht="23" customHeight="1">
@@ -4747,13 +4785,13 @@
         <v>3</v>
       </c>
       <c r="C35" t="s" s="33">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D35" s="34">
         <v>200</v>
       </c>
       <c r="E35" t="s" s="33">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="36" ht="23" customHeight="1">
@@ -4764,13 +4802,13 @@
         <v>3</v>
       </c>
       <c r="C36" t="s" s="33">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D36" s="34">
         <v>200</v>
       </c>
       <c r="E36" t="s" s="33">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" ht="23" customHeight="1">
@@ -4781,13 +4819,13 @@
         <v>3</v>
       </c>
       <c r="C37" t="s" s="33">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D37" s="34">
         <v>200</v>
       </c>
       <c r="E37" t="s" s="33">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="38" ht="23" customHeight="1">
@@ -4798,13 +4836,13 @@
         <v>4</v>
       </c>
       <c r="C38" t="s" s="33">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D38" s="34">
         <v>222</v>
       </c>
       <c r="E38" t="s" s="33">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="39" ht="23" customHeight="1">
@@ -4815,13 +4853,13 @@
         <v>4</v>
       </c>
       <c r="C39" t="s" s="33">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D39" s="34">
         <v>222</v>
       </c>
       <c r="E39" t="s" s="33">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="40" ht="23" customHeight="1">
@@ -4832,13 +4870,13 @@
         <v>4</v>
       </c>
       <c r="C40" t="s" s="33">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D40" s="34">
         <v>222</v>
       </c>
       <c r="E40" t="s" s="33">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="41" ht="23" customHeight="1">
@@ -4849,13 +4887,13 @@
         <v>3</v>
       </c>
       <c r="C41" t="s" s="33">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D41" s="34">
         <v>200</v>
       </c>
       <c r="E41" t="s" s="33">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="42" ht="23" customHeight="1">
@@ -4866,13 +4904,13 @@
         <v>3</v>
       </c>
       <c r="C42" t="s" s="33">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D42" s="34">
         <v>200</v>
       </c>
       <c r="E42" t="s" s="33">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="43" ht="23" customHeight="1">
@@ -4883,13 +4921,13 @@
         <v>3</v>
       </c>
       <c r="C43" t="s" s="33">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D43" s="34">
         <v>200</v>
       </c>
       <c r="E43" t="s" s="33">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="44" ht="23" customHeight="1">
@@ -4907,13 +4945,13 @@
         <v>2</v>
       </c>
       <c r="C45" t="s" s="33">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D45" s="34">
         <v>1</v>
       </c>
       <c r="E45" t="s" s="33">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="46" ht="23" customHeight="1">
@@ -4924,13 +4962,13 @@
         <v>3</v>
       </c>
       <c r="C46" t="s" s="33">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D46" s="34">
         <v>300</v>
       </c>
       <c r="E46" t="s" s="33">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="47" ht="23" customHeight="1">
@@ -4941,13 +4979,13 @@
         <v>4</v>
       </c>
       <c r="C47" t="s" s="33">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D47" s="34">
         <v>301</v>
       </c>
       <c r="E47" t="s" s="33">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="48" ht="23" customHeight="1">
@@ -4958,13 +4996,13 @@
         <v>4</v>
       </c>
       <c r="C48" t="s" s="33">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D48" s="34">
         <v>301</v>
       </c>
       <c r="E48" t="s" s="33">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="49" ht="23" customHeight="1">
@@ -4975,13 +5013,13 @@
         <v>4</v>
       </c>
       <c r="C49" t="s" s="33">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D49" s="34">
         <v>301</v>
       </c>
       <c r="E49" t="s" s="33">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="50" ht="23" customHeight="1">
@@ -4992,13 +5030,13 @@
         <v>3</v>
       </c>
       <c r="C50" t="s" s="33">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D50" s="34">
         <v>300</v>
       </c>
       <c r="E50" t="s" s="33">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="51" ht="23" customHeight="1">
@@ -5009,13 +5047,13 @@
         <v>4</v>
       </c>
       <c r="C51" t="s" s="33">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D51" s="34">
         <v>305</v>
       </c>
       <c r="E51" t="s" s="33">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="52" ht="23" customHeight="1">
@@ -5026,13 +5064,13 @@
         <v>4</v>
       </c>
       <c r="C52" t="s" s="33">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D52" s="34">
         <v>305</v>
       </c>
       <c r="E52" t="s" s="33">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="53" ht="23" customHeight="1">
@@ -5043,13 +5081,13 @@
         <v>4</v>
       </c>
       <c r="C53" t="s" s="33">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D53" s="34">
         <v>305</v>
       </c>
       <c r="E53" t="s" s="33">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="54" ht="23" customHeight="1">
@@ -5060,13 +5098,13 @@
         <v>4</v>
       </c>
       <c r="C54" t="s" s="33">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D54" s="34">
         <v>305</v>
       </c>
       <c r="E54" t="s" s="33">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="55" ht="23" customHeight="1">
@@ -5077,13 +5115,13 @@
         <v>3</v>
       </c>
       <c r="C55" t="s" s="33">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D55" s="34">
         <v>300</v>
       </c>
       <c r="E55" t="s" s="33">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="56" ht="23" customHeight="1">
@@ -5094,13 +5132,13 @@
         <v>4</v>
       </c>
       <c r="C56" t="s" s="33">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D56" s="34">
         <v>310</v>
       </c>
       <c r="E56" t="s" s="33">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="57" ht="23" customHeight="1">
@@ -5111,13 +5149,13 @@
         <v>4</v>
       </c>
       <c r="C57" t="s" s="33">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D57" s="34">
         <v>310</v>
       </c>
       <c r="E57" t="s" s="33">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="58" ht="23" customHeight="1">
@@ -5128,13 +5166,13 @@
         <v>4</v>
       </c>
       <c r="C58" t="s" s="33">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D58" s="34">
         <v>310</v>
       </c>
       <c r="E58" t="s" s="33">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="59" ht="23" customHeight="1">
@@ -5145,13 +5183,13 @@
         <v>4</v>
       </c>
       <c r="C59" t="s" s="33">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D59" s="34">
         <v>310</v>
       </c>
       <c r="E59" t="s" s="33">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="60" ht="23" customHeight="1">
@@ -5162,13 +5200,13 @@
         <v>4</v>
       </c>
       <c r="C60" t="s" s="33">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D60" s="34">
         <v>310</v>
       </c>
       <c r="E60" t="s" s="33">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="61" ht="23" customHeight="1">
@@ -5179,13 +5217,13 @@
         <v>3</v>
       </c>
       <c r="C61" t="s" s="33">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D61" s="34">
         <v>300</v>
       </c>
       <c r="E61" t="s" s="33">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="62" ht="23" customHeight="1">
@@ -5196,13 +5234,13 @@
         <v>4</v>
       </c>
       <c r="C62" t="s" s="33">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D62" s="34">
         <v>316</v>
       </c>
       <c r="E62" t="s" s="33">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="63" ht="23" customHeight="1">
@@ -5213,13 +5251,13 @@
         <v>4</v>
       </c>
       <c r="C63" t="s" s="33">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D63" s="34">
         <v>316</v>
       </c>
       <c r="E63" t="s" s="33">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="64" ht="23" customHeight="1">
@@ -5230,13 +5268,13 @@
         <v>4</v>
       </c>
       <c r="C64" t="s" s="33">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D64" s="34">
         <v>316</v>
       </c>
       <c r="E64" t="s" s="33">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="65" ht="23" customHeight="1">
@@ -5247,13 +5285,13 @@
         <v>3</v>
       </c>
       <c r="C65" t="s" s="33">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D65" s="34">
         <v>300</v>
       </c>
       <c r="E65" t="s" s="33">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="66" ht="23" customHeight="1">
@@ -5271,13 +5309,13 @@
         <v>2</v>
       </c>
       <c r="C67" t="s" s="33">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D67" s="34">
         <v>1</v>
       </c>
       <c r="E67" t="s" s="33">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="68" ht="23" customHeight="1">
@@ -5288,7 +5326,7 @@
         <v>3</v>
       </c>
       <c r="C68" t="s" s="33">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D68" s="34">
         <v>400</v>
@@ -5303,7 +5341,7 @@
         <v>3</v>
       </c>
       <c r="C69" t="s" s="33">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D69" s="34">
         <v>400</v>
@@ -5318,7 +5356,7 @@
         <v>4</v>
       </c>
       <c r="C70" t="s" s="33">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D70" s="34">
         <v>402</v>
@@ -5333,7 +5371,7 @@
         <v>4</v>
       </c>
       <c r="C71" t="s" s="33">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D71" s="34">
         <v>402</v>
@@ -5348,7 +5386,7 @@
         <v>3</v>
       </c>
       <c r="C72" t="s" s="33">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D72" s="34">
         <v>400</v>
@@ -5363,7 +5401,7 @@
         <v>4</v>
       </c>
       <c r="C73" t="s" s="33">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D73" s="34">
         <v>405</v>
@@ -5378,7 +5416,7 @@
         <v>4</v>
       </c>
       <c r="C74" t="s" s="33">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D74" s="34">
         <v>405</v>
@@ -5393,7 +5431,7 @@
         <v>4</v>
       </c>
       <c r="C75" t="s" s="33">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D75" s="34">
         <v>405</v>
@@ -5408,7 +5446,7 @@
         <v>4</v>
       </c>
       <c r="C76" t="s" s="33">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D76" s="34">
         <v>405</v>
@@ -5423,7 +5461,7 @@
         <v>4</v>
       </c>
       <c r="C77" t="s" s="33">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D77" s="34">
         <v>405</v>
@@ -5438,7 +5476,7 @@
         <v>4</v>
       </c>
       <c r="C78" t="s" s="33">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D78" s="34">
         <v>405</v>
@@ -5453,7 +5491,7 @@
         <v>3</v>
       </c>
       <c r="C79" t="s" s="33">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D79" s="34">
         <v>400</v>
@@ -5468,7 +5506,7 @@
         <v>4</v>
       </c>
       <c r="C80" t="s" s="33">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D80" s="34">
         <v>412</v>
@@ -5483,7 +5521,7 @@
         <v>5</v>
       </c>
       <c r="C81" t="s" s="33">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D81" s="34">
         <v>413</v>
@@ -5498,7 +5536,7 @@
         <v>5</v>
       </c>
       <c r="C82" t="s" s="33">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D82" s="34">
         <v>413</v>
@@ -5513,7 +5551,7 @@
         <v>5</v>
       </c>
       <c r="C83" t="s" s="33">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D83" s="34">
         <v>413</v>
@@ -5528,7 +5566,7 @@
         <v>5</v>
       </c>
       <c r="C84" t="s" s="33">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D84" s="34">
         <v>413</v>
@@ -5543,7 +5581,7 @@
         <v>4</v>
       </c>
       <c r="C85" t="s" s="33">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D85" s="34">
         <v>412</v>
@@ -5558,7 +5596,7 @@
         <v>5</v>
       </c>
       <c r="C86" t="s" s="33">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D86" s="34">
         <v>418</v>
@@ -5573,7 +5611,7 @@
         <v>5</v>
       </c>
       <c r="C87" t="s" s="33">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D87" s="34">
         <v>418</v>
@@ -5588,7 +5626,7 @@
         <v>5</v>
       </c>
       <c r="C88" t="s" s="33">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D88" s="34">
         <v>418</v>
@@ -5603,7 +5641,7 @@
         <v>4</v>
       </c>
       <c r="C89" t="s" s="33">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D89" s="34">
         <v>412</v>
@@ -5618,7 +5656,7 @@
         <v>5</v>
       </c>
       <c r="C90" t="s" s="33">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D90" s="34">
         <v>422</v>
@@ -5633,7 +5671,7 @@
         <v>5</v>
       </c>
       <c r="C91" t="s" s="33">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D91" s="34">
         <v>422</v>
@@ -5648,7 +5686,7 @@
         <v>5</v>
       </c>
       <c r="C92" t="s" s="33">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D92" s="34">
         <v>422</v>
@@ -5663,7 +5701,7 @@
         <v>4</v>
       </c>
       <c r="C93" t="s" s="33">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D93" s="34">
         <v>412</v>
@@ -5678,7 +5716,7 @@
         <v>3</v>
       </c>
       <c r="C94" t="s" s="33">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D94" s="34">
         <v>400</v>
@@ -5693,7 +5731,7 @@
         <v>4</v>
       </c>
       <c r="C95" t="s" s="33">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D95" s="34">
         <v>427</v>
@@ -5708,7 +5746,7 @@
         <v>4</v>
       </c>
       <c r="C96" t="s" s="33">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D96" s="34">
         <v>427</v>
@@ -5723,7 +5761,7 @@
         <v>5</v>
       </c>
       <c r="C97" t="s" s="33">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D97" s="34">
         <v>429</v>
@@ -5738,7 +5776,7 @@
         <v>5</v>
       </c>
       <c r="C98" t="s" s="33">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D98" s="34">
         <v>429</v>
@@ -5753,7 +5791,7 @@
         <v>5</v>
       </c>
       <c r="C99" t="s" s="33">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D99" s="34">
         <v>429</v>
@@ -5768,7 +5806,7 @@
         <v>5</v>
       </c>
       <c r="C100" t="s" s="33">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D100" s="34">
         <v>429</v>
@@ -5783,7 +5821,7 @@
         <v>5</v>
       </c>
       <c r="C101" t="s" s="33">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D101" s="34">
         <v>429</v>
@@ -5798,7 +5836,7 @@
         <v>4</v>
       </c>
       <c r="C102" t="s" s="33">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D102" s="34">
         <v>427</v>
@@ -5813,7 +5851,7 @@
         <v>3</v>
       </c>
       <c r="C103" t="s" s="33">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D103" s="34">
         <v>400</v>
@@ -5828,7 +5866,7 @@
         <v>4</v>
       </c>
       <c r="C104" t="s" s="33">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D104" s="34">
         <v>436</v>
@@ -5843,7 +5881,7 @@
         <v>4</v>
       </c>
       <c r="C105" t="s" s="33">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D105" s="34">
         <v>436</v>
@@ -5858,7 +5896,7 @@
         <v>4</v>
       </c>
       <c r="C106" t="s" s="33">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D106" s="34">
         <v>436</v>
@@ -5873,7 +5911,7 @@
         <v>4</v>
       </c>
       <c r="C107" t="s" s="33">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D107" s="34">
         <v>436</v>
@@ -5888,7 +5926,7 @@
         <v>3</v>
       </c>
       <c r="C108" t="s" s="33">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D108" s="34">
         <v>400</v>
@@ -5903,7 +5941,7 @@
         <v>4</v>
       </c>
       <c r="C109" t="s" s="33">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D109" s="34">
         <v>441</v>
@@ -5918,7 +5956,7 @@
         <v>4</v>
       </c>
       <c r="C110" t="s" s="33">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D110" s="34">
         <v>441</v>
@@ -5933,7 +5971,7 @@
         <v>4</v>
       </c>
       <c r="C111" t="s" s="33">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D111" s="34">
         <v>441</v>
@@ -5948,7 +5986,7 @@
         <v>3</v>
       </c>
       <c r="C112" t="s" s="33">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D112" s="34">
         <v>400</v>
@@ -5963,7 +6001,7 @@
         <v>4</v>
       </c>
       <c r="C113" t="s" s="33">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D113" s="34">
         <v>445</v>
@@ -5978,7 +6016,7 @@
         <v>4</v>
       </c>
       <c r="C114" t="s" s="33">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D114" s="34">
         <v>445</v>
@@ -5993,7 +6031,7 @@
         <v>4</v>
       </c>
       <c r="C115" t="s" s="33">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D115" s="34">
         <v>445</v>
@@ -6008,7 +6046,7 @@
         <v>3</v>
       </c>
       <c r="C116" t="s" s="33">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D116" s="34">
         <v>400</v>
@@ -6023,7 +6061,7 @@
         <v>4</v>
       </c>
       <c r="C117" t="s" s="33">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D117" s="34">
         <v>449</v>
@@ -6038,7 +6076,7 @@
         <v>4</v>
       </c>
       <c r="C118" t="s" s="33">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D118" s="34">
         <v>449</v>
@@ -6053,7 +6091,7 @@
         <v>4</v>
       </c>
       <c r="C119" t="s" s="33">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D119" s="34">
         <v>449</v>
@@ -6068,7 +6106,7 @@
         <v>3</v>
       </c>
       <c r="C120" t="s" s="33">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D120" s="34">
         <v>400</v>
@@ -6083,7 +6121,7 @@
         <v>4</v>
       </c>
       <c r="C121" t="s" s="33">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D121" s="34">
         <v>453</v>
@@ -6098,7 +6136,7 @@
         <v>4</v>
       </c>
       <c r="C122" t="s" s="33">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D122" s="34">
         <v>453</v>
@@ -6113,7 +6151,7 @@
         <v>4</v>
       </c>
       <c r="C123" t="s" s="33">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D123" s="34">
         <v>453</v>
@@ -6128,7 +6166,7 @@
         <v>4</v>
       </c>
       <c r="C124" t="s" s="33">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D124" s="34">
         <v>453</v>
@@ -6150,13 +6188,13 @@
         <v>2</v>
       </c>
       <c r="C126" t="s" s="33">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D126" s="34">
         <v>1</v>
       </c>
       <c r="E126" t="s" s="33">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="127" ht="23" customHeight="1">
@@ -6167,7 +6205,7 @@
         <v>3</v>
       </c>
       <c r="C127" t="s" s="33">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D127" s="34">
         <v>500</v>
@@ -6182,7 +6220,7 @@
         <v>3</v>
       </c>
       <c r="C128" t="s" s="33">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D128" s="34">
         <v>500</v>
@@ -6197,7 +6235,7 @@
         <v>4</v>
       </c>
       <c r="C129" t="s" s="33">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D129" s="34">
         <v>502</v>
@@ -6212,7 +6250,7 @@
         <v>4</v>
       </c>
       <c r="C130" t="s" s="33">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D130" s="34">
         <v>502</v>
@@ -6227,7 +6265,7 @@
         <v>3</v>
       </c>
       <c r="C131" t="s" s="33">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D131" s="34">
         <v>500</v>
@@ -6242,7 +6280,7 @@
         <v>4</v>
       </c>
       <c r="C132" t="s" s="33">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D132" s="34">
         <v>505</v>
@@ -6257,7 +6295,7 @@
         <v>4</v>
       </c>
       <c r="C133" t="s" s="33">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D133" s="34">
         <v>505</v>
@@ -6272,7 +6310,7 @@
         <v>4</v>
       </c>
       <c r="C134" t="s" s="33">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D134" s="34">
         <v>505</v>
@@ -6287,7 +6325,7 @@
         <v>4</v>
       </c>
       <c r="C135" t="s" s="33">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D135" s="34">
         <v>505</v>
@@ -6302,7 +6340,7 @@
         <v>3</v>
       </c>
       <c r="C136" t="s" s="33">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D136" s="34">
         <v>500</v>
@@ -6317,7 +6355,7 @@
         <v>4</v>
       </c>
       <c r="C137" t="s" s="33">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D137" s="34">
         <v>510</v>
@@ -6332,7 +6370,7 @@
         <v>4</v>
       </c>
       <c r="C138" t="s" s="33">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D138" s="34">
         <v>510</v>
@@ -6347,7 +6385,7 @@
         <v>3</v>
       </c>
       <c r="C139" t="s" s="33">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D139" s="34">
         <v>500</v>
@@ -6369,13 +6407,13 @@
         <v>2</v>
       </c>
       <c r="C141" t="s" s="33">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D141" s="34">
         <v>1</v>
       </c>
       <c r="E141" t="s" s="33">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="142" ht="23" customHeight="1">
@@ -6386,7 +6424,7 @@
         <v>3</v>
       </c>
       <c r="C142" t="s" s="33">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D142" s="34">
         <v>600</v>
@@ -6401,7 +6439,7 @@
         <v>3</v>
       </c>
       <c r="C143" t="s" s="33">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D143" s="34">
         <v>600</v>
@@ -6416,7 +6454,7 @@
         <v>4</v>
       </c>
       <c r="C144" t="s" s="33">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D144" s="34">
         <v>602</v>
@@ -6431,7 +6469,7 @@
         <v>4</v>
       </c>
       <c r="C145" t="s" s="33">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D145" s="34">
         <v>602</v>
@@ -6446,7 +6484,7 @@
         <v>4</v>
       </c>
       <c r="C146" t="s" s="33">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D146" s="34">
         <v>602</v>
@@ -6461,7 +6499,7 @@
         <v>4</v>
       </c>
       <c r="C147" t="s" s="33">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D147" s="34">
         <v>602</v>
@@ -6476,7 +6514,7 @@
         <v>3</v>
       </c>
       <c r="C148" t="s" s="33">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D148" s="34">
         <v>600</v>
@@ -6491,7 +6529,7 @@
         <v>4</v>
       </c>
       <c r="C149" t="s" s="33">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D149" s="34">
         <v>607</v>
@@ -6506,7 +6544,7 @@
         <v>4</v>
       </c>
       <c r="C150" t="s" s="33">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D150" s="34">
         <v>607</v>
@@ -6521,7 +6559,7 @@
         <v>4</v>
       </c>
       <c r="C151" t="s" s="33">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D151" s="34">
         <v>607</v>
@@ -6536,7 +6574,7 @@
         <v>4</v>
       </c>
       <c r="C152" t="s" s="33">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D152" s="34">
         <v>607</v>
@@ -6551,7 +6589,7 @@
         <v>3</v>
       </c>
       <c r="C153" t="s" s="33">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D153" s="34">
         <v>600</v>
@@ -6566,7 +6604,7 @@
         <v>4</v>
       </c>
       <c r="C154" t="s" s="33">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D154" s="34">
         <v>612</v>
@@ -6581,7 +6619,7 @@
         <v>4</v>
       </c>
       <c r="C155" t="s" s="33">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D155" s="34">
         <v>612</v>
@@ -6596,7 +6634,7 @@
         <v>4</v>
       </c>
       <c r="C156" t="s" s="33">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D156" s="34">
         <v>612</v>
@@ -6611,7 +6649,7 @@
         <v>3</v>
       </c>
       <c r="C157" t="s" s="33">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D157" s="34">
         <v>600</v>
@@ -6626,7 +6664,7 @@
         <v>4</v>
       </c>
       <c r="C158" t="s" s="33">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D158" s="34">
         <v>616</v>
@@ -6641,7 +6679,7 @@
         <v>4</v>
       </c>
       <c r="C159" t="s" s="33">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D159" s="34">
         <v>616</v>
@@ -6656,7 +6694,7 @@
         <v>4</v>
       </c>
       <c r="C160" t="s" s="33">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D160" s="34">
         <v>616</v>
@@ -6671,7 +6709,7 @@
         <v>4</v>
       </c>
       <c r="C161" t="s" s="33">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D161" s="34">
         <v>616</v>
@@ -6686,7 +6724,7 @@
         <v>4</v>
       </c>
       <c r="C162" t="s" s="33">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D162" s="34">
         <v>616</v>
@@ -6701,7 +6739,7 @@
         <v>3</v>
       </c>
       <c r="C163" t="s" s="33">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D163" s="34">
         <v>600</v>
@@ -6723,13 +6761,13 @@
         <v>2</v>
       </c>
       <c r="C165" t="s" s="33">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D165" s="34">
         <v>1</v>
       </c>
       <c r="E165" t="s" s="33">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="166" ht="23" customHeight="1">
@@ -6740,7 +6778,7 @@
         <v>3</v>
       </c>
       <c r="C166" t="s" s="33">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D166" s="34">
         <v>700</v>
@@ -6755,7 +6793,7 @@
         <v>3</v>
       </c>
       <c r="C167" t="s" s="33">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D167" s="34">
         <v>700</v>
@@ -6770,7 +6808,7 @@
         <v>4</v>
       </c>
       <c r="C168" t="s" s="33">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D168" s="34">
         <v>702</v>
@@ -6785,7 +6823,7 @@
         <v>4</v>
       </c>
       <c r="C169" t="s" s="33">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D169" s="34">
         <v>702</v>
@@ -6800,7 +6838,7 @@
         <v>4</v>
       </c>
       <c r="C170" t="s" s="33">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D170" s="34">
         <v>702</v>
@@ -6815,7 +6853,7 @@
         <v>3</v>
       </c>
       <c r="C171" t="s" s="33">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D171" s="34">
         <v>700</v>
@@ -6830,7 +6868,7 @@
         <v>4</v>
       </c>
       <c r="C172" t="s" s="33">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D172" s="34">
         <v>706</v>
@@ -6845,7 +6883,7 @@
         <v>4</v>
       </c>
       <c r="C173" t="s" s="33">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D173" s="34">
         <v>706</v>
@@ -6860,7 +6898,7 @@
         <v>4</v>
       </c>
       <c r="C174" t="s" s="33">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D174" s="34">
         <v>706</v>
@@ -6875,7 +6913,7 @@
         <v>3</v>
       </c>
       <c r="C175" t="s" s="33">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D175" s="34">
         <v>700</v>
@@ -6890,7 +6928,7 @@
         <v>4</v>
       </c>
       <c r="C176" t="s" s="33">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D176" s="34">
         <v>710</v>
@@ -6905,7 +6943,7 @@
         <v>4</v>
       </c>
       <c r="C177" t="s" s="33">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D177" s="34">
         <v>710</v>
@@ -6920,7 +6958,7 @@
         <v>4</v>
       </c>
       <c r="C178" t="s" s="33">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D178" s="34">
         <v>710</v>
@@ -6935,7 +6973,7 @@
         <v>3</v>
       </c>
       <c r="C179" t="s" s="33">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D179" s="34">
         <v>700</v>
@@ -6950,7 +6988,7 @@
         <v>4</v>
       </c>
       <c r="C180" t="s" s="33">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D180" s="34">
         <v>714</v>
@@ -6965,7 +7003,7 @@
         <v>4</v>
       </c>
       <c r="C181" t="s" s="33">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D181" s="34">
         <v>714</v>
@@ -6980,7 +7018,7 @@
         <v>4</v>
       </c>
       <c r="C182" t="s" s="33">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D182" s="34">
         <v>714</v>
@@ -6995,7 +7033,7 @@
         <v>3</v>
       </c>
       <c r="C183" t="s" s="33">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D183" s="34">
         <v>700</v>
@@ -7010,7 +7048,7 @@
         <v>4</v>
       </c>
       <c r="C184" t="s" s="33">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D184" s="34">
         <v>718</v>
@@ -7025,7 +7063,7 @@
         <v>4</v>
       </c>
       <c r="C185" t="s" s="33">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D185" s="34">
         <v>718</v>
@@ -7040,7 +7078,7 @@
         <v>4</v>
       </c>
       <c r="C186" t="s" s="33">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D186" s="34">
         <v>718</v>
@@ -7055,7 +7093,7 @@
         <v>4</v>
       </c>
       <c r="C187" t="s" s="33">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D187" s="34">
         <v>718</v>
@@ -7070,7 +7108,7 @@
         <v>3</v>
       </c>
       <c r="C188" t="s" s="33">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D188" s="34">
         <v>700</v>
@@ -7085,7 +7123,7 @@
         <v>3</v>
       </c>
       <c r="C189" t="s" s="33">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D189" s="34">
         <v>700</v>
@@ -7107,13 +7145,13 @@
         <v>2</v>
       </c>
       <c r="C191" t="s" s="33">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D191" s="34">
         <v>1</v>
       </c>
       <c r="E191" t="s" s="33">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="192" ht="23" customHeight="1">
@@ -7124,7 +7162,7 @@
         <v>3</v>
       </c>
       <c r="C192" t="s" s="33">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D192" s="34">
         <v>800</v>
@@ -7139,7 +7177,7 @@
         <v>3</v>
       </c>
       <c r="C193" t="s" s="33">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D193" s="34">
         <v>800</v>
@@ -7154,7 +7192,7 @@
         <v>4</v>
       </c>
       <c r="C194" t="s" s="33">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D194" s="34">
         <v>802</v>
@@ -7169,7 +7207,7 @@
         <v>4</v>
       </c>
       <c r="C195" t="s" s="33">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D195" s="34">
         <v>802</v>
@@ -7184,7 +7222,7 @@
         <v>3</v>
       </c>
       <c r="C196" t="s" s="33">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D196" s="34">
         <v>800</v>
@@ -7199,7 +7237,7 @@
         <v>4</v>
       </c>
       <c r="C197" t="s" s="33">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D197" s="34">
         <v>805</v>
@@ -7214,7 +7252,7 @@
         <v>4</v>
       </c>
       <c r="C198" t="s" s="33">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D198" s="34">
         <v>805</v>
@@ -7229,7 +7267,7 @@
         <v>3</v>
       </c>
       <c r="C199" t="s" s="33">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D199" s="34">
         <v>800</v>
@@ -7244,7 +7282,7 @@
         <v>4</v>
       </c>
       <c r="C200" t="s" s="33">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D200" s="34">
         <v>808</v>
@@ -7259,7 +7297,7 @@
         <v>4</v>
       </c>
       <c r="C201" t="s" s="33">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D201" s="34">
         <v>808</v>
@@ -7274,7 +7312,7 @@
         <v>3</v>
       </c>
       <c r="C202" t="s" s="33">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D202" s="34">
         <v>800</v>
@@ -7296,13 +7334,13 @@
         <v>2</v>
       </c>
       <c r="C204" t="s" s="33">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D204" s="34">
         <v>1</v>
       </c>
       <c r="E204" t="s" s="33">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="205" ht="23" customHeight="1">
@@ -7313,7 +7351,7 @@
         <v>3</v>
       </c>
       <c r="C205" t="s" s="33">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D205" s="34">
         <v>900</v>
@@ -7328,7 +7366,7 @@
         <v>4</v>
       </c>
       <c r="C206" t="s" s="33">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D206" s="34">
         <v>901</v>
@@ -7343,7 +7381,7 @@
         <v>4</v>
       </c>
       <c r="C207" t="s" s="33">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D207" s="34">
         <v>901</v>
@@ -7358,7 +7396,7 @@
         <v>4</v>
       </c>
       <c r="C208" t="s" s="33">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D208" s="34">
         <v>901</v>
@@ -7373,7 +7411,7 @@
         <v>4</v>
       </c>
       <c r="C209" t="s" s="33">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D209" s="34">
         <v>901</v>
@@ -7388,7 +7426,7 @@
         <v>4</v>
       </c>
       <c r="C210" t="s" s="33">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D210" s="34">
         <v>901</v>
@@ -7403,7 +7441,7 @@
         <v>4</v>
       </c>
       <c r="C211" t="s" s="33">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D211" s="34">
         <v>901</v>
@@ -7418,7 +7456,7 @@
         <v>3</v>
       </c>
       <c r="C212" t="s" s="33">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D212" s="34">
         <v>900</v>
@@ -7433,7 +7471,7 @@
         <v>4</v>
       </c>
       <c r="C213" t="s" s="33">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D213" s="34">
         <v>908</v>
@@ -7448,7 +7486,7 @@
         <v>4</v>
       </c>
       <c r="C214" t="s" s="33">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D214" s="34">
         <v>908</v>
@@ -7463,7 +7501,7 @@
         <v>4</v>
       </c>
       <c r="C215" t="s" s="33">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D215" s="34">
         <v>908</v>
@@ -7478,7 +7516,7 @@
         <v>4</v>
       </c>
       <c r="C216" t="s" s="33">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D216" s="34">
         <v>908</v>
@@ -7493,7 +7531,7 @@
         <v>4</v>
       </c>
       <c r="C217" t="s" s="33">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D217" s="34">
         <v>908</v>
@@ -7508,7 +7546,7 @@
         <v>4</v>
       </c>
       <c r="C218" t="s" s="33">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D218" s="34">
         <v>908</v>
@@ -7523,7 +7561,7 @@
         <v>4</v>
       </c>
       <c r="C219" t="s" s="33">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D219" s="34">
         <v>908</v>
@@ -7538,7 +7576,7 @@
         <v>4</v>
       </c>
       <c r="C220" t="s" s="33">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D220" s="34">
         <v>908</v>
@@ -7553,7 +7591,7 @@
         <v>3</v>
       </c>
       <c r="C221" t="s" s="33">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D221" s="34">
         <v>900</v>
@@ -7568,7 +7606,7 @@
         <v>4</v>
       </c>
       <c r="C222" t="s" s="33">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D222" s="34">
         <v>917</v>
@@ -7590,13 +7628,13 @@
         <v>2</v>
       </c>
       <c r="C224" t="s" s="33">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D224" s="34">
         <v>1</v>
       </c>
       <c r="E224" t="s" s="33">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="225" ht="23" customHeight="1">
@@ -7607,7 +7645,7 @@
         <v>3</v>
       </c>
       <c r="C225" t="s" s="33">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D225" s="34">
         <v>1000</v>
@@ -7622,7 +7660,7 @@
         <v>3</v>
       </c>
       <c r="C226" t="s" s="33">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D226" s="34">
         <v>1000</v>
@@ -7637,7 +7675,7 @@
         <v>4</v>
       </c>
       <c r="C227" t="s" s="33">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D227" s="34">
         <v>1002</v>
@@ -7652,7 +7690,7 @@
         <v>4</v>
       </c>
       <c r="C228" t="s" s="33">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D228" s="34">
         <v>1002</v>
@@ -7667,7 +7705,7 @@
         <v>4</v>
       </c>
       <c r="C229" t="s" s="33">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D229" s="34">
         <v>1002</v>
@@ -7682,7 +7720,7 @@
         <v>3</v>
       </c>
       <c r="C230" t="s" s="33">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D230" s="34">
         <v>1000</v>
@@ -7697,7 +7735,7 @@
         <v>4</v>
       </c>
       <c r="C231" t="s" s="33">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D231" s="34">
         <v>1006</v>
@@ -7712,7 +7750,7 @@
         <v>4</v>
       </c>
       <c r="C232" t="s" s="33">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D232" s="34">
         <v>1006</v>
@@ -7727,7 +7765,7 @@
         <v>4</v>
       </c>
       <c r="C233" t="s" s="33">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D233" s="34">
         <v>1006</v>
@@ -7742,7 +7780,7 @@
         <v>4</v>
       </c>
       <c r="C234" t="s" s="33">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D234" s="34">
         <v>1006</v>
@@ -7757,7 +7795,7 @@
         <v>3</v>
       </c>
       <c r="C235" t="s" s="33">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D235" s="34">
         <v>1000</v>
@@ -7772,7 +7810,7 @@
         <v>3</v>
       </c>
       <c r="C236" t="s" s="33">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D236" s="34">
         <v>1000</v>
@@ -7794,7 +7832,7 @@
         <v>2</v>
       </c>
       <c r="C238" t="s" s="33">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D238" s="34">
         <v>1</v>
@@ -7809,7 +7847,7 @@
         <v>3</v>
       </c>
       <c r="C239" t="s" s="33">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D239" s="34">
         <v>1100</v>
@@ -7824,7 +7862,7 @@
         <v>4</v>
       </c>
       <c r="C240" t="s" s="33">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D240" s="34">
         <v>1101</v>
@@ -7839,7 +7877,7 @@
         <v>3</v>
       </c>
       <c r="C241" t="s" s="33">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D241" s="34">
         <v>1100</v>
@@ -7861,7 +7899,7 @@
         <v>2</v>
       </c>
       <c r="C243" t="s" s="33">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D243" s="34">
         <v>1</v>
@@ -7876,7 +7914,7 @@
         <v>3</v>
       </c>
       <c r="C244" t="s" s="33">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D244" s="34">
         <v>1200</v>
@@ -7891,7 +7929,7 @@
         <v>4</v>
       </c>
       <c r="C245" t="s" s="33">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D245" s="34">
         <v>1201</v>
@@ -7906,7 +7944,7 @@
         <v>3</v>
       </c>
       <c r="C246" t="s" s="33">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D246" s="34">
         <v>1200</v>
